--- a/results/results_OT/nonnoisy_changeinfo_original.xlsx
+++ b/results/results_OT/nonnoisy_changeinfo_original.xlsx
@@ -1,32 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\linguist\Jou\Generals\Generals02\code\clean_test\results\original_backup_postsort\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\linguist\Jou\projects\2021_RIP\Generals02\code\economy_RIPGLA_2\results\results_OT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0063A2E8-6074-48E7-8391-74C039A0D69E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AD3B3EE-B0F8-4DAE-ACBD-7444EE53336D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
-    <sheet name="nonnoisy_changeinfo_original" sheetId="1" r:id="rId1"/>
+    <sheet name="nonnoisy_changeinfo_original - " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
-  <si>
-    <t>hypo01</t>
-  </si>
-  <si>
-    <t>hypo02</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>hypo03</t>
   </si>
@@ -232,7 +226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -1177,5373 +1171,4914 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AN31" sqref="AN31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>23</v>
-      </c>
-      <c r="C1">
-        <v>20</v>
-      </c>
-      <c r="D1">
-        <v>21</v>
-      </c>
-      <c r="E1">
-        <v>21</v>
-      </c>
-      <c r="F1">
-        <v>22</v>
-      </c>
-      <c r="G1">
-        <v>23</v>
-      </c>
-      <c r="H1">
-        <v>22</v>
-      </c>
-      <c r="I1">
-        <v>22</v>
-      </c>
-      <c r="J1">
-        <v>21</v>
-      </c>
-      <c r="K1">
-        <v>21</v>
-      </c>
-      <c r="L1">
-        <v>20</v>
-      </c>
-      <c r="M1">
-        <v>18</v>
-      </c>
-      <c r="N1">
-        <v>22</v>
-      </c>
-      <c r="O1">
-        <v>18</v>
-      </c>
-      <c r="P1">
-        <v>20</v>
-      </c>
-      <c r="Q1">
-        <v>22</v>
-      </c>
-      <c r="R1">
-        <v>21</v>
-      </c>
-      <c r="S1">
-        <v>19</v>
-      </c>
-      <c r="T1">
-        <v>22</v>
-      </c>
-      <c r="U1">
-        <v>22</v>
-      </c>
-      <c r="V1">
-        <v>17</v>
-      </c>
-      <c r="W1">
-        <v>20</v>
-      </c>
-      <c r="X1">
-        <v>16</v>
-      </c>
-      <c r="Y1">
-        <v>17</v>
-      </c>
-      <c r="Z1">
-        <v>20</v>
-      </c>
-      <c r="AA1">
-        <v>23</v>
-      </c>
-      <c r="AB1">
-        <v>20</v>
-      </c>
-      <c r="AC1">
-        <v>22</v>
-      </c>
-      <c r="AD1">
-        <v>18</v>
-      </c>
-      <c r="AE1">
-        <v>21</v>
-      </c>
-      <c r="AH1">
-        <f>MEDIAN(B1:AE1)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="C2">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="D2">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="E2">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="F2">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="G2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="H2">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="I2">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="J2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K2">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L2">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="M2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="N2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="O2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="P2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="Q2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="R2">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="S2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="T2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="U2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="V2">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="W2">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="X2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="Y2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="Z2">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="AA2">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="AB2">
-        <v>82</v>
-      </c>
-      <c r="AC2">
-        <v>85</v>
-      </c>
-      <c r="AH2">
-        <f t="shared" ref="AH2:AH65" si="0">MEDIAN(B2:AE2)</f>
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1279</v>
-      </c>
-      <c r="AH3">
-        <f t="shared" si="0"/>
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
+        <v>161</v>
+      </c>
+      <c r="C3">
+        <v>160</v>
+      </c>
+      <c r="D3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="C4">
-        <v>178</v>
+        <v>1285</v>
       </c>
       <c r="D4">
-        <v>147</v>
+        <v>920</v>
       </c>
       <c r="E4">
-        <v>150</v>
+        <v>443</v>
       </c>
       <c r="F4">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G4">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="H4">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="I4">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="J4">
-        <v>153</v>
+        <v>500</v>
       </c>
       <c r="K4">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="L4">
-        <v>152</v>
+        <v>827</v>
       </c>
       <c r="M4">
-        <v>139</v>
+        <v>537</v>
       </c>
       <c r="N4">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="O4">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="P4">
-        <v>146</v>
+        <v>1041</v>
       </c>
       <c r="Q4">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="R4">
-        <v>184</v>
+        <v>600</v>
       </c>
       <c r="S4">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="T4">
-        <v>148</v>
+        <v>810</v>
       </c>
       <c r="U4">
         <v>143</v>
       </c>
       <c r="V4">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="W4">
-        <v>141</v>
+        <v>792</v>
       </c>
       <c r="X4">
-        <v>146</v>
+        <v>1465</v>
       </c>
       <c r="Y4">
-        <v>139</v>
+        <v>916</v>
       </c>
       <c r="Z4">
-        <v>164</v>
+        <v>599</v>
       </c>
       <c r="AA4">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="AB4">
-        <v>159</v>
-      </c>
-      <c r="AH4">
-        <f t="shared" si="0"/>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="C5">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="D5">
-        <v>149</v>
-      </c>
-      <c r="AH5">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
+        <v>182</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5">
+        <v>192</v>
+      </c>
+      <c r="G5">
+        <v>185</v>
+      </c>
+      <c r="H5">
+        <v>211</v>
+      </c>
+      <c r="I5">
+        <v>203</v>
+      </c>
+      <c r="J5">
+        <v>174</v>
+      </c>
+      <c r="K5">
+        <v>190</v>
+      </c>
+      <c r="L5">
+        <v>202</v>
+      </c>
+      <c r="M5">
+        <v>187</v>
+      </c>
+      <c r="N5">
+        <v>197</v>
+      </c>
+      <c r="O5">
+        <v>193</v>
+      </c>
+      <c r="P5">
+        <v>190</v>
+      </c>
+      <c r="Q5">
+        <v>184</v>
+      </c>
+      <c r="R5">
+        <v>172</v>
+      </c>
+      <c r="S5">
+        <v>191</v>
+      </c>
+      <c r="T5">
+        <v>183</v>
+      </c>
+      <c r="U5">
+        <v>188</v>
+      </c>
+      <c r="V5">
+        <v>193</v>
+      </c>
+      <c r="W5">
+        <v>180</v>
+      </c>
+      <c r="X5">
+        <v>192</v>
+      </c>
+      <c r="Y5">
+        <v>189</v>
+      </c>
+      <c r="Z5">
+        <v>194</v>
+      </c>
+      <c r="AA5">
+        <v>193</v>
+      </c>
+      <c r="AB5">
+        <v>187</v>
+      </c>
+      <c r="AC5">
+        <v>190</v>
+      </c>
+      <c r="AD5">
+        <v>176</v>
+      </c>
+      <c r="AE5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="C6">
-        <v>1285</v>
+        <v>76</v>
       </c>
       <c r="D6">
-        <v>920</v>
+        <v>80</v>
       </c>
       <c r="E6">
-        <v>443</v>
+        <v>84</v>
       </c>
       <c r="F6">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="G6">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="H6">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="I6">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="J6">
-        <v>500</v>
+        <v>88</v>
       </c>
       <c r="K6">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="L6">
-        <v>827</v>
+        <v>105</v>
       </c>
       <c r="M6">
-        <v>537</v>
+        <v>85</v>
       </c>
       <c r="N6">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="O6">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="P6">
-        <v>1041</v>
+        <v>83</v>
       </c>
       <c r="Q6">
-        <v>229</v>
+        <v>91</v>
       </c>
       <c r="R6">
-        <v>600</v>
+        <v>83</v>
       </c>
       <c r="S6">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="T6">
-        <v>810</v>
+        <v>81</v>
       </c>
       <c r="U6">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="V6">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="W6">
-        <v>792</v>
+        <v>83</v>
       </c>
       <c r="X6">
-        <v>1465</v>
+        <v>83</v>
       </c>
       <c r="Y6">
-        <v>916</v>
+        <v>89</v>
       </c>
       <c r="Z6">
-        <v>599</v>
+        <v>82</v>
       </c>
       <c r="AA6">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="AB6">
-        <v>175</v>
-      </c>
-      <c r="AH6">
-        <f t="shared" si="0"/>
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
+        <v>75</v>
+      </c>
+      <c r="AC6">
+        <v>92</v>
+      </c>
+      <c r="AD6">
+        <v>77</v>
+      </c>
+      <c r="AE6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="C7">
-        <v>188</v>
+        <v>638</v>
       </c>
       <c r="D7">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="E7">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="F7">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="G7">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="H7">
-        <v>211</v>
-      </c>
-      <c r="I7">
-        <v>203</v>
-      </c>
-      <c r="J7">
-        <v>174</v>
-      </c>
-      <c r="K7">
-        <v>190</v>
-      </c>
-      <c r="L7">
-        <v>202</v>
-      </c>
-      <c r="M7">
-        <v>187</v>
-      </c>
-      <c r="N7">
-        <v>197</v>
-      </c>
-      <c r="O7">
-        <v>193</v>
-      </c>
-      <c r="P7">
-        <v>190</v>
-      </c>
-      <c r="Q7">
-        <v>184</v>
-      </c>
-      <c r="R7">
-        <v>172</v>
-      </c>
-      <c r="S7">
-        <v>191</v>
-      </c>
-      <c r="T7">
-        <v>183</v>
-      </c>
-      <c r="U7">
-        <v>188</v>
-      </c>
-      <c r="V7">
-        <v>193</v>
-      </c>
-      <c r="W7">
-        <v>180</v>
-      </c>
-      <c r="X7">
-        <v>192</v>
-      </c>
-      <c r="Y7">
-        <v>189</v>
-      </c>
-      <c r="Z7">
-        <v>194</v>
-      </c>
-      <c r="AA7">
-        <v>193</v>
-      </c>
-      <c r="AB7">
-        <v>187</v>
-      </c>
-      <c r="AC7">
-        <v>190</v>
-      </c>
-      <c r="AD7">
-        <v>176</v>
-      </c>
-      <c r="AE7">
-        <v>188</v>
-      </c>
-      <c r="AH7">
-        <f t="shared" si="0"/>
-        <v>189.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C8">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D8">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="E8">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G8">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="H8">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I8">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="J8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K8">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="L8">
+        <v>96</v>
+      </c>
+      <c r="M8">
+        <v>104</v>
+      </c>
+      <c r="N8">
+        <v>110</v>
+      </c>
+      <c r="O8">
+        <v>117</v>
+      </c>
+      <c r="P8">
+        <v>101</v>
+      </c>
+      <c r="Q8">
+        <v>101</v>
+      </c>
+      <c r="R8">
+        <v>118</v>
+      </c>
+      <c r="S8">
+        <v>110</v>
+      </c>
+      <c r="T8">
+        <v>96</v>
+      </c>
+      <c r="U8">
+        <v>120</v>
+      </c>
+      <c r="V8">
+        <v>99</v>
+      </c>
+      <c r="W8">
+        <v>110</v>
+      </c>
+      <c r="X8">
+        <v>142</v>
+      </c>
+      <c r="Y8">
+        <v>100</v>
+      </c>
+      <c r="Z8">
+        <v>108</v>
+      </c>
+      <c r="AA8">
         <v>105</v>
       </c>
-      <c r="M8">
-        <v>85</v>
-      </c>
-      <c r="N8">
-        <v>80</v>
-      </c>
-      <c r="O8">
-        <v>90</v>
-      </c>
-      <c r="P8">
-        <v>83</v>
-      </c>
-      <c r="Q8">
-        <v>91</v>
-      </c>
-      <c r="R8">
-        <v>83</v>
-      </c>
-      <c r="S8">
-        <v>81</v>
-      </c>
-      <c r="T8">
-        <v>81</v>
-      </c>
-      <c r="U8">
-        <v>73</v>
-      </c>
-      <c r="V8">
-        <v>82</v>
-      </c>
-      <c r="W8">
-        <v>83</v>
-      </c>
-      <c r="X8">
-        <v>83</v>
-      </c>
-      <c r="Y8">
-        <v>89</v>
-      </c>
-      <c r="Z8">
-        <v>82</v>
-      </c>
-      <c r="AA8">
-        <v>81</v>
-      </c>
       <c r="AB8">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AC8">
-        <v>92</v>
-      </c>
-      <c r="AD8">
-        <v>77</v>
-      </c>
-      <c r="AE8">
-        <v>77</v>
-      </c>
-      <c r="AH8">
-        <f t="shared" si="0"/>
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>109</v>
+      </c>
+      <c r="C9">
+        <v>113</v>
+      </c>
+      <c r="D9">
+        <v>140</v>
+      </c>
+      <c r="E9">
+        <v>131</v>
+      </c>
+      <c r="F9">
+        <v>116</v>
+      </c>
+      <c r="G9">
+        <v>140</v>
+      </c>
+      <c r="H9">
+        <v>130</v>
+      </c>
+      <c r="I9">
+        <v>129</v>
+      </c>
+      <c r="J9">
+        <v>137</v>
+      </c>
+      <c r="K9">
+        <v>121</v>
+      </c>
+      <c r="L9">
+        <v>132</v>
+      </c>
+      <c r="M9">
+        <v>132</v>
+      </c>
+      <c r="N9">
         <v>125</v>
       </c>
-      <c r="C9">
-        <v>638</v>
-      </c>
-      <c r="D9">
-        <v>128</v>
-      </c>
-      <c r="E9">
-        <v>141</v>
-      </c>
-      <c r="F9">
-        <v>145</v>
-      </c>
-      <c r="G9">
-        <v>260</v>
-      </c>
-      <c r="H9">
-        <v>124</v>
-      </c>
-      <c r="AH9">
-        <f t="shared" si="0"/>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
+      <c r="O9">
+        <v>136</v>
+      </c>
+      <c r="P9">
+        <v>139</v>
+      </c>
+      <c r="Q9">
+        <v>134</v>
+      </c>
+      <c r="R9">
+        <v>121</v>
+      </c>
+      <c r="S9">
+        <v>143</v>
+      </c>
+      <c r="T9">
+        <v>134</v>
+      </c>
+      <c r="U9">
+        <v>140</v>
+      </c>
+      <c r="V9">
+        <v>142</v>
+      </c>
+      <c r="W9">
+        <v>119</v>
+      </c>
+      <c r="X9">
+        <v>149</v>
+      </c>
+      <c r="Y9">
+        <v>120</v>
+      </c>
+      <c r="Z9">
+        <v>107</v>
+      </c>
+      <c r="AA9">
+        <v>122</v>
+      </c>
+      <c r="AB9">
+        <v>134</v>
+      </c>
+      <c r="AC9">
+        <v>95</v>
+      </c>
+      <c r="AD9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="C10">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="E10">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="F10">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="G10">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="H10">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="I10">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="J10">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="K10">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="L10">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="M10">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="N10">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="O10">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="P10">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="Q10">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="R10">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="S10">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="T10">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="U10">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="V10">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="W10">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="X10">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="Y10">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="Z10">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="AA10">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="AB10">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="AC10">
-        <v>110</v>
-      </c>
-      <c r="AH10">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
+        <v>58</v>
+      </c>
+      <c r="AD10">
+        <v>62</v>
+      </c>
+      <c r="AE10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>109</v>
-      </c>
-      <c r="C11">
-        <v>113</v>
-      </c>
-      <c r="D11">
-        <v>140</v>
-      </c>
-      <c r="E11">
-        <v>131</v>
-      </c>
-      <c r="F11">
-        <v>116</v>
-      </c>
-      <c r="G11">
-        <v>140</v>
-      </c>
-      <c r="H11">
-        <v>130</v>
-      </c>
-      <c r="I11">
-        <v>129</v>
-      </c>
-      <c r="J11">
-        <v>137</v>
-      </c>
-      <c r="K11">
-        <v>121</v>
-      </c>
-      <c r="L11">
-        <v>132</v>
-      </c>
-      <c r="M11">
-        <v>132</v>
-      </c>
-      <c r="N11">
-        <v>125</v>
-      </c>
-      <c r="O11">
-        <v>136</v>
-      </c>
-      <c r="P11">
-        <v>139</v>
-      </c>
-      <c r="Q11">
-        <v>134</v>
-      </c>
-      <c r="R11">
-        <v>121</v>
-      </c>
-      <c r="S11">
-        <v>143</v>
-      </c>
-      <c r="T11">
-        <v>134</v>
-      </c>
-      <c r="U11">
-        <v>140</v>
-      </c>
-      <c r="V11">
-        <v>142</v>
-      </c>
-      <c r="W11">
-        <v>119</v>
-      </c>
-      <c r="X11">
-        <v>149</v>
-      </c>
-      <c r="Y11">
-        <v>120</v>
-      </c>
-      <c r="Z11">
-        <v>107</v>
-      </c>
-      <c r="AA11">
-        <v>122</v>
-      </c>
-      <c r="AB11">
-        <v>134</v>
-      </c>
-      <c r="AC11">
-        <v>95</v>
-      </c>
-      <c r="AD11">
-        <v>105</v>
-      </c>
-      <c r="AH11">
-        <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="F12">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="G12">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="H12">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I12">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="J12">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="L12">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="M12">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="N12">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="O12">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="P12">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="Q12">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="R12">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="S12">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="T12">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="U12">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="V12">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="W12">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="X12">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="Y12">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="Z12">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="AA12">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AB12">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="AC12">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="AD12">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="AE12">
-        <v>53</v>
-      </c>
-      <c r="AH12">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="AH13" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
+      <c r="B13">
+        <v>1407</v>
+      </c>
+      <c r="C13">
+        <v>4877</v>
+      </c>
+      <c r="D13">
+        <v>3873</v>
+      </c>
+      <c r="E13">
+        <v>3500</v>
+      </c>
+      <c r="F13">
+        <v>2626</v>
+      </c>
+      <c r="G13">
+        <v>574</v>
+      </c>
+      <c r="H13">
+        <v>4680</v>
+      </c>
+      <c r="I13">
+        <v>2601</v>
+      </c>
+      <c r="J13">
+        <v>1061</v>
+      </c>
+      <c r="K13">
+        <v>4018</v>
+      </c>
+      <c r="L13">
+        <v>3179</v>
+      </c>
+      <c r="M13">
+        <v>4258</v>
+      </c>
+      <c r="N13">
+        <v>3518</v>
+      </c>
+      <c r="O13">
+        <v>5931</v>
+      </c>
+      <c r="P13">
+        <v>3587</v>
+      </c>
+      <c r="Q13">
+        <v>1317</v>
+      </c>
+      <c r="R13">
+        <v>1414</v>
+      </c>
+      <c r="S13">
+        <v>3476</v>
+      </c>
+      <c r="T13">
+        <v>4635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="F14">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="G14">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="H14">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="I14">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="J14">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="K14">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L14">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="N14">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="O14">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="P14">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="R14">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="S14">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="T14">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="U14">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="V14">
-        <v>21</v>
-      </c>
-      <c r="W14">
-        <v>18</v>
-      </c>
-      <c r="X14">
-        <v>21</v>
-      </c>
-      <c r="Y14">
-        <v>19</v>
-      </c>
-      <c r="Z14">
-        <v>22</v>
-      </c>
-      <c r="AA14">
-        <v>19</v>
-      </c>
-      <c r="AB14">
-        <v>20</v>
-      </c>
-      <c r="AC14">
-        <v>19</v>
-      </c>
-      <c r="AD14">
-        <v>20</v>
-      </c>
-      <c r="AE14">
-        <v>20</v>
-      </c>
-      <c r="AH14">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1407</v>
+        <v>57</v>
       </c>
       <c r="C15">
-        <v>4877</v>
+        <v>50</v>
       </c>
       <c r="D15">
-        <v>3873</v>
+        <v>50</v>
       </c>
       <c r="E15">
-        <v>3500</v>
+        <v>47</v>
       </c>
       <c r="F15">
-        <v>2626</v>
+        <v>47</v>
       </c>
       <c r="G15">
-        <v>574</v>
+        <v>48</v>
       </c>
       <c r="H15">
-        <v>4680</v>
+        <v>57</v>
       </c>
       <c r="I15">
-        <v>2601</v>
+        <v>59</v>
       </c>
       <c r="J15">
-        <v>1061</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>4018</v>
+        <v>53</v>
       </c>
       <c r="L15">
-        <v>3179</v>
+        <v>70</v>
       </c>
       <c r="M15">
-        <v>4258</v>
+        <v>55</v>
       </c>
       <c r="N15">
-        <v>3518</v>
+        <v>53</v>
       </c>
       <c r="O15">
-        <v>5931</v>
+        <v>50</v>
       </c>
       <c r="P15">
-        <v>3587</v>
+        <v>67</v>
       </c>
       <c r="Q15">
-        <v>1317</v>
+        <v>54</v>
       </c>
       <c r="R15">
-        <v>1414</v>
+        <v>50</v>
       </c>
       <c r="S15">
-        <v>3476</v>
+        <v>55</v>
       </c>
       <c r="T15">
-        <v>4635</v>
-      </c>
-      <c r="AH15">
-        <f t="shared" si="0"/>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
+        <v>56</v>
+      </c>
+      <c r="U15">
+        <v>45</v>
+      </c>
+      <c r="V15">
+        <v>54</v>
+      </c>
+      <c r="W15">
+        <v>47</v>
+      </c>
+      <c r="X15">
+        <v>55</v>
+      </c>
+      <c r="Y15">
+        <v>49</v>
+      </c>
+      <c r="Z15">
+        <v>54</v>
+      </c>
+      <c r="AA15">
+        <v>57</v>
+      </c>
+      <c r="AB15">
+        <v>54</v>
+      </c>
+      <c r="AC15">
+        <v>51</v>
+      </c>
+      <c r="AD15">
+        <v>51</v>
+      </c>
+      <c r="AE15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>198</v>
+        <v>358</v>
       </c>
       <c r="C16">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="D16">
-        <v>208</v>
+        <v>291</v>
       </c>
       <c r="E16">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="F16">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="G16">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="H16">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="I16">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="J16">
-        <v>242</v>
+        <v>140</v>
       </c>
       <c r="K16">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="L16">
-        <v>194</v>
+        <v>493</v>
       </c>
       <c r="M16">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="N16">
-        <v>187</v>
+        <v>290</v>
       </c>
       <c r="O16">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="P16">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="Q16">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="R16">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="S16">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="T16">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="U16">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="V16">
-        <v>245</v>
-      </c>
-      <c r="AH16">
-        <f t="shared" si="0"/>
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34">
+        <v>258</v>
+      </c>
+      <c r="W16">
+        <v>120</v>
+      </c>
+      <c r="X16">
+        <v>91</v>
+      </c>
+      <c r="Y16">
+        <v>403</v>
+      </c>
+      <c r="Z16">
+        <v>201</v>
+      </c>
+      <c r="AA16">
+        <v>317</v>
+      </c>
+      <c r="AB16">
+        <v>231</v>
+      </c>
+      <c r="AC16">
+        <v>451</v>
+      </c>
+      <c r="AD16">
+        <v>394</v>
+      </c>
+      <c r="AE16">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F17">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="G17">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="H17">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="I17">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="J17">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="K17">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="M17">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="N17">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="O17">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P17">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="Q17">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="R17">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="S17">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="T17">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="U17">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="V17">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="W17">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="X17">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="Y17">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="Z17">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="AA17">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="AB17">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="AC17">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="AD17">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="AE17">
-        <v>53</v>
-      </c>
-      <c r="AH17">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
-        <v>358</v>
+        <v>4812</v>
       </c>
       <c r="C18">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D18">
-        <v>291</v>
+        <v>4501</v>
       </c>
       <c r="E18">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="F18">
-        <v>117</v>
+        <v>261</v>
       </c>
       <c r="G18">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="H18">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="I18">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="J18">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="K18">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="L18">
-        <v>493</v>
+        <v>335</v>
       </c>
       <c r="M18">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="N18">
-        <v>290</v>
+        <v>239</v>
       </c>
       <c r="O18">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="P18">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="Q18">
-        <v>251</v>
+        <v>116</v>
       </c>
       <c r="R18">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="S18">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="T18">
-        <v>86</v>
+        <v>507</v>
       </c>
       <c r="U18">
-        <v>156</v>
+        <v>3714</v>
       </c>
       <c r="V18">
-        <v>258</v>
+        <v>113</v>
       </c>
       <c r="W18">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="X18">
-        <v>91</v>
+        <v>270</v>
       </c>
       <c r="Y18">
-        <v>403</v>
+        <v>304</v>
       </c>
       <c r="Z18">
-        <v>201</v>
-      </c>
-      <c r="AA18">
-        <v>317</v>
-      </c>
-      <c r="AB18">
-        <v>231</v>
-      </c>
-      <c r="AC18">
-        <v>451</v>
-      </c>
-      <c r="AD18">
-        <v>394</v>
-      </c>
-      <c r="AE18">
-        <v>139</v>
-      </c>
-      <c r="AH18">
-        <f t="shared" si="0"/>
-        <v>146.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>2818</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>8620</v>
       </c>
       <c r="E19">
-        <v>21</v>
+        <v>5669</v>
       </c>
       <c r="F19">
-        <v>19</v>
+        <v>426</v>
       </c>
       <c r="G19">
-        <v>21</v>
+        <v>3155</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>2943</v>
       </c>
       <c r="I19">
-        <v>19</v>
+        <v>8548</v>
       </c>
       <c r="J19">
-        <v>18</v>
+        <v>13418</v>
       </c>
       <c r="K19">
-        <v>19</v>
+        <v>7402</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>8916</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>19001</v>
       </c>
       <c r="N19">
-        <v>19</v>
+        <v>4279</v>
       </c>
       <c r="O19">
-        <v>20</v>
-      </c>
-      <c r="P19">
-        <v>20</v>
-      </c>
-      <c r="Q19">
-        <v>22</v>
-      </c>
-      <c r="R19">
-        <v>19</v>
-      </c>
-      <c r="S19">
-        <v>18</v>
-      </c>
-      <c r="T19">
-        <v>21</v>
-      </c>
-      <c r="U19">
-        <v>18</v>
-      </c>
-      <c r="V19">
-        <v>20</v>
-      </c>
-      <c r="W19">
-        <v>20</v>
-      </c>
-      <c r="X19">
-        <v>19</v>
-      </c>
-      <c r="Y19">
-        <v>21</v>
-      </c>
-      <c r="Z19">
-        <v>18</v>
-      </c>
-      <c r="AA19">
-        <v>21</v>
-      </c>
-      <c r="AB19">
-        <v>20</v>
-      </c>
-      <c r="AC19">
-        <v>18</v>
-      </c>
-      <c r="AD19">
-        <v>20</v>
-      </c>
-      <c r="AE19">
-        <v>19</v>
-      </c>
-      <c r="AH19">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34">
+        <v>5287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
-        <v>4812</v>
+        <v>2170</v>
       </c>
       <c r="C20">
-        <v>145</v>
+        <v>2597</v>
       </c>
       <c r="D20">
-        <v>4501</v>
+        <v>5045</v>
       </c>
       <c r="E20">
-        <v>87</v>
+        <v>969</v>
       </c>
       <c r="F20">
-        <v>261</v>
+        <v>14425</v>
       </c>
       <c r="G20">
-        <v>85</v>
+        <v>10828</v>
       </c>
       <c r="H20">
-        <v>256</v>
+        <v>13683</v>
       </c>
       <c r="I20">
-        <v>136</v>
+        <v>482</v>
       </c>
       <c r="J20">
-        <v>87</v>
+        <v>7628</v>
       </c>
       <c r="K20">
-        <v>127</v>
+        <v>14173</v>
       </c>
       <c r="L20">
-        <v>335</v>
+        <v>61</v>
       </c>
       <c r="M20">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="N20">
-        <v>239</v>
+        <v>801</v>
       </c>
       <c r="O20">
-        <v>212</v>
+        <v>5150</v>
       </c>
       <c r="P20">
-        <v>170</v>
+        <v>10033</v>
       </c>
       <c r="Q20">
-        <v>116</v>
+        <v>11161</v>
       </c>
       <c r="R20">
-        <v>144</v>
+        <v>12201</v>
       </c>
       <c r="S20">
-        <v>114</v>
+        <v>2872</v>
       </c>
       <c r="T20">
-        <v>507</v>
+        <v>24957</v>
       </c>
       <c r="U20">
-        <v>3714</v>
+        <v>4350</v>
       </c>
       <c r="V20">
-        <v>113</v>
+        <v>14065</v>
       </c>
       <c r="W20">
-        <v>99</v>
-      </c>
-      <c r="X20">
-        <v>270</v>
-      </c>
-      <c r="Y20">
-        <v>304</v>
-      </c>
-      <c r="Z20">
-        <v>205</v>
-      </c>
-      <c r="AH20">
-        <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34">
+        <v>5547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>2818</v>
+        <v>114</v>
       </c>
       <c r="C21">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="D21">
-        <v>8620</v>
+        <v>131</v>
       </c>
       <c r="E21">
-        <v>5669</v>
+        <v>128</v>
       </c>
       <c r="F21">
-        <v>426</v>
+        <v>130</v>
       </c>
       <c r="G21">
-        <v>3155</v>
+        <v>126</v>
       </c>
       <c r="H21">
-        <v>2943</v>
+        <v>121</v>
       </c>
       <c r="I21">
-        <v>8548</v>
+        <v>119</v>
       </c>
       <c r="J21">
-        <v>13418</v>
+        <v>203</v>
       </c>
       <c r="K21">
-        <v>7402</v>
+        <v>110</v>
       </c>
       <c r="L21">
-        <v>8916</v>
+        <v>114</v>
       </c>
       <c r="M21">
-        <v>19001</v>
+        <v>330</v>
       </c>
       <c r="N21">
-        <v>4279</v>
+        <v>134</v>
       </c>
       <c r="O21">
-        <v>5287</v>
-      </c>
-      <c r="AH21">
-        <f t="shared" si="0"/>
-        <v>5478</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34">
+        <v>131</v>
+      </c>
+      <c r="P21">
+        <v>138</v>
+      </c>
+      <c r="Q21">
+        <v>108</v>
+      </c>
+      <c r="R21">
+        <v>212</v>
+      </c>
+      <c r="S21">
+        <v>132</v>
+      </c>
+      <c r="T21">
+        <v>130</v>
+      </c>
+      <c r="U21">
+        <v>115</v>
+      </c>
+      <c r="V21">
+        <v>350</v>
+      </c>
+      <c r="W21">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>2170</v>
+        <v>95</v>
       </c>
       <c r="C22">
-        <v>2597</v>
+        <v>86</v>
       </c>
       <c r="D22">
-        <v>5045</v>
+        <v>104</v>
       </c>
       <c r="E22">
-        <v>969</v>
+        <v>100</v>
       </c>
       <c r="F22">
-        <v>14425</v>
+        <v>97</v>
       </c>
       <c r="G22">
-        <v>10828</v>
+        <v>88</v>
       </c>
       <c r="H22">
-        <v>13683</v>
+        <v>89</v>
       </c>
       <c r="I22">
-        <v>482</v>
+        <v>127</v>
       </c>
       <c r="J22">
-        <v>7628</v>
+        <v>81</v>
       </c>
       <c r="K22">
-        <v>14173</v>
+        <v>93</v>
       </c>
       <c r="L22">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="M22">
-        <v>303</v>
+        <v>95</v>
       </c>
       <c r="N22">
-        <v>801</v>
+        <v>81</v>
       </c>
       <c r="O22">
-        <v>5150</v>
+        <v>93</v>
       </c>
       <c r="P22">
-        <v>10033</v>
+        <v>91</v>
       </c>
       <c r="Q22">
-        <v>11161</v>
+        <v>97</v>
       </c>
       <c r="R22">
-        <v>12201</v>
+        <v>94</v>
       </c>
       <c r="S22">
-        <v>2872</v>
+        <v>97</v>
       </c>
       <c r="T22">
-        <v>24957</v>
+        <v>79</v>
       </c>
       <c r="U22">
-        <v>4350</v>
+        <v>103</v>
       </c>
       <c r="V22">
-        <v>14065</v>
+        <v>99</v>
       </c>
       <c r="W22">
-        <v>5547</v>
-      </c>
-      <c r="AH22">
-        <f t="shared" si="0"/>
-        <v>5348.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34">
+        <v>92</v>
+      </c>
+      <c r="X22">
+        <v>92</v>
+      </c>
+      <c r="Y22">
+        <v>83</v>
+      </c>
+      <c r="Z22">
+        <v>86</v>
+      </c>
+      <c r="AA22">
+        <v>86</v>
+      </c>
+      <c r="AB22">
+        <v>96</v>
+      </c>
+      <c r="AC22">
+        <v>104</v>
+      </c>
+      <c r="AD22">
+        <v>92</v>
+      </c>
+      <c r="AE22">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="C23">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="E23">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="F23">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="G23">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="H23">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="I23">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="J23">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="K23">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="L23">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="N23">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="O23">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="P23">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="Q23">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="R23">
-        <v>212</v>
+        <v>17</v>
       </c>
       <c r="S23">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="T23">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="U23">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="V23">
-        <v>350</v>
+        <v>18</v>
       </c>
       <c r="W23">
-        <v>147</v>
-      </c>
-      <c r="AH23">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34">
+        <v>16</v>
+      </c>
+      <c r="X23">
+        <v>16</v>
+      </c>
+      <c r="Y23">
+        <v>16</v>
+      </c>
+      <c r="Z23">
+        <v>15</v>
+      </c>
+      <c r="AA23">
+        <v>17</v>
+      </c>
+      <c r="AB23">
+        <v>16</v>
+      </c>
+      <c r="AC23">
+        <v>16</v>
+      </c>
+      <c r="AD23">
+        <v>17</v>
+      </c>
+      <c r="AE23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C24">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D24">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="F24">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="G24">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H24">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="I24">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="J24">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="L24">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M24">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="N24">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="O24">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="P24">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="Q24">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="R24">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="S24">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="T24">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="U24">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="V24">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="W24">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="X24">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="Y24">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="Z24">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="AA24">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="AB24">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="AC24">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="AD24">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="AE24">
-        <v>107</v>
-      </c>
-      <c r="AH24">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>1683</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>849</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>768</v>
       </c>
       <c r="E25">
-        <v>16</v>
+        <v>1300</v>
       </c>
       <c r="F25">
-        <v>17</v>
+        <v>492</v>
       </c>
       <c r="G25">
-        <v>16</v>
+        <v>3662</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="I25">
-        <v>16</v>
+        <v>1448</v>
       </c>
       <c r="J25">
-        <v>16</v>
+        <v>1030</v>
       </c>
       <c r="K25">
-        <v>18</v>
+        <v>1674</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>3094</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>1528</v>
       </c>
       <c r="N25">
-        <v>18</v>
+        <v>1252</v>
       </c>
       <c r="O25">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="P25">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>1317</v>
       </c>
       <c r="R25">
-        <v>17</v>
+        <v>676</v>
       </c>
       <c r="S25">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="T25">
-        <v>16</v>
+        <v>721</v>
       </c>
       <c r="U25">
-        <v>17</v>
+        <v>1245</v>
       </c>
       <c r="V25">
-        <v>18</v>
+        <v>954</v>
       </c>
       <c r="W25">
-        <v>16</v>
+        <v>582</v>
       </c>
       <c r="X25">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="Y25">
-        <v>16</v>
+        <v>1859</v>
       </c>
       <c r="Z25">
-        <v>15</v>
+        <v>1105</v>
       </c>
       <c r="AA25">
-        <v>17</v>
+        <v>824</v>
       </c>
       <c r="AB25">
-        <v>16</v>
-      </c>
-      <c r="AC25">
-        <v>16</v>
-      </c>
-      <c r="AD25">
-        <v>17</v>
-      </c>
-      <c r="AE25">
-        <v>16</v>
-      </c>
-      <c r="AH25">
-        <f t="shared" si="0"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="C26">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="D26">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="E26">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="F26">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="G26">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="H26">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="I26">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="J26">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="K26">
-        <v>55</v>
+        <v>197</v>
       </c>
       <c r="L26">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="M26">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="N26">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="O26">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="P26">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="Q26">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="R26">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="S26">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="T26">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="U26">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="V26">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="W26">
-        <v>53</v>
+        <v>232</v>
       </c>
       <c r="X26">
-        <v>44</v>
+        <v>768</v>
       </c>
       <c r="Y26">
-        <v>45</v>
+        <v>515</v>
       </c>
       <c r="Z26">
-        <v>51</v>
+        <v>3609</v>
       </c>
       <c r="AA26">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="AB26">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="AC26">
-        <v>49</v>
-      </c>
-      <c r="AD26">
-        <v>54</v>
-      </c>
-      <c r="AE26">
-        <v>49</v>
-      </c>
-      <c r="AH26">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1683</v>
+        <v>485</v>
       </c>
       <c r="C27">
-        <v>849</v>
+        <v>2949</v>
       </c>
       <c r="D27">
-        <v>768</v>
+        <v>1788</v>
       </c>
       <c r="E27">
-        <v>1300</v>
+        <v>4049</v>
       </c>
       <c r="F27">
-        <v>492</v>
+        <v>4102</v>
       </c>
       <c r="G27">
-        <v>3662</v>
+        <v>1806</v>
       </c>
       <c r="H27">
-        <v>211</v>
+        <v>4853</v>
       </c>
       <c r="I27">
-        <v>1448</v>
+        <v>1505</v>
       </c>
       <c r="J27">
-        <v>1030</v>
+        <v>5442</v>
       </c>
       <c r="K27">
-        <v>1674</v>
+        <v>2982</v>
       </c>
       <c r="L27">
-        <v>3094</v>
+        <v>1437</v>
       </c>
       <c r="M27">
-        <v>1528</v>
+        <v>2817</v>
       </c>
       <c r="N27">
-        <v>1252</v>
+        <v>3505</v>
       </c>
       <c r="O27">
-        <v>204</v>
+        <v>4891</v>
       </c>
       <c r="P27">
-        <v>185</v>
+        <v>3553</v>
       </c>
       <c r="Q27">
-        <v>1317</v>
+        <v>76</v>
       </c>
       <c r="R27">
-        <v>676</v>
+        <v>3281</v>
       </c>
       <c r="S27">
-        <v>246</v>
+        <v>3140</v>
       </c>
       <c r="T27">
-        <v>721</v>
+        <v>1475</v>
       </c>
       <c r="U27">
-        <v>1245</v>
-      </c>
-      <c r="V27">
-        <v>954</v>
-      </c>
-      <c r="W27">
-        <v>582</v>
-      </c>
-      <c r="X27">
-        <v>219</v>
-      </c>
-      <c r="Y27">
-        <v>1859</v>
-      </c>
-      <c r="Z27">
-        <v>1105</v>
-      </c>
-      <c r="AA27">
-        <v>824</v>
-      </c>
-      <c r="AB27">
-        <v>801</v>
-      </c>
-      <c r="AH27">
-        <f t="shared" si="0"/>
-        <v>954</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="C28">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="D28">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E28">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="F28">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="G28">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="H28">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="I28">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="J28">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="K28">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="L28">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="M28">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="N28">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="O28">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="P28">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="Q28">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="R28">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="S28">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="T28">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="U28">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="V28">
-        <v>175</v>
-      </c>
-      <c r="W28">
-        <v>232</v>
-      </c>
-      <c r="X28">
-        <v>768</v>
-      </c>
-      <c r="Y28">
-        <v>515</v>
-      </c>
-      <c r="Z28">
-        <v>3609</v>
-      </c>
-      <c r="AA28">
-        <v>184</v>
-      </c>
-      <c r="AB28">
-        <v>167</v>
-      </c>
-      <c r="AC28">
-        <v>168</v>
-      </c>
-      <c r="AH28">
-        <f t="shared" si="0"/>
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29">
-        <v>485</v>
+        <v>121</v>
       </c>
       <c r="C29">
-        <v>2949</v>
+        <v>105</v>
       </c>
       <c r="D29">
-        <v>1788</v>
+        <v>169</v>
       </c>
       <c r="E29">
-        <v>4049</v>
+        <v>131</v>
       </c>
       <c r="F29">
-        <v>4102</v>
+        <v>139</v>
       </c>
       <c r="G29">
-        <v>1806</v>
+        <v>130</v>
       </c>
       <c r="H29">
-        <v>4853</v>
+        <v>143</v>
       </c>
       <c r="I29">
-        <v>1505</v>
+        <v>116</v>
       </c>
       <c r="J29">
-        <v>5442</v>
+        <v>145</v>
       </c>
       <c r="K29">
-        <v>2982</v>
+        <v>139</v>
       </c>
       <c r="L29">
-        <v>1437</v>
+        <v>117</v>
       </c>
       <c r="M29">
-        <v>2817</v>
+        <v>136</v>
       </c>
       <c r="N29">
-        <v>3505</v>
+        <v>119</v>
       </c>
       <c r="O29">
-        <v>4891</v>
-      </c>
-      <c r="P29">
-        <v>3553</v>
-      </c>
-      <c r="Q29">
-        <v>76</v>
-      </c>
-      <c r="R29">
-        <v>3281</v>
-      </c>
-      <c r="S29">
-        <v>3140</v>
-      </c>
-      <c r="T29">
-        <v>1475</v>
-      </c>
-      <c r="U29">
-        <v>3410</v>
-      </c>
-      <c r="AH29">
-        <f t="shared" si="0"/>
-        <v>3061</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C30">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="D30">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="E30">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="F30">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="G30">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="H30">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I30">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="J30">
+        <v>144</v>
+      </c>
+      <c r="K30">
+        <v>149</v>
+      </c>
+      <c r="L30">
+        <v>125</v>
+      </c>
+      <c r="M30">
+        <v>141</v>
+      </c>
+      <c r="N30">
+        <v>131</v>
+      </c>
+      <c r="O30">
+        <v>133</v>
+      </c>
+      <c r="P30">
+        <v>130</v>
+      </c>
+      <c r="Q30">
+        <v>133</v>
+      </c>
+      <c r="R30">
+        <v>118</v>
+      </c>
+      <c r="S30">
+        <v>137</v>
+      </c>
+      <c r="T30">
+        <v>121</v>
+      </c>
+      <c r="U30">
+        <v>128</v>
+      </c>
+      <c r="V30">
+        <v>112</v>
+      </c>
+      <c r="W30">
+        <v>133</v>
+      </c>
+      <c r="X30">
+        <v>135</v>
+      </c>
+      <c r="Y30">
+        <v>155</v>
+      </c>
+      <c r="Z30">
+        <v>132</v>
+      </c>
+      <c r="AA30">
         <v>109</v>
       </c>
-      <c r="K30">
-        <v>191</v>
-      </c>
-      <c r="L30">
-        <v>139</v>
-      </c>
-      <c r="M30">
-        <v>124</v>
-      </c>
-      <c r="N30">
-        <v>102</v>
-      </c>
-      <c r="O30">
-        <v>114</v>
-      </c>
-      <c r="P30">
-        <v>107</v>
-      </c>
-      <c r="Q30">
-        <v>124</v>
-      </c>
-      <c r="R30">
+      <c r="AB30">
+        <v>121</v>
+      </c>
+      <c r="AC30">
+        <v>118</v>
+      </c>
+      <c r="AD30">
         <v>115</v>
       </c>
-      <c r="S30">
-        <v>96</v>
-      </c>
-      <c r="T30">
-        <v>163</v>
-      </c>
-      <c r="U30">
-        <v>120</v>
-      </c>
-      <c r="V30">
-        <v>107</v>
-      </c>
-      <c r="AH30">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34">
+    </row>
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31">
-        <v>121</v>
+        <v>11607</v>
       </c>
       <c r="C31">
-        <v>105</v>
+        <v>7982</v>
       </c>
       <c r="D31">
-        <v>169</v>
+        <v>5688</v>
       </c>
       <c r="E31">
-        <v>131</v>
+        <v>2254</v>
       </c>
       <c r="F31">
-        <v>139</v>
+        <v>5854</v>
       </c>
       <c r="G31">
-        <v>130</v>
+        <v>3540</v>
       </c>
       <c r="H31">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="I31">
-        <v>116</v>
+        <v>11093</v>
       </c>
       <c r="J31">
-        <v>145</v>
+        <v>6962</v>
       </c>
       <c r="K31">
-        <v>139</v>
+        <v>1412</v>
       </c>
       <c r="L31">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="M31">
-        <v>136</v>
+        <v>8251</v>
       </c>
       <c r="N31">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="O31">
-        <v>151</v>
-      </c>
-      <c r="AH31">
-        <f t="shared" si="0"/>
-        <v>133.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34">
+        <v>5426</v>
+      </c>
+      <c r="P31">
+        <v>2464</v>
+      </c>
+      <c r="Q31">
+        <v>11224</v>
+      </c>
+      <c r="R31">
+        <v>8951</v>
+      </c>
+      <c r="S31">
+        <v>92</v>
+      </c>
+      <c r="T31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
-        <v>142</v>
-      </c>
-      <c r="C32">
-        <v>132</v>
-      </c>
-      <c r="D32">
-        <v>124</v>
-      </c>
-      <c r="E32">
-        <v>141</v>
-      </c>
-      <c r="F32">
-        <v>136</v>
-      </c>
-      <c r="G32">
-        <v>140</v>
-      </c>
-      <c r="H32">
-        <v>110</v>
-      </c>
-      <c r="I32">
-        <v>128</v>
-      </c>
-      <c r="J32">
-        <v>144</v>
-      </c>
-      <c r="K32">
-        <v>149</v>
-      </c>
-      <c r="L32">
-        <v>125</v>
-      </c>
-      <c r="M32">
-        <v>141</v>
-      </c>
-      <c r="N32">
-        <v>131</v>
-      </c>
-      <c r="O32">
-        <v>133</v>
-      </c>
-      <c r="P32">
-        <v>130</v>
-      </c>
-      <c r="Q32">
-        <v>133</v>
-      </c>
-      <c r="R32">
-        <v>118</v>
-      </c>
-      <c r="S32">
-        <v>137</v>
-      </c>
-      <c r="T32">
-        <v>121</v>
-      </c>
-      <c r="U32">
-        <v>128</v>
-      </c>
-      <c r="V32">
-        <v>112</v>
-      </c>
-      <c r="W32">
-        <v>133</v>
-      </c>
-      <c r="X32">
-        <v>135</v>
-      </c>
-      <c r="Y32">
-        <v>155</v>
-      </c>
-      <c r="Z32">
-        <v>132</v>
-      </c>
-      <c r="AA32">
-        <v>109</v>
-      </c>
-      <c r="AB32">
-        <v>121</v>
-      </c>
-      <c r="AC32">
-        <v>118</v>
-      </c>
-      <c r="AD32">
-        <v>115</v>
-      </c>
-      <c r="AH32">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
-        <v>11607</v>
-      </c>
-      <c r="C33">
-        <v>7982</v>
-      </c>
-      <c r="D33">
-        <v>5688</v>
-      </c>
-      <c r="E33">
-        <v>2254</v>
-      </c>
-      <c r="F33">
-        <v>5854</v>
-      </c>
-      <c r="G33">
-        <v>3540</v>
-      </c>
-      <c r="H33">
-        <v>96</v>
-      </c>
-      <c r="I33">
-        <v>11093</v>
-      </c>
-      <c r="J33">
-        <v>6962</v>
-      </c>
-      <c r="K33">
-        <v>1412</v>
-      </c>
-      <c r="L33">
-        <v>89</v>
-      </c>
-      <c r="M33">
-        <v>8251</v>
-      </c>
-      <c r="N33">
-        <v>98</v>
-      </c>
-      <c r="O33">
-        <v>5426</v>
-      </c>
-      <c r="P33">
-        <v>2464</v>
-      </c>
-      <c r="Q33">
-        <v>11224</v>
-      </c>
-      <c r="R33">
-        <v>8951</v>
-      </c>
-      <c r="S33">
-        <v>92</v>
-      </c>
-      <c r="T33">
-        <v>80</v>
-      </c>
-      <c r="AH33">
-        <f t="shared" si="0"/>
-        <v>5426</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34">
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH34" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34">
+      <c r="B34">
+        <v>73</v>
+      </c>
+      <c r="C34">
+        <v>60</v>
+      </c>
+      <c r="D34">
+        <v>60</v>
+      </c>
+      <c r="E34">
+        <v>73</v>
+      </c>
+      <c r="F34">
+        <v>59</v>
+      </c>
+      <c r="G34">
+        <v>56</v>
+      </c>
+      <c r="H34">
+        <v>86</v>
+      </c>
+      <c r="I34">
+        <v>62</v>
+      </c>
+      <c r="J34">
+        <v>60</v>
+      </c>
+      <c r="K34">
+        <v>75</v>
+      </c>
+      <c r="L34">
+        <v>62</v>
+      </c>
+      <c r="M34">
+        <v>62</v>
+      </c>
+      <c r="N34">
+        <v>56</v>
+      </c>
+      <c r="O34">
+        <v>63</v>
+      </c>
+      <c r="P34">
+        <v>70</v>
+      </c>
+      <c r="Q34">
+        <v>59</v>
+      </c>
+      <c r="R34">
+        <v>726</v>
+      </c>
+      <c r="S34">
+        <v>58</v>
+      </c>
+      <c r="T34">
+        <v>68</v>
+      </c>
+      <c r="U34">
+        <v>56</v>
+      </c>
+      <c r="V34">
+        <v>69</v>
+      </c>
+      <c r="W34">
+        <v>65</v>
+      </c>
+      <c r="X34">
+        <v>63</v>
+      </c>
+      <c r="Y34">
+        <v>62</v>
+      </c>
+      <c r="Z34">
+        <v>63</v>
+      </c>
+      <c r="AA34">
+        <v>69</v>
+      </c>
+      <c r="AB34">
+        <v>67</v>
+      </c>
+      <c r="AC34">
+        <v>61</v>
+      </c>
+      <c r="AD34">
+        <v>78</v>
+      </c>
+      <c r="AE34">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH35" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34">
+      <c r="B35">
+        <v>3057</v>
+      </c>
+      <c r="C35">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36">
-        <v>73</v>
+        <v>2845</v>
       </c>
       <c r="C36">
-        <v>60</v>
+        <v>2915</v>
       </c>
       <c r="D36">
-        <v>60</v>
-      </c>
-      <c r="E36">
-        <v>73</v>
-      </c>
-      <c r="F36">
-        <v>59</v>
-      </c>
-      <c r="G36">
-        <v>56</v>
-      </c>
-      <c r="H36">
-        <v>86</v>
-      </c>
-      <c r="I36">
-        <v>62</v>
-      </c>
-      <c r="J36">
-        <v>60</v>
-      </c>
-      <c r="K36">
-        <v>75</v>
-      </c>
-      <c r="L36">
-        <v>62</v>
-      </c>
-      <c r="M36">
-        <v>62</v>
-      </c>
-      <c r="N36">
-        <v>56</v>
-      </c>
-      <c r="O36">
-        <v>63</v>
-      </c>
-      <c r="P36">
-        <v>70</v>
-      </c>
-      <c r="Q36">
-        <v>59</v>
-      </c>
-      <c r="R36">
-        <v>726</v>
-      </c>
-      <c r="S36">
-        <v>58</v>
-      </c>
-      <c r="T36">
-        <v>68</v>
-      </c>
-      <c r="U36">
-        <v>56</v>
-      </c>
-      <c r="V36">
-        <v>69</v>
-      </c>
-      <c r="W36">
-        <v>65</v>
-      </c>
-      <c r="X36">
-        <v>63</v>
-      </c>
-      <c r="Y36">
-        <v>62</v>
-      </c>
-      <c r="Z36">
-        <v>63</v>
-      </c>
-      <c r="AA36">
-        <v>69</v>
-      </c>
-      <c r="AB36">
-        <v>67</v>
-      </c>
-      <c r="AC36">
-        <v>61</v>
-      </c>
-      <c r="AD36">
-        <v>78</v>
-      </c>
-      <c r="AE36">
-        <v>68</v>
-      </c>
-      <c r="AH36">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37">
-        <v>3057</v>
+        <v>62</v>
       </c>
       <c r="C37">
-        <v>401</v>
-      </c>
-      <c r="AH37">
-        <f t="shared" si="0"/>
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34">
+        <v>62</v>
+      </c>
+      <c r="D37">
+        <v>66</v>
+      </c>
+      <c r="E37">
+        <v>59</v>
+      </c>
+      <c r="F37">
+        <v>65</v>
+      </c>
+      <c r="G37">
+        <v>65</v>
+      </c>
+      <c r="H37">
+        <v>59</v>
+      </c>
+      <c r="I37">
+        <v>62</v>
+      </c>
+      <c r="J37">
+        <v>67</v>
+      </c>
+      <c r="K37">
+        <v>54</v>
+      </c>
+      <c r="L37">
+        <v>61</v>
+      </c>
+      <c r="M37">
+        <v>65</v>
+      </c>
+      <c r="N37">
+        <v>63</v>
+      </c>
+      <c r="O37">
+        <v>69</v>
+      </c>
+      <c r="P37">
+        <v>60</v>
+      </c>
+      <c r="Q37">
+        <v>63</v>
+      </c>
+      <c r="R37">
+        <v>61</v>
+      </c>
+      <c r="S37">
+        <v>58</v>
+      </c>
+      <c r="T37">
+        <v>58</v>
+      </c>
+      <c r="U37">
+        <v>60</v>
+      </c>
+      <c r="V37">
+        <v>58</v>
+      </c>
+      <c r="W37">
+        <v>57</v>
+      </c>
+      <c r="X37">
+        <v>65</v>
+      </c>
+      <c r="Y37">
+        <v>67</v>
+      </c>
+      <c r="Z37">
+        <v>60</v>
+      </c>
+      <c r="AA37">
+        <v>65</v>
+      </c>
+      <c r="AB37">
+        <v>63</v>
+      </c>
+      <c r="AC37">
+        <v>65</v>
+      </c>
+      <c r="AD37">
+        <v>59</v>
+      </c>
+      <c r="AE37">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38">
-        <v>2845</v>
+        <v>63</v>
       </c>
       <c r="C38">
-        <v>2915</v>
+        <v>59</v>
       </c>
       <c r="D38">
-        <v>3389</v>
-      </c>
-      <c r="AH38">
-        <f t="shared" si="0"/>
-        <v>2915</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34">
+        <v>73</v>
+      </c>
+      <c r="E38">
+        <v>74</v>
+      </c>
+      <c r="F38">
+        <v>64</v>
+      </c>
+      <c r="G38">
+        <v>53</v>
+      </c>
+      <c r="H38">
+        <v>77</v>
+      </c>
+      <c r="I38">
+        <v>57</v>
+      </c>
+      <c r="J38">
+        <v>65</v>
+      </c>
+      <c r="K38">
+        <v>55</v>
+      </c>
+      <c r="L38">
+        <v>62</v>
+      </c>
+      <c r="M38">
+        <v>55</v>
+      </c>
+      <c r="N38">
+        <v>74</v>
+      </c>
+      <c r="O38">
+        <v>61</v>
+      </c>
+      <c r="P38">
+        <v>55</v>
+      </c>
+      <c r="Q38">
+        <v>68</v>
+      </c>
+      <c r="R38">
+        <v>75</v>
+      </c>
+      <c r="S38">
+        <v>63</v>
+      </c>
+      <c r="T38">
+        <v>65</v>
+      </c>
+      <c r="U38">
+        <v>54</v>
+      </c>
+      <c r="V38">
+        <v>64</v>
+      </c>
+      <c r="W38">
+        <v>64</v>
+      </c>
+      <c r="X38">
+        <v>59</v>
+      </c>
+      <c r="Y38">
+        <v>65</v>
+      </c>
+      <c r="Z38">
+        <v>57</v>
+      </c>
+      <c r="AA38">
+        <v>56</v>
+      </c>
+      <c r="AB38">
+        <v>64</v>
+      </c>
+      <c r="AC38">
+        <v>60</v>
+      </c>
+      <c r="AD38">
+        <v>60</v>
+      </c>
+      <c r="AE38">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39">
-        <v>62</v>
+        <v>511</v>
       </c>
       <c r="C39">
-        <v>62</v>
+        <v>804</v>
       </c>
       <c r="D39">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="E39">
-        <v>59</v>
+        <v>863</v>
       </c>
       <c r="F39">
-        <v>65</v>
+        <v>573</v>
       </c>
       <c r="G39">
-        <v>65</v>
+        <v>325</v>
       </c>
       <c r="H39">
-        <v>59</v>
+        <v>870</v>
       </c>
       <c r="I39">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="J39">
-        <v>67</v>
+        <v>741</v>
       </c>
       <c r="K39">
-        <v>54</v>
+        <v>542</v>
       </c>
       <c r="L39">
-        <v>61</v>
+        <v>1296</v>
       </c>
       <c r="M39">
-        <v>65</v>
+        <v>416</v>
       </c>
       <c r="N39">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="O39">
-        <v>69</v>
+        <v>487</v>
       </c>
       <c r="P39">
+        <v>959</v>
+      </c>
+      <c r="Q39">
+        <v>364</v>
+      </c>
+      <c r="R39">
+        <v>289</v>
+      </c>
+      <c r="S39">
+        <v>401</v>
+      </c>
+      <c r="T39">
+        <v>900</v>
+      </c>
+      <c r="U39">
+        <v>1086</v>
+      </c>
+      <c r="V39">
+        <v>767</v>
+      </c>
+      <c r="W39">
+        <v>235</v>
+      </c>
+      <c r="X39">
+        <v>184</v>
+      </c>
+      <c r="Y39">
+        <v>309</v>
+      </c>
+      <c r="Z39">
+        <v>317</v>
+      </c>
+      <c r="AA39">
+        <v>243</v>
+      </c>
+      <c r="AB39">
+        <v>844</v>
+      </c>
+      <c r="AC39">
+        <v>64</v>
+      </c>
+      <c r="AD39">
+        <v>1061</v>
+      </c>
+      <c r="AE39">
         <v>60</v>
       </c>
-      <c r="Q39">
-        <v>63</v>
-      </c>
-      <c r="R39">
-        <v>61</v>
-      </c>
-      <c r="S39">
-        <v>58</v>
-      </c>
-      <c r="T39">
-        <v>58</v>
-      </c>
-      <c r="U39">
-        <v>60</v>
-      </c>
-      <c r="V39">
-        <v>58</v>
-      </c>
-      <c r="W39">
-        <v>57</v>
-      </c>
-      <c r="X39">
-        <v>65</v>
-      </c>
-      <c r="Y39">
-        <v>67</v>
-      </c>
-      <c r="Z39">
-        <v>60</v>
-      </c>
-      <c r="AA39">
-        <v>65</v>
-      </c>
-      <c r="AB39">
-        <v>63</v>
-      </c>
-      <c r="AC39">
-        <v>65</v>
-      </c>
-      <c r="AD39">
-        <v>59</v>
-      </c>
-      <c r="AE39">
-        <v>67</v>
-      </c>
-      <c r="AH39">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34">
+    </row>
+    <row r="40" spans="1:31">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C40">
+        <v>62</v>
+      </c>
+      <c r="D40">
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <v>43</v>
+      </c>
+      <c r="F40">
+        <v>48</v>
+      </c>
+      <c r="G40">
+        <v>50</v>
+      </c>
+      <c r="H40">
+        <v>47</v>
+      </c>
+      <c r="I40">
+        <v>41</v>
+      </c>
+      <c r="J40">
+        <v>85</v>
+      </c>
+      <c r="K40">
+        <v>46</v>
+      </c>
+      <c r="L40">
+        <v>52</v>
+      </c>
+      <c r="M40">
+        <v>46</v>
+      </c>
+      <c r="N40">
+        <v>53</v>
+      </c>
+      <c r="O40">
+        <v>46</v>
+      </c>
+      <c r="P40">
+        <v>50</v>
+      </c>
+      <c r="Q40">
+        <v>47</v>
+      </c>
+      <c r="R40">
+        <v>51</v>
+      </c>
+      <c r="S40">
+        <v>47</v>
+      </c>
+      <c r="T40">
+        <v>50</v>
+      </c>
+      <c r="U40">
+        <v>43</v>
+      </c>
+      <c r="V40">
+        <v>51</v>
+      </c>
+      <c r="W40">
+        <v>50</v>
+      </c>
+      <c r="X40">
+        <v>47</v>
+      </c>
+      <c r="Y40">
+        <v>50</v>
+      </c>
+      <c r="Z40">
+        <v>44</v>
+      </c>
+      <c r="AA40">
         <v>59</v>
       </c>
-      <c r="D40">
-        <v>73</v>
-      </c>
-      <c r="E40">
-        <v>74</v>
-      </c>
-      <c r="F40">
-        <v>64</v>
-      </c>
-      <c r="G40">
+      <c r="AB40">
+        <v>46</v>
+      </c>
+      <c r="AC40">
+        <v>50</v>
+      </c>
+      <c r="AD40">
         <v>53</v>
       </c>
-      <c r="H40">
-        <v>77</v>
-      </c>
-      <c r="I40">
-        <v>57</v>
-      </c>
-      <c r="J40">
-        <v>65</v>
-      </c>
-      <c r="K40">
-        <v>55</v>
-      </c>
-      <c r="L40">
-        <v>62</v>
-      </c>
-      <c r="M40">
-        <v>55</v>
-      </c>
-      <c r="N40">
-        <v>74</v>
-      </c>
-      <c r="O40">
-        <v>61</v>
-      </c>
-      <c r="P40">
-        <v>55</v>
-      </c>
-      <c r="Q40">
-        <v>68</v>
-      </c>
-      <c r="R40">
-        <v>75</v>
-      </c>
-      <c r="S40">
-        <v>63</v>
-      </c>
-      <c r="T40">
-        <v>65</v>
-      </c>
-      <c r="U40">
-        <v>54</v>
-      </c>
-      <c r="V40">
-        <v>64</v>
-      </c>
-      <c r="W40">
-        <v>64</v>
-      </c>
-      <c r="X40">
-        <v>59</v>
-      </c>
-      <c r="Y40">
-        <v>65</v>
-      </c>
-      <c r="Z40">
-        <v>57</v>
-      </c>
-      <c r="AA40">
-        <v>56</v>
-      </c>
-      <c r="AB40">
-        <v>64</v>
-      </c>
-      <c r="AC40">
-        <v>60</v>
-      </c>
-      <c r="AD40">
-        <v>60</v>
-      </c>
       <c r="AE40">
-        <v>58</v>
-      </c>
-      <c r="AH40">
-        <f t="shared" si="0"/>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41">
-        <v>511</v>
+        <v>154</v>
       </c>
       <c r="C41">
-        <v>804</v>
+        <v>144</v>
       </c>
       <c r="D41">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="E41">
-        <v>863</v>
+        <v>149</v>
       </c>
       <c r="F41">
-        <v>573</v>
+        <v>170</v>
       </c>
       <c r="G41">
-        <v>325</v>
+        <v>133</v>
       </c>
       <c r="H41">
-        <v>870</v>
+        <v>145</v>
       </c>
       <c r="I41">
+        <v>138</v>
+      </c>
+      <c r="J41">
+        <v>152</v>
+      </c>
+      <c r="K41">
+        <v>145</v>
+      </c>
+      <c r="L41">
+        <v>161</v>
+      </c>
+      <c r="M41">
+        <v>139</v>
+      </c>
+      <c r="N41">
         <v>146</v>
       </c>
-      <c r="J41">
-        <v>741</v>
-      </c>
-      <c r="K41">
-        <v>542</v>
-      </c>
-      <c r="L41">
-        <v>1296</v>
-      </c>
-      <c r="M41">
-        <v>416</v>
-      </c>
-      <c r="N41">
-        <v>151</v>
-      </c>
       <c r="O41">
-        <v>487</v>
+        <v>146</v>
       </c>
       <c r="P41">
-        <v>959</v>
+        <v>137</v>
       </c>
       <c r="Q41">
-        <v>364</v>
+        <v>159</v>
       </c>
       <c r="R41">
-        <v>289</v>
+        <v>146</v>
       </c>
       <c r="S41">
-        <v>401</v>
+        <v>124</v>
       </c>
       <c r="T41">
-        <v>900</v>
+        <v>141</v>
       </c>
       <c r="U41">
-        <v>1086</v>
+        <v>137</v>
       </c>
       <c r="V41">
-        <v>767</v>
+        <v>134</v>
       </c>
       <c r="W41">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="X41">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="Y41">
-        <v>309</v>
+        <v>150</v>
       </c>
       <c r="Z41">
-        <v>317</v>
+        <v>128</v>
       </c>
       <c r="AA41">
-        <v>243</v>
+        <v>160</v>
       </c>
       <c r="AB41">
-        <v>844</v>
+        <v>137</v>
       </c>
       <c r="AC41">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="AD41">
-        <v>1061</v>
-      </c>
-      <c r="AE41">
-        <v>60</v>
-      </c>
-      <c r="AH41">
-        <f t="shared" si="0"/>
-        <v>451.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42">
-        <v>48</v>
+        <v>14890</v>
       </c>
       <c r="C42">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="D42">
-        <v>50</v>
+        <v>14593</v>
       </c>
       <c r="E42">
-        <v>43</v>
+        <v>4090</v>
       </c>
       <c r="F42">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G42">
-        <v>50</v>
+        <v>7265</v>
       </c>
       <c r="H42">
-        <v>47</v>
+        <v>35723</v>
       </c>
       <c r="I42">
-        <v>41</v>
+        <v>5523</v>
       </c>
       <c r="J42">
-        <v>85</v>
+        <v>6404</v>
       </c>
       <c r="K42">
-        <v>46</v>
+        <v>6519</v>
       </c>
       <c r="L42">
-        <v>52</v>
+        <v>17380</v>
       </c>
       <c r="M42">
-        <v>46</v>
+        <v>30233</v>
       </c>
       <c r="N42">
         <v>53</v>
       </c>
       <c r="O42">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="P42">
-        <v>50</v>
+        <v>2665</v>
       </c>
       <c r="Q42">
-        <v>47</v>
+        <v>8156</v>
       </c>
       <c r="R42">
-        <v>51</v>
+        <v>12265</v>
       </c>
       <c r="S42">
-        <v>47</v>
+        <v>9723</v>
       </c>
       <c r="T42">
-        <v>50</v>
+        <v>30155</v>
       </c>
       <c r="U42">
-        <v>43</v>
+        <v>11378</v>
       </c>
       <c r="V42">
-        <v>51</v>
+        <v>10458</v>
       </c>
       <c r="W42">
-        <v>50</v>
+        <v>19236</v>
       </c>
       <c r="X42">
-        <v>47</v>
-      </c>
-      <c r="Y42">
-        <v>50</v>
-      </c>
-      <c r="Z42">
-        <v>44</v>
-      </c>
-      <c r="AA42">
-        <v>59</v>
-      </c>
-      <c r="AB42">
-        <v>46</v>
-      </c>
-      <c r="AC42">
-        <v>50</v>
-      </c>
-      <c r="AD42">
-        <v>53</v>
-      </c>
-      <c r="AE42">
-        <v>50</v>
-      </c>
-      <c r="AH42">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34">
+        <v>18880</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="C43">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="D43">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="E43">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="F43">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="G43">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="H43">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="I43">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="J43">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="K43">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="L43">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="M43">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="N43">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="O43">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="P43">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="Q43">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="R43">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="S43">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="T43">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="U43">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="V43">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="W43">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="X43">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="Y43">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="Z43">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="AA43">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="AB43">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="AC43">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="AD43">
-        <v>145</v>
-      </c>
-      <c r="AH43">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34">
+        <v>96</v>
+      </c>
+      <c r="AE43">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44">
-        <v>14890</v>
+        <v>82</v>
       </c>
       <c r="C44">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="D44">
-        <v>14593</v>
+        <v>80</v>
       </c>
       <c r="E44">
-        <v>4090</v>
+        <v>242</v>
       </c>
       <c r="F44">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="G44">
-        <v>7265</v>
+        <v>79</v>
       </c>
       <c r="H44">
-        <v>35723</v>
+        <v>77</v>
       </c>
       <c r="I44">
-        <v>5523</v>
+        <v>73</v>
       </c>
       <c r="J44">
-        <v>6404</v>
+        <v>84</v>
       </c>
       <c r="K44">
-        <v>6519</v>
+        <v>85</v>
       </c>
       <c r="L44">
-        <v>17380</v>
+        <v>102</v>
       </c>
       <c r="M44">
-        <v>30233</v>
+        <v>112</v>
       </c>
       <c r="N44">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="O44">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="P44">
-        <v>2665</v>
+        <v>90</v>
       </c>
       <c r="Q44">
-        <v>8156</v>
+        <v>91</v>
       </c>
       <c r="R44">
-        <v>12265</v>
+        <v>98</v>
       </c>
       <c r="S44">
-        <v>9723</v>
+        <v>81</v>
       </c>
       <c r="T44">
-        <v>30155</v>
+        <v>94</v>
       </c>
       <c r="U44">
-        <v>11378</v>
+        <v>86</v>
       </c>
       <c r="V44">
-        <v>10458</v>
+        <v>106</v>
       </c>
       <c r="W44">
-        <v>19236</v>
+        <v>92</v>
       </c>
       <c r="X44">
-        <v>18880</v>
-      </c>
-      <c r="AH44">
-        <f t="shared" si="0"/>
-        <v>9723</v>
-      </c>
-    </row>
-    <row r="45" spans="1:34">
+        <v>85</v>
+      </c>
+      <c r="Y44">
+        <v>99</v>
+      </c>
+      <c r="Z44">
+        <v>101</v>
+      </c>
+      <c r="AA44">
+        <v>134</v>
+      </c>
+      <c r="AB44">
+        <v>139</v>
+      </c>
+      <c r="AC44">
+        <v>81</v>
+      </c>
+      <c r="AD44">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C45">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D45">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E45">
         <v>93</v>
       </c>
       <c r="F45">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="G45">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H45">
+        <v>85</v>
+      </c>
+      <c r="I45">
+        <v>97</v>
+      </c>
+      <c r="J45">
+        <v>77</v>
+      </c>
+      <c r="K45">
+        <v>85</v>
+      </c>
+      <c r="L45">
+        <v>96</v>
+      </c>
+      <c r="M45">
+        <v>98</v>
+      </c>
+      <c r="N45">
+        <v>82</v>
+      </c>
+      <c r="O45">
+        <v>80</v>
+      </c>
+      <c r="P45">
+        <v>89</v>
+      </c>
+      <c r="Q45">
+        <v>89</v>
+      </c>
+      <c r="R45">
+        <v>94</v>
+      </c>
+      <c r="S45">
+        <v>85</v>
+      </c>
+      <c r="T45">
+        <v>91</v>
+      </c>
+      <c r="U45">
         <v>92</v>
       </c>
-      <c r="I45">
-        <v>100</v>
-      </c>
-      <c r="J45">
+      <c r="V45">
+        <v>94</v>
+      </c>
+      <c r="W45">
+        <v>112</v>
+      </c>
+      <c r="X45">
+        <v>89</v>
+      </c>
+      <c r="Y45">
+        <v>87</v>
+      </c>
+      <c r="Z45">
+        <v>116</v>
+      </c>
+      <c r="AA45">
         <v>93</v>
       </c>
-      <c r="K45">
-        <v>111</v>
-      </c>
-      <c r="L45">
-        <v>99</v>
-      </c>
-      <c r="M45">
-        <v>90</v>
-      </c>
-      <c r="N45">
-        <v>98</v>
-      </c>
-      <c r="O45">
-        <v>97</v>
-      </c>
-      <c r="P45">
-        <v>112</v>
-      </c>
-      <c r="Q45">
-        <v>105</v>
-      </c>
-      <c r="R45">
-        <v>93</v>
-      </c>
-      <c r="S45">
-        <v>97</v>
-      </c>
-      <c r="T45">
-        <v>99</v>
-      </c>
-      <c r="U45">
-        <v>95</v>
-      </c>
-      <c r="V45">
-        <v>102</v>
-      </c>
-      <c r="W45">
-        <v>115</v>
-      </c>
-      <c r="X45">
+      <c r="AB45">
+        <v>89</v>
+      </c>
+      <c r="AC45">
+        <v>85</v>
+      </c>
+      <c r="AD45">
         <v>91</v>
-      </c>
-      <c r="Y45">
-        <v>94</v>
-      </c>
-      <c r="Z45">
-        <v>96</v>
-      </c>
-      <c r="AA45">
-        <v>90</v>
-      </c>
-      <c r="AB45">
-        <v>121</v>
-      </c>
-      <c r="AC45">
-        <v>96</v>
-      </c>
-      <c r="AD45">
-        <v>96</v>
       </c>
       <c r="AE45">
         <v>101</v>
       </c>
-      <c r="AH45">
-        <f t="shared" si="0"/>
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:34">
+    </row>
+    <row r="46" spans="1:31">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="C46">
-        <v>88</v>
+        <v>233</v>
       </c>
       <c r="D46">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="E46">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="F46">
-        <v>89</v>
+        <v>259</v>
       </c>
       <c r="G46">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="H46">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="I46">
-        <v>73</v>
+        <v>902</v>
       </c>
       <c r="J46">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="K46">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="L46">
-        <v>102</v>
+        <v>261</v>
       </c>
       <c r="M46">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="N46">
-        <v>112</v>
+        <v>277</v>
       </c>
       <c r="O46">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="P46">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="Q46">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="R46">
-        <v>98</v>
+        <v>245</v>
       </c>
       <c r="S46">
-        <v>81</v>
+        <v>233</v>
       </c>
       <c r="T46">
-        <v>94</v>
+        <v>235</v>
       </c>
       <c r="U46">
-        <v>86</v>
+        <v>277</v>
       </c>
       <c r="V46">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="W46">
-        <v>92</v>
+        <v>271</v>
       </c>
       <c r="X46">
-        <v>85</v>
+        <v>249</v>
       </c>
       <c r="Y46">
-        <v>99</v>
+        <v>296</v>
       </c>
       <c r="Z46">
-        <v>101</v>
+        <v>290</v>
       </c>
       <c r="AA46">
-        <v>134</v>
+        <v>281</v>
       </c>
       <c r="AB46">
-        <v>139</v>
-      </c>
-      <c r="AC46">
-        <v>81</v>
-      </c>
-      <c r="AD46">
-        <v>582</v>
-      </c>
-      <c r="AH46">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47">
-        <v>86</v>
-      </c>
-      <c r="C47">
-        <v>79</v>
-      </c>
-      <c r="D47">
-        <v>81</v>
-      </c>
-      <c r="E47">
-        <v>93</v>
-      </c>
-      <c r="F47">
-        <v>91</v>
-      </c>
-      <c r="G47">
-        <v>85</v>
-      </c>
-      <c r="H47">
-        <v>85</v>
-      </c>
-      <c r="I47">
-        <v>97</v>
-      </c>
-      <c r="J47">
-        <v>77</v>
-      </c>
-      <c r="K47">
-        <v>85</v>
-      </c>
-      <c r="L47">
-        <v>96</v>
-      </c>
-      <c r="M47">
-        <v>98</v>
-      </c>
-      <c r="N47">
-        <v>82</v>
-      </c>
-      <c r="O47">
-        <v>80</v>
-      </c>
-      <c r="P47">
-        <v>89</v>
-      </c>
-      <c r="Q47">
-        <v>89</v>
-      </c>
-      <c r="R47">
-        <v>94</v>
-      </c>
-      <c r="S47">
-        <v>85</v>
-      </c>
-      <c r="T47">
-        <v>91</v>
-      </c>
-      <c r="U47">
-        <v>92</v>
-      </c>
-      <c r="V47">
-        <v>94</v>
-      </c>
-      <c r="W47">
-        <v>112</v>
-      </c>
-      <c r="X47">
-        <v>89</v>
-      </c>
-      <c r="Y47">
-        <v>87</v>
-      </c>
-      <c r="Z47">
-        <v>116</v>
-      </c>
-      <c r="AA47">
-        <v>93</v>
-      </c>
-      <c r="AB47">
-        <v>89</v>
-      </c>
-      <c r="AC47">
-        <v>85</v>
-      </c>
-      <c r="AD47">
-        <v>91</v>
-      </c>
-      <c r="AE47">
-        <v>101</v>
-      </c>
-      <c r="AH47">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:34">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48">
-        <v>262</v>
+        <v>105</v>
       </c>
       <c r="C48">
-        <v>233</v>
+        <v>91</v>
       </c>
       <c r="D48">
-        <v>230</v>
+        <v>96</v>
       </c>
       <c r="E48">
-        <v>226</v>
+        <v>87</v>
       </c>
       <c r="F48">
-        <v>259</v>
+        <v>96</v>
       </c>
       <c r="G48">
-        <v>248</v>
+        <v>95</v>
       </c>
       <c r="H48">
-        <v>246</v>
+        <v>114</v>
       </c>
       <c r="I48">
-        <v>902</v>
+        <v>97</v>
       </c>
       <c r="J48">
-        <v>235</v>
+        <v>97</v>
       </c>
       <c r="K48">
-        <v>244</v>
+        <v>85</v>
       </c>
       <c r="L48">
-        <v>261</v>
+        <v>100</v>
       </c>
       <c r="M48">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="N48">
-        <v>277</v>
+        <v>102</v>
       </c>
       <c r="O48">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="P48">
-        <v>260</v>
+        <v>146</v>
       </c>
       <c r="Q48">
-        <v>246</v>
+        <v>90</v>
       </c>
       <c r="R48">
-        <v>245</v>
+        <v>95</v>
       </c>
       <c r="S48">
-        <v>233</v>
+        <v>105</v>
       </c>
       <c r="T48">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="U48">
-        <v>277</v>
+        <v>89</v>
       </c>
       <c r="V48">
-        <v>231</v>
+        <v>96</v>
       </c>
       <c r="W48">
-        <v>271</v>
+        <v>100</v>
       </c>
       <c r="X48">
-        <v>249</v>
+        <v>87</v>
       </c>
       <c r="Y48">
-        <v>296</v>
+        <v>106</v>
       </c>
       <c r="Z48">
-        <v>290</v>
+        <v>94</v>
       </c>
       <c r="AA48">
-        <v>281</v>
+        <v>114</v>
       </c>
       <c r="AB48">
-        <v>266</v>
-      </c>
-      <c r="AH48">
-        <f t="shared" si="0"/>
-        <v>248</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49">
-        <v>2963</v>
-      </c>
-      <c r="AH49">
-        <f t="shared" si="0"/>
-        <v>2963</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34">
+        <v>76</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49">
+        <v>47</v>
+      </c>
+      <c r="E49">
+        <v>68</v>
+      </c>
+      <c r="F49">
+        <v>47</v>
+      </c>
+      <c r="G49">
+        <v>58</v>
+      </c>
+      <c r="H49">
+        <v>51</v>
+      </c>
+      <c r="I49">
+        <v>44</v>
+      </c>
+      <c r="J49">
+        <v>51</v>
+      </c>
+      <c r="K49">
+        <v>48</v>
+      </c>
+      <c r="L49">
+        <v>59</v>
+      </c>
+      <c r="M49">
+        <v>45</v>
+      </c>
+      <c r="N49">
+        <v>54</v>
+      </c>
+      <c r="O49">
+        <v>53</v>
+      </c>
+      <c r="P49">
+        <v>54</v>
+      </c>
+      <c r="Q49">
+        <v>94</v>
+      </c>
+      <c r="R49">
+        <v>54</v>
+      </c>
+      <c r="S49">
+        <v>63</v>
+      </c>
+      <c r="T49">
+        <v>52</v>
+      </c>
+      <c r="U49">
+        <v>59</v>
+      </c>
+      <c r="V49">
+        <v>51</v>
+      </c>
+      <c r="W49">
+        <v>55</v>
+      </c>
+      <c r="X49">
+        <v>50</v>
+      </c>
+      <c r="Y49">
+        <v>59</v>
+      </c>
+      <c r="Z49">
+        <v>42</v>
+      </c>
+      <c r="AA49">
+        <v>51</v>
+      </c>
+      <c r="AB49">
+        <v>49</v>
+      </c>
+      <c r="AC49">
+        <v>51</v>
+      </c>
+      <c r="AD49">
+        <v>55</v>
+      </c>
+      <c r="AE49">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
       <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50">
-        <v>105</v>
+        <v>2658</v>
       </c>
       <c r="C50">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D50">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="E50">
-        <v>87</v>
+        <v>274</v>
       </c>
       <c r="F50">
-        <v>96</v>
+        <v>302</v>
       </c>
       <c r="G50">
-        <v>95</v>
+        <v>1639</v>
       </c>
       <c r="H50">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="I50">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="J50">
-        <v>97</v>
+        <v>368</v>
       </c>
       <c r="K50">
-        <v>85</v>
+        <v>2485</v>
       </c>
       <c r="L50">
-        <v>100</v>
-      </c>
-      <c r="M50">
-        <v>102</v>
-      </c>
-      <c r="N50">
-        <v>102</v>
-      </c>
-      <c r="O50">
-        <v>96</v>
-      </c>
-      <c r="P50">
-        <v>146</v>
-      </c>
-      <c r="Q50">
-        <v>90</v>
-      </c>
-      <c r="R50">
-        <v>95</v>
-      </c>
-      <c r="S50">
-        <v>105</v>
-      </c>
-      <c r="T50">
-        <v>94</v>
-      </c>
-      <c r="U50">
-        <v>89</v>
-      </c>
-      <c r="V50">
-        <v>96</v>
-      </c>
-      <c r="W50">
-        <v>100</v>
-      </c>
-      <c r="X50">
-        <v>87</v>
-      </c>
-      <c r="Y50">
-        <v>106</v>
-      </c>
-      <c r="Z50">
-        <v>94</v>
-      </c>
-      <c r="AA50">
-        <v>114</v>
-      </c>
-      <c r="AB50">
-        <v>93</v>
-      </c>
-      <c r="AH50">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
       <c r="A51" t="s">
         <v>51</v>
       </c>
       <c r="B51">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="C51">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="D51">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="F51">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="G51">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="H51">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="I51">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="J51">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="K51">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="L51">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="M51">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="N51">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="O51">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="P51">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="Q51">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="R51">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="S51">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="T51">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="U51">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="V51">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="W51">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="X51">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="Y51">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="Z51">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="AA51">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AB51">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="AC51">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="AD51">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="AE51">
-        <v>46</v>
-      </c>
-      <c r="AH51">
-        <f t="shared" si="0"/>
-        <v>51.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
       <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52">
-        <v>2658</v>
+        <v>947</v>
       </c>
       <c r="C52">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="D52">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="E52">
-        <v>274</v>
+        <v>199</v>
       </c>
       <c r="F52">
+        <v>105</v>
+      </c>
+      <c r="G52">
+        <v>211</v>
+      </c>
+      <c r="H52">
+        <v>199</v>
+      </c>
+      <c r="I52">
+        <v>1788</v>
+      </c>
+      <c r="J52">
+        <v>270</v>
+      </c>
+      <c r="K52">
+        <v>2363</v>
+      </c>
+      <c r="L52">
+        <v>236</v>
+      </c>
+      <c r="M52">
+        <v>126</v>
+      </c>
+      <c r="N52">
+        <v>1343</v>
+      </c>
+      <c r="O52">
+        <v>1244</v>
+      </c>
+      <c r="P52">
+        <v>643</v>
+      </c>
+      <c r="Q52">
+        <v>111</v>
+      </c>
+      <c r="R52">
+        <v>359</v>
+      </c>
+      <c r="S52">
+        <v>217</v>
+      </c>
+      <c r="T52">
+        <v>364</v>
+      </c>
+      <c r="U52">
+        <v>517</v>
+      </c>
+      <c r="V52">
+        <v>1109</v>
+      </c>
+      <c r="W52">
+        <v>412</v>
+      </c>
+      <c r="X52">
+        <v>272</v>
+      </c>
+      <c r="Y52">
+        <v>98</v>
+      </c>
+      <c r="Z52">
         <v>302</v>
       </c>
-      <c r="G52">
-        <v>1639</v>
-      </c>
-      <c r="H52">
-        <v>98</v>
-      </c>
-      <c r="I52">
-        <v>108</v>
-      </c>
-      <c r="J52">
-        <v>368</v>
-      </c>
-      <c r="K52">
-        <v>2485</v>
-      </c>
-      <c r="L52">
-        <v>120</v>
-      </c>
-      <c r="AH52">
-        <f t="shared" si="0"/>
-        <v>274</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34">
+      <c r="AA52">
+        <v>377</v>
+      </c>
+      <c r="AB52">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
       <c r="A53" t="s">
         <v>53</v>
       </c>
       <c r="B53">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="C53">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="D53">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="E53">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="F53">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c r="G53">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="H53">
-        <v>141</v>
+        <v>340</v>
       </c>
       <c r="I53">
-        <v>137</v>
+        <v>1297</v>
       </c>
       <c r="J53">
-        <v>136</v>
-      </c>
-      <c r="K53">
-        <v>141</v>
-      </c>
-      <c r="L53">
-        <v>130</v>
-      </c>
-      <c r="M53">
-        <v>137</v>
-      </c>
-      <c r="N53">
-        <v>164</v>
-      </c>
-      <c r="O53">
-        <v>158</v>
-      </c>
-      <c r="P53">
-        <v>146</v>
-      </c>
-      <c r="Q53">
-        <v>137</v>
-      </c>
-      <c r="R53">
-        <v>143</v>
-      </c>
-      <c r="S53">
-        <v>133</v>
-      </c>
-      <c r="T53">
-        <v>173</v>
-      </c>
-      <c r="U53">
-        <v>161</v>
-      </c>
-      <c r="V53">
-        <v>139</v>
-      </c>
-      <c r="W53">
-        <v>149</v>
-      </c>
-      <c r="X53">
-        <v>149</v>
-      </c>
-      <c r="Y53">
-        <v>146</v>
-      </c>
-      <c r="Z53">
-        <v>155</v>
-      </c>
-      <c r="AA53">
-        <v>151</v>
-      </c>
-      <c r="AB53">
-        <v>139</v>
-      </c>
-      <c r="AC53">
-        <v>141</v>
-      </c>
-      <c r="AD53">
-        <v>145</v>
-      </c>
-      <c r="AE53">
-        <v>137</v>
-      </c>
-      <c r="AH53">
-        <f t="shared" si="0"/>
-        <v>142.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
       <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54">
-        <v>947</v>
+        <v>78</v>
       </c>
       <c r="C54">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="D54">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E54">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="F54">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="G54">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="H54">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="I54">
-        <v>1788</v>
+        <v>71</v>
       </c>
       <c r="J54">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="K54">
-        <v>2363</v>
+        <v>69</v>
       </c>
       <c r="L54">
-        <v>236</v>
+        <v>71</v>
       </c>
       <c r="M54">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="N54">
-        <v>1343</v>
+        <v>75</v>
       </c>
       <c r="O54">
-        <v>1244</v>
+        <v>80</v>
       </c>
       <c r="P54">
-        <v>643</v>
+        <v>75</v>
       </c>
       <c r="Q54">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="R54">
-        <v>359</v>
+        <v>69</v>
       </c>
       <c r="S54">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="T54">
-        <v>364</v>
+        <v>70</v>
       </c>
       <c r="U54">
-        <v>517</v>
+        <v>74</v>
       </c>
       <c r="V54">
-        <v>1109</v>
+        <v>75</v>
       </c>
       <c r="W54">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="X54">
-        <v>272</v>
+        <v>75</v>
       </c>
       <c r="Y54">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="Z54">
-        <v>302</v>
+        <v>75</v>
       </c>
       <c r="AA54">
-        <v>377</v>
+        <v>76</v>
       </c>
       <c r="AB54">
-        <v>128</v>
-      </c>
-      <c r="AH54">
-        <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34">
+        <v>71</v>
+      </c>
+      <c r="AC54">
+        <v>76</v>
+      </c>
+      <c r="AD54">
+        <v>76</v>
+      </c>
+      <c r="AE54">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55">
-        <v>83</v>
+        <v>194</v>
       </c>
       <c r="C55">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="D55">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="E55">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="F55">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="G55">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="H55">
-        <v>340</v>
+        <v>174</v>
       </c>
       <c r="I55">
-        <v>1297</v>
+        <v>175</v>
       </c>
       <c r="J55">
-        <v>653</v>
-      </c>
-      <c r="AH55">
-        <f t="shared" si="0"/>
-        <v>231</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34">
+        <v>175</v>
+      </c>
+      <c r="K55">
+        <v>170</v>
+      </c>
+      <c r="L55">
+        <v>175</v>
+      </c>
+      <c r="M55">
+        <v>213</v>
+      </c>
+      <c r="N55">
+        <v>196</v>
+      </c>
+      <c r="O55">
+        <v>217</v>
+      </c>
+      <c r="P55">
+        <v>190</v>
+      </c>
+      <c r="Q55">
+        <v>200</v>
+      </c>
+      <c r="R55">
+        <v>183</v>
+      </c>
+      <c r="S55">
+        <v>168</v>
+      </c>
+      <c r="T55">
+        <v>170</v>
+      </c>
+      <c r="U55">
+        <v>192</v>
+      </c>
+      <c r="V55">
+        <v>185</v>
+      </c>
+      <c r="W55">
+        <v>172</v>
+      </c>
+      <c r="X55">
+        <v>175</v>
+      </c>
+      <c r="Y55">
+        <v>169</v>
+      </c>
+      <c r="Z55">
+        <v>189</v>
+      </c>
+      <c r="AA55">
+        <v>185</v>
+      </c>
+      <c r="AB55">
+        <v>225</v>
+      </c>
+      <c r="AC55">
+        <v>208</v>
+      </c>
+      <c r="AD55">
+        <v>169</v>
+      </c>
+      <c r="AE55">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56">
-        <v>78</v>
+        <v>232</v>
       </c>
       <c r="C56">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="D56">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="E56">
-        <v>72</v>
+        <v>205</v>
       </c>
       <c r="F56">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="G56">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="H56">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="I56">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="J56">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="K56">
-        <v>69</v>
+        <v>243</v>
       </c>
       <c r="L56">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="M56">
-        <v>73</v>
+        <v>286</v>
       </c>
       <c r="N56">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="O56">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="P56">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="Q56">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="R56">
-        <v>69</v>
+        <v>205</v>
       </c>
       <c r="S56">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="T56">
-        <v>70</v>
+        <v>227</v>
       </c>
       <c r="U56">
-        <v>74</v>
+        <v>240</v>
       </c>
       <c r="V56">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="W56">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="X56">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="Y56">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c r="Z56">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="AA56">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AB56">
-        <v>71</v>
-      </c>
-      <c r="AC56">
-        <v>76</v>
-      </c>
-      <c r="AD56">
-        <v>76</v>
-      </c>
-      <c r="AE56">
-        <v>72</v>
-      </c>
-      <c r="AH56">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31">
       <c r="A57" t="s">
         <v>57</v>
       </c>
       <c r="B57">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="C57">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="D57">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="E57">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="F57">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="G57">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="H57">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="I57">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="J57">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="K57">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="L57">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="M57">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="N57">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="O57">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="P57">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="Q57">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="R57">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="S57">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="T57">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="U57">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="V57">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="W57">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="X57">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="Y57">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="Z57">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="AA57">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="AB57">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="AC57">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="AD57">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="AE57">
-        <v>216</v>
-      </c>
-      <c r="AH57">
-        <f t="shared" si="0"/>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="58" spans="1:34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
       <c r="A58" t="s">
         <v>58</v>
       </c>
       <c r="B58">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="C58">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="D58">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="E58">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="F58">
-        <v>232</v>
+        <v>114</v>
       </c>
       <c r="G58">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="H58">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="I58">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="J58">
-        <v>225</v>
+        <v>124</v>
       </c>
       <c r="K58">
-        <v>243</v>
+        <v>106</v>
       </c>
       <c r="L58">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="M58">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="N58">
-        <v>243</v>
+        <v>106</v>
       </c>
       <c r="O58">
-        <v>295</v>
+        <v>101</v>
       </c>
       <c r="P58">
-        <v>256</v>
+        <v>116</v>
       </c>
       <c r="Q58">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="R58">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="S58">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="T58">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="U58">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="V58">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c r="W58">
-        <v>254</v>
+        <v>110</v>
       </c>
       <c r="X58">
-        <v>246</v>
+        <v>93</v>
       </c>
       <c r="Y58">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="Z58">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="AA58">
-        <v>225</v>
-      </c>
-      <c r="AB58">
-        <v>241</v>
-      </c>
-      <c r="AH58">
-        <f t="shared" si="0"/>
-        <v>232</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31">
       <c r="A59" t="s">
         <v>59</v>
       </c>
       <c r="B59">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C59">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E59">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F59">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="G59">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H59">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I59">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="J59">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="K59">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="L59">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="M59">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="N59">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="O59">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="P59">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="Q59">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="R59">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="S59">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="T59">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="U59">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="V59">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="W59">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="X59">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="Y59">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="Z59">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="AA59">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="AB59">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="AC59">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="AD59">
-        <v>17</v>
-      </c>
-      <c r="AE59">
-        <v>18</v>
-      </c>
-      <c r="AH59">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:34">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
       <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="B60">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="C60">
-        <v>106</v>
+        <v>309</v>
       </c>
       <c r="D60">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="E60">
-        <v>106</v>
+        <v>338</v>
       </c>
       <c r="F60">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="G60">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="H60">
-        <v>116</v>
+        <v>371</v>
       </c>
       <c r="I60">
-        <v>109</v>
+        <v>223</v>
       </c>
       <c r="J60">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="K60">
-        <v>106</v>
+        <v>256</v>
       </c>
       <c r="L60">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="M60">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="N60">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="O60">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="P60">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="Q60">
-        <v>110</v>
+        <v>207</v>
       </c>
       <c r="R60">
-        <v>114</v>
+        <v>208</v>
       </c>
       <c r="S60">
-        <v>111</v>
+        <v>3363</v>
       </c>
       <c r="T60">
-        <v>108</v>
+        <v>240</v>
       </c>
       <c r="U60">
-        <v>113</v>
+        <v>341</v>
       </c>
       <c r="V60">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="W60">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="X60">
-        <v>93</v>
+        <v>983</v>
       </c>
       <c r="Y60">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="Z60">
-        <v>102</v>
-      </c>
-      <c r="AA60">
-        <v>109</v>
-      </c>
-      <c r="AH60">
-        <f t="shared" si="0"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:34">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31">
       <c r="A61" t="s">
         <v>61</v>
       </c>
       <c r="B61">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C61">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="D61">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="E61">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="F61">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="G61">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="H61">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="I61">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="J61">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="K61">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="L61">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="M61">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="N61">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="O61">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="P61">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="Q61">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="R61">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="S61">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="T61">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="U61">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="V61">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="W61">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="X61">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="Y61">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="Z61">
-        <v>128</v>
-      </c>
-      <c r="AA61">
-        <v>74</v>
-      </c>
-      <c r="AB61">
-        <v>43</v>
-      </c>
-      <c r="AC61">
-        <v>58</v>
-      </c>
-      <c r="AD61">
-        <v>47</v>
-      </c>
-      <c r="AH61">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31">
       <c r="A62" t="s">
         <v>62</v>
       </c>
       <c r="B62">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="C62">
-        <v>309</v>
+        <v>118</v>
       </c>
       <c r="D62">
-        <v>210</v>
+        <v>106</v>
       </c>
       <c r="E62">
-        <v>338</v>
+        <v>141</v>
       </c>
       <c r="F62">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="G62">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="H62">
-        <v>371</v>
+        <v>108</v>
       </c>
       <c r="I62">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="J62">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="K62">
-        <v>256</v>
+        <v>134</v>
       </c>
       <c r="L62">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="M62">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="N62">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="O62">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="P62">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="Q62">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="R62">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="S62">
-        <v>3363</v>
+        <v>136</v>
       </c>
       <c r="T62">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="U62">
-        <v>341</v>
+        <v>117</v>
       </c>
       <c r="V62">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="W62">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c r="X62">
-        <v>983</v>
+        <v>129</v>
       </c>
       <c r="Y62">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="Z62">
-        <v>228</v>
-      </c>
-      <c r="AH62">
-        <f t="shared" si="0"/>
-        <v>223</v>
-      </c>
-    </row>
-    <row r="63" spans="1:34">
+        <v>127</v>
+      </c>
+      <c r="AA62">
+        <v>116</v>
+      </c>
+      <c r="AB62">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31">
       <c r="A63" t="s">
         <v>63</v>
       </c>
       <c r="B63">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C63">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="D63">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E63">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="F63">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="G63">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="H63">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="I63">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="J63">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="K63">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="L63">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="M63">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="N63">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="O63">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="P63">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="Q63">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="R63">
-        <v>141</v>
+        <v>213</v>
       </c>
       <c r="S63">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="T63">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="U63">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="V63">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="W63">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="X63">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="Y63">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="Z63">
-        <v>125</v>
-      </c>
-      <c r="AH63">
-        <f t="shared" si="0"/>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34">
+        <v>98</v>
+      </c>
+      <c r="AA63">
+        <v>92</v>
+      </c>
+      <c r="AB63">
+        <v>93</v>
+      </c>
+      <c r="AC63">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31">
       <c r="A64" t="s">
         <v>64</v>
       </c>
       <c r="B64">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="C64">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D64">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E64">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="F64">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G64">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="H64">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="I64">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="J64">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="K64">
+        <v>182</v>
+      </c>
+      <c r="L64">
+        <v>126</v>
+      </c>
+      <c r="M64">
         <v>134</v>
       </c>
-      <c r="L64">
-        <v>110</v>
-      </c>
-      <c r="M64">
-        <v>115</v>
-      </c>
       <c r="N64">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="O64">
+        <v>149</v>
+      </c>
+      <c r="P64">
+        <v>152</v>
+      </c>
+      <c r="Q64">
+        <v>125</v>
+      </c>
+      <c r="R64">
+        <v>129</v>
+      </c>
+      <c r="S64">
+        <v>175</v>
+      </c>
+      <c r="T64">
+        <v>138</v>
+      </c>
+      <c r="U64">
+        <v>146</v>
+      </c>
+      <c r="V64">
         <v>131</v>
       </c>
-      <c r="P64">
-        <v>105</v>
-      </c>
-      <c r="Q64">
-        <v>109</v>
-      </c>
-      <c r="R64">
-        <v>130</v>
-      </c>
-      <c r="S64">
-        <v>136</v>
-      </c>
-      <c r="T64">
-        <v>135</v>
-      </c>
-      <c r="U64">
-        <v>117</v>
-      </c>
-      <c r="V64">
-        <v>114</v>
-      </c>
       <c r="W64">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="X64">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="Y64">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="Z64">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="AA64">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="AB64">
-        <v>107</v>
-      </c>
-      <c r="AH64">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:34">
+        <v>190</v>
+      </c>
+      <c r="AC64">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31">
       <c r="A65" t="s">
         <v>65</v>
       </c>
       <c r="B65">
+        <v>120</v>
+      </c>
+      <c r="C65">
+        <v>118</v>
+      </c>
+      <c r="D65">
+        <v>117</v>
+      </c>
+      <c r="E65">
+        <v>132</v>
+      </c>
+      <c r="F65">
+        <v>115</v>
+      </c>
+      <c r="G65">
+        <v>114</v>
+      </c>
+      <c r="H65">
+        <v>126</v>
+      </c>
+      <c r="I65">
+        <v>128</v>
+      </c>
+      <c r="J65">
+        <v>122</v>
+      </c>
+      <c r="K65">
+        <v>114</v>
+      </c>
+      <c r="L65">
+        <v>119</v>
+      </c>
+      <c r="M65">
+        <v>122</v>
+      </c>
+      <c r="N65">
+        <v>127</v>
+      </c>
+      <c r="O65">
+        <v>137</v>
+      </c>
+      <c r="P65">
+        <v>117</v>
+      </c>
+      <c r="Q65">
+        <v>116</v>
+      </c>
+      <c r="R65">
+        <v>119</v>
+      </c>
+      <c r="S65">
+        <v>111</v>
+      </c>
+      <c r="T65">
+        <v>116</v>
+      </c>
+      <c r="U65">
+        <v>130</v>
+      </c>
+      <c r="V65">
+        <v>124</v>
+      </c>
+      <c r="W65">
+        <v>121</v>
+      </c>
+      <c r="X65">
+        <v>118</v>
+      </c>
+      <c r="Y65">
+        <v>121</v>
+      </c>
+      <c r="Z65">
+        <v>117</v>
+      </c>
+      <c r="AA65">
+        <v>116</v>
+      </c>
+      <c r="AB65">
         <v>110</v>
       </c>
-      <c r="C65">
-        <v>104</v>
-      </c>
-      <c r="D65">
-        <v>139</v>
-      </c>
-      <c r="E65">
-        <v>99</v>
-      </c>
-      <c r="F65">
-        <v>98</v>
-      </c>
-      <c r="G65">
-        <v>107</v>
-      </c>
-      <c r="H65">
-        <v>98</v>
-      </c>
-      <c r="I65">
-        <v>98</v>
-      </c>
-      <c r="J65">
-        <v>98</v>
-      </c>
-      <c r="K65">
-        <v>101</v>
-      </c>
-      <c r="L65">
-        <v>106</v>
-      </c>
-      <c r="M65">
-        <v>97</v>
-      </c>
-      <c r="N65">
-        <v>100</v>
-      </c>
-      <c r="O65">
-        <v>98</v>
-      </c>
-      <c r="P65">
-        <v>103</v>
-      </c>
-      <c r="Q65">
-        <v>130</v>
-      </c>
-      <c r="R65">
-        <v>213</v>
-      </c>
-      <c r="S65">
-        <v>127</v>
-      </c>
-      <c r="T65">
-        <v>97</v>
-      </c>
-      <c r="U65">
-        <v>104</v>
-      </c>
-      <c r="V65">
-        <v>90</v>
-      </c>
-      <c r="W65">
-        <v>102</v>
-      </c>
-      <c r="X65">
-        <v>100</v>
-      </c>
-      <c r="Y65">
-        <v>99</v>
-      </c>
-      <c r="Z65">
-        <v>98</v>
-      </c>
-      <c r="AA65">
-        <v>92</v>
-      </c>
-      <c r="AB65">
-        <v>93</v>
-      </c>
       <c r="AC65">
-        <v>106</v>
-      </c>
-      <c r="AH65">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:34">
+        <v>117</v>
+      </c>
+      <c r="AD65">
+        <v>123</v>
+      </c>
+      <c r="AE65">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31">
       <c r="A66" t="s">
         <v>66</v>
       </c>
       <c r="B66">
-        <v>136</v>
+        <v>335</v>
       </c>
       <c r="C66">
-        <v>130</v>
+        <v>362</v>
       </c>
       <c r="D66">
-        <v>132</v>
+        <v>316</v>
       </c>
       <c r="E66">
-        <v>163</v>
+        <v>595</v>
       </c>
       <c r="F66">
-        <v>125</v>
+        <v>504</v>
       </c>
       <c r="G66">
-        <v>157</v>
+        <v>777</v>
       </c>
       <c r="H66">
-        <v>149</v>
+        <v>334</v>
       </c>
       <c r="I66">
-        <v>229</v>
+        <v>392</v>
       </c>
       <c r="J66">
-        <v>143</v>
+        <v>535</v>
       </c>
       <c r="K66">
-        <v>182</v>
+        <v>390</v>
       </c>
       <c r="L66">
-        <v>126</v>
+        <v>550</v>
       </c>
       <c r="M66">
-        <v>134</v>
+        <v>1984</v>
       </c>
       <c r="N66">
-        <v>136</v>
+        <v>654</v>
       </c>
       <c r="O66">
-        <v>149</v>
+        <v>431</v>
       </c>
       <c r="P66">
-        <v>152</v>
+        <v>408</v>
       </c>
       <c r="Q66">
-        <v>125</v>
+        <v>1022</v>
       </c>
       <c r="R66">
-        <v>129</v>
+        <v>434</v>
       </c>
       <c r="S66">
-        <v>175</v>
+        <v>326</v>
       </c>
       <c r="T66">
-        <v>138</v>
+        <v>359</v>
       </c>
       <c r="U66">
-        <v>146</v>
+        <v>678</v>
       </c>
       <c r="V66">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="W66">
-        <v>137</v>
+        <v>392</v>
       </c>
       <c r="X66">
-        <v>138</v>
+        <v>377</v>
       </c>
       <c r="Y66">
-        <v>138</v>
-      </c>
-      <c r="Z66">
-        <v>178</v>
-      </c>
-      <c r="AA66">
-        <v>157</v>
-      </c>
-      <c r="AB66">
-        <v>190</v>
-      </c>
-      <c r="AC66">
-        <v>147</v>
-      </c>
-      <c r="AH66">
-        <f t="shared" ref="AH66:AH68" si="1">MEDIAN(B66:AE66)</f>
-        <v>140.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:34">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67">
-        <v>120</v>
-      </c>
-      <c r="C67">
-        <v>118</v>
-      </c>
-      <c r="D67">
-        <v>117</v>
-      </c>
-      <c r="E67">
-        <v>132</v>
-      </c>
-      <c r="F67">
-        <v>115</v>
-      </c>
-      <c r="G67">
-        <v>114</v>
-      </c>
-      <c r="H67">
-        <v>126</v>
-      </c>
-      <c r="I67">
-        <v>128</v>
-      </c>
-      <c r="J67">
-        <v>122</v>
-      </c>
-      <c r="K67">
-        <v>114</v>
-      </c>
-      <c r="L67">
-        <v>119</v>
-      </c>
-      <c r="M67">
-        <v>122</v>
-      </c>
-      <c r="N67">
-        <v>127</v>
-      </c>
-      <c r="O67">
-        <v>137</v>
-      </c>
-      <c r="P67">
-        <v>117</v>
-      </c>
-      <c r="Q67">
-        <v>116</v>
-      </c>
-      <c r="R67">
-        <v>119</v>
-      </c>
-      <c r="S67">
-        <v>111</v>
-      </c>
-      <c r="T67">
-        <v>116</v>
-      </c>
-      <c r="U67">
-        <v>130</v>
-      </c>
-      <c r="V67">
-        <v>124</v>
-      </c>
-      <c r="W67">
-        <v>121</v>
-      </c>
-      <c r="X67">
-        <v>118</v>
-      </c>
-      <c r="Y67">
-        <v>121</v>
-      </c>
-      <c r="Z67">
-        <v>117</v>
-      </c>
-      <c r="AA67">
-        <v>116</v>
-      </c>
-      <c r="AB67">
-        <v>110</v>
-      </c>
-      <c r="AC67">
-        <v>117</v>
-      </c>
-      <c r="AD67">
-        <v>123</v>
-      </c>
-      <c r="AE67">
-        <v>121</v>
-      </c>
-      <c r="AH67">
-        <f t="shared" si="1"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68">
-        <v>335</v>
-      </c>
-      <c r="C68">
-        <v>362</v>
-      </c>
-      <c r="D68">
-        <v>316</v>
-      </c>
-      <c r="E68">
-        <v>595</v>
-      </c>
-      <c r="F68">
-        <v>504</v>
-      </c>
-      <c r="G68">
-        <v>777</v>
-      </c>
-      <c r="H68">
-        <v>334</v>
-      </c>
-      <c r="I68">
-        <v>392</v>
-      </c>
-      <c r="J68">
-        <v>535</v>
-      </c>
-      <c r="K68">
-        <v>390</v>
-      </c>
-      <c r="L68">
-        <v>550</v>
-      </c>
-      <c r="M68">
-        <v>1984</v>
-      </c>
-      <c r="N68">
-        <v>654</v>
-      </c>
-      <c r="O68">
-        <v>431</v>
-      </c>
-      <c r="P68">
-        <v>408</v>
-      </c>
-      <c r="Q68">
-        <v>1022</v>
-      </c>
-      <c r="R68">
-        <v>434</v>
-      </c>
-      <c r="S68">
-        <v>326</v>
-      </c>
-      <c r="T68">
-        <v>359</v>
-      </c>
-      <c r="U68">
-        <v>678</v>
-      </c>
-      <c r="V68">
-        <v>197</v>
-      </c>
-      <c r="W68">
-        <v>392</v>
-      </c>
-      <c r="X68">
-        <v>377</v>
-      </c>
-      <c r="Y68">
         <v>420</v>
-      </c>
-      <c r="AH68">
-        <f t="shared" si="1"/>
-        <v>414</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/results_OT/nonnoisy_changeinfo_original.xlsx
+++ b/results/results_OT/nonnoisy_changeinfo_original.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\linguist\Jou\projects\2021_RIP\Generals02\code\economy_RIPGLA_2\results\results_OT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\linguist\Jou\projects\2021_RIP\Generals02\code\Economy_RIPGLA-master\results\results_OT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AD3B3EE-B0F8-4DAE-ACBD-7444EE53336D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C278BA66-EEAA-4E02-B3D7-06072515B138}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nonnoisy_changeinfo_original - " sheetId="1" r:id="rId1"/>
@@ -217,16 +217,18 @@
     <t>hypo66</t>
   </si>
   <si>
-    <t>hypo67</t>
-  </si>
-  <si>
-    <t>hypo68</t>
+    <t>hypo01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypo02</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -1171,3239 +1173,3226 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B1">
-        <v>1279</v>
+        <v>120</v>
+      </c>
+      <c r="C1">
+        <v>118</v>
+      </c>
+      <c r="D1">
+        <v>117</v>
+      </c>
+      <c r="E1">
+        <v>132</v>
+      </c>
+      <c r="F1">
+        <v>115</v>
+      </c>
+      <c r="G1">
+        <v>114</v>
+      </c>
+      <c r="H1">
+        <v>126</v>
+      </c>
+      <c r="I1">
+        <v>128</v>
+      </c>
+      <c r="J1">
+        <v>122</v>
+      </c>
+      <c r="K1">
+        <v>114</v>
+      </c>
+      <c r="L1">
+        <v>119</v>
+      </c>
+      <c r="M1">
+        <v>122</v>
+      </c>
+      <c r="N1">
+        <v>127</v>
+      </c>
+      <c r="O1">
+        <v>137</v>
+      </c>
+      <c r="P1">
+        <v>117</v>
+      </c>
+      <c r="Q1">
+        <v>116</v>
+      </c>
+      <c r="R1">
+        <v>119</v>
+      </c>
+      <c r="S1">
+        <v>111</v>
+      </c>
+      <c r="T1">
+        <v>116</v>
+      </c>
+      <c r="U1">
+        <v>130</v>
+      </c>
+      <c r="V1">
+        <v>124</v>
+      </c>
+      <c r="W1">
+        <v>121</v>
+      </c>
+      <c r="X1">
+        <v>118</v>
+      </c>
+      <c r="Y1">
+        <v>121</v>
+      </c>
+      <c r="Z1">
+        <v>117</v>
+      </c>
+      <c r="AA1">
+        <v>116</v>
+      </c>
+      <c r="AB1">
+        <v>110</v>
+      </c>
+      <c r="AC1">
+        <v>117</v>
+      </c>
+      <c r="AD1">
+        <v>123</v>
+      </c>
+      <c r="AE1">
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B2">
-        <v>172</v>
+        <v>335</v>
       </c>
       <c r="C2">
-        <v>178</v>
+        <v>362</v>
       </c>
       <c r="D2">
-        <v>147</v>
+        <v>316</v>
       </c>
       <c r="E2">
-        <v>150</v>
+        <v>595</v>
       </c>
       <c r="F2">
-        <v>127</v>
+        <v>504</v>
       </c>
       <c r="G2">
-        <v>139</v>
+        <v>777</v>
       </c>
       <c r="H2">
-        <v>137</v>
+        <v>334</v>
       </c>
       <c r="I2">
-        <v>154</v>
+        <v>392</v>
       </c>
       <c r="J2">
-        <v>153</v>
+        <v>535</v>
       </c>
       <c r="K2">
-        <v>145</v>
+        <v>390</v>
       </c>
       <c r="L2">
-        <v>152</v>
+        <v>550</v>
       </c>
       <c r="M2">
-        <v>139</v>
+        <v>1984</v>
       </c>
       <c r="N2">
-        <v>156</v>
+        <v>654</v>
       </c>
       <c r="O2">
-        <v>140</v>
+        <v>431</v>
       </c>
       <c r="P2">
-        <v>146</v>
+        <v>408</v>
       </c>
       <c r="Q2">
-        <v>138</v>
+        <v>1022</v>
       </c>
       <c r="R2">
-        <v>184</v>
+        <v>434</v>
       </c>
       <c r="S2">
-        <v>175</v>
+        <v>326</v>
       </c>
       <c r="T2">
-        <v>148</v>
+        <v>359</v>
       </c>
       <c r="U2">
-        <v>143</v>
+        <v>678</v>
       </c>
       <c r="V2">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="W2">
-        <v>141</v>
+        <v>392</v>
       </c>
       <c r="X2">
-        <v>146</v>
+        <v>377</v>
       </c>
       <c r="Y2">
-        <v>139</v>
-      </c>
-      <c r="Z2">
-        <v>164</v>
-      </c>
-      <c r="AA2">
-        <v>156</v>
-      </c>
-      <c r="AB2">
-        <v>159</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>161</v>
-      </c>
-      <c r="C3">
-        <v>160</v>
-      </c>
-      <c r="D3">
-        <v>149</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="C4">
-        <v>1285</v>
+        <v>178</v>
       </c>
       <c r="D4">
-        <v>920</v>
+        <v>147</v>
       </c>
       <c r="E4">
-        <v>443</v>
+        <v>150</v>
       </c>
       <c r="F4">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G4">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="H4">
+        <v>137</v>
+      </c>
+      <c r="I4">
+        <v>154</v>
+      </c>
+      <c r="J4">
         <v>153</v>
       </c>
-      <c r="I4">
-        <v>141</v>
-      </c>
-      <c r="J4">
-        <v>500</v>
-      </c>
       <c r="K4">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="L4">
-        <v>827</v>
+        <v>152</v>
       </c>
       <c r="M4">
-        <v>537</v>
+        <v>139</v>
       </c>
       <c r="N4">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="O4">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="P4">
-        <v>1041</v>
+        <v>146</v>
       </c>
       <c r="Q4">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="R4">
-        <v>600</v>
+        <v>184</v>
       </c>
       <c r="S4">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="T4">
-        <v>810</v>
+        <v>148</v>
       </c>
       <c r="U4">
         <v>143</v>
       </c>
       <c r="V4">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="W4">
-        <v>792</v>
+        <v>141</v>
       </c>
       <c r="X4">
-        <v>1465</v>
+        <v>146</v>
       </c>
       <c r="Y4">
-        <v>916</v>
+        <v>139</v>
       </c>
       <c r="Z4">
-        <v>599</v>
+        <v>164</v>
       </c>
       <c r="AA4">
-        <v>241</v>
+        <v>156</v>
       </c>
       <c r="AB4">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="C5">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="D5">
-        <v>182</v>
-      </c>
-      <c r="E5">
-        <v>200</v>
-      </c>
-      <c r="F5">
-        <v>192</v>
-      </c>
-      <c r="G5">
-        <v>185</v>
-      </c>
-      <c r="H5">
-        <v>211</v>
-      </c>
-      <c r="I5">
-        <v>203</v>
-      </c>
-      <c r="J5">
-        <v>174</v>
-      </c>
-      <c r="K5">
-        <v>190</v>
-      </c>
-      <c r="L5">
-        <v>202</v>
-      </c>
-      <c r="M5">
-        <v>187</v>
-      </c>
-      <c r="N5">
-        <v>197</v>
-      </c>
-      <c r="O5">
-        <v>193</v>
-      </c>
-      <c r="P5">
-        <v>190</v>
-      </c>
-      <c r="Q5">
-        <v>184</v>
-      </c>
-      <c r="R5">
-        <v>172</v>
-      </c>
-      <c r="S5">
-        <v>191</v>
-      </c>
-      <c r="T5">
-        <v>183</v>
-      </c>
-      <c r="U5">
-        <v>188</v>
-      </c>
-      <c r="V5">
-        <v>193</v>
-      </c>
-      <c r="W5">
-        <v>180</v>
-      </c>
-      <c r="X5">
-        <v>192</v>
-      </c>
-      <c r="Y5">
-        <v>189</v>
-      </c>
-      <c r="Z5">
-        <v>194</v>
-      </c>
-      <c r="AA5">
-        <v>193</v>
-      </c>
-      <c r="AB5">
-        <v>187</v>
-      </c>
-      <c r="AC5">
-        <v>190</v>
-      </c>
-      <c r="AD5">
-        <v>176</v>
-      </c>
-      <c r="AE5">
-        <v>188</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="C6">
-        <v>76</v>
+        <v>1285</v>
       </c>
       <c r="D6">
-        <v>80</v>
+        <v>920</v>
       </c>
       <c r="E6">
-        <v>84</v>
+        <v>443</v>
       </c>
       <c r="F6">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="G6">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="H6">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="I6">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="J6">
-        <v>88</v>
+        <v>500</v>
       </c>
       <c r="K6">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="L6">
-        <v>105</v>
+        <v>827</v>
       </c>
       <c r="M6">
-        <v>85</v>
+        <v>537</v>
       </c>
       <c r="N6">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="O6">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="P6">
-        <v>83</v>
+        <v>1041</v>
       </c>
       <c r="Q6">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="R6">
-        <v>83</v>
+        <v>600</v>
       </c>
       <c r="S6">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="T6">
-        <v>81</v>
+        <v>810</v>
       </c>
       <c r="U6">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="V6">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="W6">
-        <v>83</v>
+        <v>792</v>
       </c>
       <c r="X6">
-        <v>83</v>
+        <v>1465</v>
       </c>
       <c r="Y6">
-        <v>89</v>
+        <v>916</v>
       </c>
       <c r="Z6">
-        <v>82</v>
+        <v>599</v>
       </c>
       <c r="AA6">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="AB6">
-        <v>75</v>
-      </c>
-      <c r="AC6">
-        <v>92</v>
-      </c>
-      <c r="AD6">
-        <v>77</v>
-      </c>
-      <c r="AE6">
-        <v>77</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="C7">
-        <v>638</v>
+        <v>188</v>
       </c>
       <c r="D7">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="E7">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="F7">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="G7">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="H7">
-        <v>124</v>
+        <v>211</v>
+      </c>
+      <c r="I7">
+        <v>203</v>
+      </c>
+      <c r="J7">
+        <v>174</v>
+      </c>
+      <c r="K7">
+        <v>190</v>
+      </c>
+      <c r="L7">
+        <v>202</v>
+      </c>
+      <c r="M7">
+        <v>187</v>
+      </c>
+      <c r="N7">
+        <v>197</v>
+      </c>
+      <c r="O7">
+        <v>193</v>
+      </c>
+      <c r="P7">
+        <v>190</v>
+      </c>
+      <c r="Q7">
+        <v>184</v>
+      </c>
+      <c r="R7">
+        <v>172</v>
+      </c>
+      <c r="S7">
+        <v>191</v>
+      </c>
+      <c r="T7">
+        <v>183</v>
+      </c>
+      <c r="U7">
+        <v>188</v>
+      </c>
+      <c r="V7">
+        <v>193</v>
+      </c>
+      <c r="W7">
+        <v>180</v>
+      </c>
+      <c r="X7">
+        <v>192</v>
+      </c>
+      <c r="Y7">
+        <v>189</v>
+      </c>
+      <c r="Z7">
+        <v>194</v>
+      </c>
+      <c r="AA7">
+        <v>193</v>
+      </c>
+      <c r="AB7">
+        <v>187</v>
+      </c>
+      <c r="AC7">
+        <v>190</v>
+      </c>
+      <c r="AD7">
+        <v>176</v>
+      </c>
+      <c r="AE7">
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C8">
+        <v>76</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
+      </c>
+      <c r="E8">
+        <v>84</v>
+      </c>
+      <c r="F8">
+        <v>85</v>
+      </c>
+      <c r="G8">
+        <v>82</v>
+      </c>
+      <c r="H8">
+        <v>86</v>
+      </c>
+      <c r="I8">
+        <v>76</v>
+      </c>
+      <c r="J8">
+        <v>88</v>
+      </c>
+      <c r="K8">
+        <v>91</v>
+      </c>
+      <c r="L8">
         <v>105</v>
       </c>
-      <c r="D8">
-        <v>105</v>
-      </c>
-      <c r="E8">
-        <v>105</v>
-      </c>
-      <c r="F8">
-        <v>88</v>
-      </c>
-      <c r="G8">
-        <v>108</v>
-      </c>
-      <c r="H8">
-        <v>95</v>
-      </c>
-      <c r="I8">
-        <v>104</v>
-      </c>
-      <c r="J8">
+      <c r="M8">
+        <v>85</v>
+      </c>
+      <c r="N8">
+        <v>80</v>
+      </c>
+      <c r="O8">
         <v>90</v>
       </c>
-      <c r="K8">
-        <v>135</v>
-      </c>
-      <c r="L8">
-        <v>96</v>
-      </c>
-      <c r="M8">
-        <v>104</v>
-      </c>
-      <c r="N8">
-        <v>110</v>
-      </c>
-      <c r="O8">
-        <v>117</v>
-      </c>
       <c r="P8">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="Q8">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="R8">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="S8">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="T8">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="U8">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="V8">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="W8">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="X8">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="Y8">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="Z8">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="AA8">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="AB8">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AC8">
-        <v>110</v>
+        <v>92</v>
+      </c>
+      <c r="AD8">
+        <v>77</v>
+      </c>
+      <c r="AE8">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C9">
-        <v>113</v>
+        <v>638</v>
       </c>
       <c r="D9">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E9">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="F9">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="G9">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="H9">
-        <v>130</v>
-      </c>
-      <c r="I9">
-        <v>129</v>
-      </c>
-      <c r="J9">
-        <v>137</v>
-      </c>
-      <c r="K9">
-        <v>121</v>
-      </c>
-      <c r="L9">
-        <v>132</v>
-      </c>
-      <c r="M9">
-        <v>132</v>
-      </c>
-      <c r="N9">
-        <v>125</v>
-      </c>
-      <c r="O9">
-        <v>136</v>
-      </c>
-      <c r="P9">
-        <v>139</v>
-      </c>
-      <c r="Q9">
-        <v>134</v>
-      </c>
-      <c r="R9">
-        <v>121</v>
-      </c>
-      <c r="S9">
-        <v>143</v>
-      </c>
-      <c r="T9">
-        <v>134</v>
-      </c>
-      <c r="U9">
-        <v>140</v>
-      </c>
-      <c r="V9">
-        <v>142</v>
-      </c>
-      <c r="W9">
-        <v>119</v>
-      </c>
-      <c r="X9">
-        <v>149</v>
-      </c>
-      <c r="Y9">
-        <v>120</v>
-      </c>
-      <c r="Z9">
-        <v>107</v>
-      </c>
-      <c r="AA9">
-        <v>122</v>
-      </c>
-      <c r="AB9">
-        <v>134</v>
-      </c>
-      <c r="AC9">
-        <v>95</v>
-      </c>
-      <c r="AD9">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C10">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="D10">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="E10">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="F10">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="G10">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="H10">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="I10">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="J10">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="K10">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="L10">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="M10">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="N10">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="O10">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="P10">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="Q10">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="R10">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="S10">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="T10">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="U10">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="V10">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="W10">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="X10">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="Y10">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="Z10">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="AA10">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="AB10">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="AC10">
-        <v>58</v>
-      </c>
-      <c r="AD10">
-        <v>62</v>
-      </c>
-      <c r="AE10">
-        <v>53</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>109</v>
+      </c>
+      <c r="C11">
+        <v>113</v>
+      </c>
+      <c r="D11">
+        <v>140</v>
+      </c>
+      <c r="E11">
+        <v>131</v>
+      </c>
+      <c r="F11">
+        <v>116</v>
+      </c>
+      <c r="G11">
+        <v>140</v>
+      </c>
+      <c r="H11">
+        <v>130</v>
+      </c>
+      <c r="I11">
+        <v>129</v>
+      </c>
+      <c r="J11">
+        <v>137</v>
+      </c>
+      <c r="K11">
+        <v>121</v>
+      </c>
+      <c r="L11">
+        <v>132</v>
+      </c>
+      <c r="M11">
+        <v>132</v>
+      </c>
+      <c r="N11">
+        <v>125</v>
+      </c>
+      <c r="O11">
+        <v>136</v>
+      </c>
+      <c r="P11">
+        <v>139</v>
+      </c>
+      <c r="Q11">
+        <v>134</v>
+      </c>
+      <c r="R11">
+        <v>121</v>
+      </c>
+      <c r="S11">
+        <v>143</v>
+      </c>
+      <c r="T11">
+        <v>134</v>
+      </c>
+      <c r="U11">
+        <v>140</v>
+      </c>
+      <c r="V11">
+        <v>142</v>
+      </c>
+      <c r="W11">
+        <v>119</v>
+      </c>
+      <c r="X11">
+        <v>149</v>
+      </c>
+      <c r="Y11">
+        <v>120</v>
+      </c>
+      <c r="Z11">
+        <v>107</v>
+      </c>
+      <c r="AA11">
+        <v>122</v>
+      </c>
+      <c r="AB11">
+        <v>134</v>
+      </c>
+      <c r="AC11">
+        <v>95</v>
+      </c>
+      <c r="AD11">
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F12">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="G12">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I12">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="J12">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="K12">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="N12">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="O12">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="P12">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="R12">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="S12">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="T12">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="U12">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="V12">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="W12">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="X12">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="Y12">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="Z12">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="AA12">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="AB12">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="AC12">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="AD12">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="AE12">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>1407</v>
-      </c>
-      <c r="C13">
-        <v>4877</v>
-      </c>
-      <c r="D13">
-        <v>3873</v>
-      </c>
-      <c r="E13">
-        <v>3500</v>
-      </c>
-      <c r="F13">
-        <v>2626</v>
-      </c>
-      <c r="G13">
-        <v>574</v>
-      </c>
-      <c r="H13">
-        <v>4680</v>
-      </c>
-      <c r="I13">
-        <v>2601</v>
-      </c>
-      <c r="J13">
-        <v>1061</v>
-      </c>
-      <c r="K13">
-        <v>4018</v>
-      </c>
-      <c r="L13">
-        <v>3179</v>
-      </c>
-      <c r="M13">
-        <v>4258</v>
-      </c>
-      <c r="N13">
-        <v>3518</v>
-      </c>
-      <c r="O13">
-        <v>5931</v>
-      </c>
-      <c r="P13">
-        <v>3587</v>
-      </c>
-      <c r="Q13">
-        <v>1317</v>
-      </c>
-      <c r="R13">
-        <v>1414</v>
-      </c>
-      <c r="S13">
-        <v>3476</v>
-      </c>
-      <c r="T13">
-        <v>4635</v>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="C14">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="F14">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="G14">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="H14">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="I14">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="J14">
-        <v>242</v>
+        <v>22</v>
       </c>
       <c r="K14">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="L14">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="M14">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="N14">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="O14">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="P14">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="Q14">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="R14">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="S14">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="T14">
-        <v>197</v>
+        <v>22</v>
       </c>
       <c r="U14">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="V14">
-        <v>245</v>
+        <v>21</v>
+      </c>
+      <c r="W14">
+        <v>18</v>
+      </c>
+      <c r="X14">
+        <v>21</v>
+      </c>
+      <c r="Y14">
+        <v>19</v>
+      </c>
+      <c r="Z14">
+        <v>22</v>
+      </c>
+      <c r="AA14">
+        <v>19</v>
+      </c>
+      <c r="AB14">
+        <v>20</v>
+      </c>
+      <c r="AC14">
+        <v>19</v>
+      </c>
+      <c r="AD14">
+        <v>20</v>
+      </c>
+      <c r="AE14">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>57</v>
+        <v>1407</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>4877</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>3873</v>
       </c>
       <c r="E15">
-        <v>47</v>
+        <v>3500</v>
       </c>
       <c r="F15">
-        <v>47</v>
+        <v>2626</v>
       </c>
       <c r="G15">
-        <v>48</v>
+        <v>574</v>
       </c>
       <c r="H15">
-        <v>57</v>
+        <v>4680</v>
       </c>
       <c r="I15">
-        <v>59</v>
+        <v>2601</v>
       </c>
       <c r="J15">
-        <v>49</v>
+        <v>1061</v>
       </c>
       <c r="K15">
-        <v>53</v>
+        <v>4018</v>
       </c>
       <c r="L15">
-        <v>70</v>
+        <v>3179</v>
       </c>
       <c r="M15">
-        <v>55</v>
+        <v>4258</v>
       </c>
       <c r="N15">
-        <v>53</v>
+        <v>3518</v>
       </c>
       <c r="O15">
-        <v>50</v>
+        <v>5931</v>
       </c>
       <c r="P15">
-        <v>67</v>
+        <v>3587</v>
       </c>
       <c r="Q15">
-        <v>54</v>
+        <v>1317</v>
       </c>
       <c r="R15">
-        <v>50</v>
+        <v>1414</v>
       </c>
       <c r="S15">
-        <v>55</v>
+        <v>3476</v>
       </c>
       <c r="T15">
-        <v>56</v>
-      </c>
-      <c r="U15">
-        <v>45</v>
-      </c>
-      <c r="V15">
-        <v>54</v>
-      </c>
-      <c r="W15">
-        <v>47</v>
-      </c>
-      <c r="X15">
-        <v>55</v>
-      </c>
-      <c r="Y15">
-        <v>49</v>
-      </c>
-      <c r="Z15">
-        <v>54</v>
-      </c>
-      <c r="AA15">
-        <v>57</v>
-      </c>
-      <c r="AB15">
-        <v>54</v>
-      </c>
-      <c r="AC15">
-        <v>51</v>
-      </c>
-      <c r="AD15">
-        <v>51</v>
-      </c>
-      <c r="AE15">
-        <v>53</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>358</v>
+        <v>198</v>
       </c>
       <c r="C16">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="D16">
-        <v>291</v>
+        <v>208</v>
       </c>
       <c r="E16">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="F16">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c r="G16">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c r="H16">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="I16">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="J16">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="K16">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="L16">
-        <v>493</v>
+        <v>194</v>
       </c>
       <c r="M16">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="N16">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="O16">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="P16">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="Q16">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="R16">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="S16">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="T16">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="U16">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="V16">
-        <v>258</v>
-      </c>
-      <c r="W16">
-        <v>120</v>
-      </c>
-      <c r="X16">
-        <v>91</v>
-      </c>
-      <c r="Y16">
-        <v>403</v>
-      </c>
-      <c r="Z16">
-        <v>201</v>
-      </c>
-      <c r="AA16">
-        <v>317</v>
-      </c>
-      <c r="AB16">
-        <v>231</v>
-      </c>
-      <c r="AC16">
-        <v>451</v>
-      </c>
-      <c r="AD16">
-        <v>394</v>
-      </c>
-      <c r="AE16">
-        <v>139</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E17">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F17">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G17">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I17">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="J17">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="N17">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="O17">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="P17">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="Q17">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="R17">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="S17">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="T17">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="U17">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="V17">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="W17">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="X17">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="Y17">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="Z17">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="AA17">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="AB17">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="AC17">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="AD17">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="AE17">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>4812</v>
+        <v>358</v>
       </c>
       <c r="C18">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D18">
-        <v>4501</v>
+        <v>291</v>
       </c>
       <c r="E18">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="F18">
-        <v>261</v>
+        <v>117</v>
       </c>
       <c r="G18">
+        <v>102</v>
+      </c>
+      <c r="H18">
+        <v>160</v>
+      </c>
+      <c r="I18">
+        <v>79</v>
+      </c>
+      <c r="J18">
+        <v>140</v>
+      </c>
+      <c r="K18">
+        <v>105</v>
+      </c>
+      <c r="L18">
+        <v>493</v>
+      </c>
+      <c r="M18">
+        <v>105</v>
+      </c>
+      <c r="N18">
+        <v>290</v>
+      </c>
+      <c r="O18">
         <v>85</v>
       </c>
-      <c r="H18">
-        <v>256</v>
-      </c>
-      <c r="I18">
-        <v>136</v>
-      </c>
-      <c r="J18">
-        <v>87</v>
-      </c>
-      <c r="K18">
-        <v>127</v>
-      </c>
-      <c r="L18">
-        <v>335</v>
-      </c>
-      <c r="M18">
-        <v>83</v>
-      </c>
-      <c r="N18">
-        <v>239</v>
-      </c>
-      <c r="O18">
-        <v>212</v>
-      </c>
       <c r="P18">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="Q18">
-        <v>116</v>
+        <v>251</v>
       </c>
       <c r="R18">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="S18">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="T18">
-        <v>507</v>
+        <v>86</v>
       </c>
       <c r="U18">
-        <v>3714</v>
+        <v>156</v>
       </c>
       <c r="V18">
-        <v>113</v>
+        <v>258</v>
       </c>
       <c r="W18">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="X18">
-        <v>270</v>
+        <v>91</v>
       </c>
       <c r="Y18">
-        <v>304</v>
+        <v>403</v>
       </c>
       <c r="Z18">
-        <v>205</v>
+        <v>201</v>
+      </c>
+      <c r="AA18">
+        <v>317</v>
+      </c>
+      <c r="AB18">
+        <v>231</v>
+      </c>
+      <c r="AC18">
+        <v>451</v>
+      </c>
+      <c r="AD18">
+        <v>394</v>
+      </c>
+      <c r="AE18">
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:31">
       <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
         <v>19</v>
       </c>
-      <c r="B19">
-        <v>2818</v>
-      </c>
       <c r="C19">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>8620</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>5669</v>
+        <v>21</v>
       </c>
       <c r="F19">
-        <v>426</v>
+        <v>19</v>
       </c>
       <c r="G19">
-        <v>3155</v>
+        <v>21</v>
       </c>
       <c r="H19">
-        <v>2943</v>
+        <v>20</v>
       </c>
       <c r="I19">
-        <v>8548</v>
+        <v>19</v>
       </c>
       <c r="J19">
-        <v>13418</v>
+        <v>18</v>
       </c>
       <c r="K19">
-        <v>7402</v>
+        <v>19</v>
       </c>
       <c r="L19">
-        <v>8916</v>
+        <v>19</v>
       </c>
       <c r="M19">
-        <v>19001</v>
+        <v>19</v>
       </c>
       <c r="N19">
-        <v>4279</v>
+        <v>19</v>
       </c>
       <c r="O19">
-        <v>5287</v>
+        <v>20</v>
+      </c>
+      <c r="P19">
+        <v>20</v>
+      </c>
+      <c r="Q19">
+        <v>22</v>
+      </c>
+      <c r="R19">
+        <v>19</v>
+      </c>
+      <c r="S19">
+        <v>18</v>
+      </c>
+      <c r="T19">
+        <v>21</v>
+      </c>
+      <c r="U19">
+        <v>18</v>
+      </c>
+      <c r="V19">
+        <v>20</v>
+      </c>
+      <c r="W19">
+        <v>20</v>
+      </c>
+      <c r="X19">
+        <v>19</v>
+      </c>
+      <c r="Y19">
+        <v>21</v>
+      </c>
+      <c r="Z19">
+        <v>18</v>
+      </c>
+      <c r="AA19">
+        <v>21</v>
+      </c>
+      <c r="AB19">
+        <v>20</v>
+      </c>
+      <c r="AC19">
+        <v>18</v>
+      </c>
+      <c r="AD19">
+        <v>20</v>
+      </c>
+      <c r="AE19">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>2170</v>
+        <v>4812</v>
       </c>
       <c r="C20">
-        <v>2597</v>
+        <v>145</v>
       </c>
       <c r="D20">
-        <v>5045</v>
+        <v>4501</v>
       </c>
       <c r="E20">
-        <v>969</v>
+        <v>87</v>
       </c>
       <c r="F20">
-        <v>14425</v>
+        <v>261</v>
       </c>
       <c r="G20">
-        <v>10828</v>
+        <v>85</v>
       </c>
       <c r="H20">
-        <v>13683</v>
+        <v>256</v>
       </c>
       <c r="I20">
-        <v>482</v>
+        <v>136</v>
       </c>
       <c r="J20">
-        <v>7628</v>
+        <v>87</v>
       </c>
       <c r="K20">
-        <v>14173</v>
+        <v>127</v>
       </c>
       <c r="L20">
-        <v>61</v>
+        <v>335</v>
       </c>
       <c r="M20">
-        <v>303</v>
+        <v>83</v>
       </c>
       <c r="N20">
-        <v>801</v>
+        <v>239</v>
       </c>
       <c r="O20">
-        <v>5150</v>
+        <v>212</v>
       </c>
       <c r="P20">
-        <v>10033</v>
+        <v>170</v>
       </c>
       <c r="Q20">
-        <v>11161</v>
+        <v>116</v>
       </c>
       <c r="R20">
-        <v>12201</v>
+        <v>144</v>
       </c>
       <c r="S20">
-        <v>2872</v>
+        <v>114</v>
       </c>
       <c r="T20">
-        <v>24957</v>
+        <v>507</v>
       </c>
       <c r="U20">
-        <v>4350</v>
+        <v>3714</v>
       </c>
       <c r="V20">
-        <v>14065</v>
+        <v>113</v>
       </c>
       <c r="W20">
-        <v>5547</v>
+        <v>99</v>
+      </c>
+      <c r="X20">
+        <v>270</v>
+      </c>
+      <c r="Y20">
+        <v>304</v>
+      </c>
+      <c r="Z20">
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>114</v>
+        <v>2818</v>
       </c>
       <c r="C21">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="D21">
-        <v>131</v>
+        <v>8620</v>
       </c>
       <c r="E21">
-        <v>128</v>
+        <v>5669</v>
       </c>
       <c r="F21">
-        <v>130</v>
+        <v>426</v>
       </c>
       <c r="G21">
-        <v>126</v>
+        <v>3155</v>
       </c>
       <c r="H21">
-        <v>121</v>
+        <v>2943</v>
       </c>
       <c r="I21">
-        <v>119</v>
+        <v>8548</v>
       </c>
       <c r="J21">
-        <v>203</v>
+        <v>13418</v>
       </c>
       <c r="K21">
-        <v>110</v>
+        <v>7402</v>
       </c>
       <c r="L21">
-        <v>114</v>
+        <v>8916</v>
       </c>
       <c r="M21">
-        <v>330</v>
+        <v>19001</v>
       </c>
       <c r="N21">
-        <v>134</v>
+        <v>4279</v>
       </c>
       <c r="O21">
-        <v>131</v>
-      </c>
-      <c r="P21">
-        <v>138</v>
-      </c>
-      <c r="Q21">
-        <v>108</v>
-      </c>
-      <c r="R21">
-        <v>212</v>
-      </c>
-      <c r="S21">
-        <v>132</v>
-      </c>
-      <c r="T21">
-        <v>130</v>
-      </c>
-      <c r="U21">
-        <v>115</v>
-      </c>
-      <c r="V21">
-        <v>350</v>
-      </c>
-      <c r="W21">
-        <v>147</v>
+        <v>5287</v>
       </c>
     </row>
     <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>2170</v>
       </c>
       <c r="C22">
-        <v>86</v>
+        <v>2597</v>
       </c>
       <c r="D22">
-        <v>104</v>
+        <v>5045</v>
       </c>
       <c r="E22">
-        <v>100</v>
+        <v>969</v>
       </c>
       <c r="F22">
-        <v>97</v>
+        <v>14425</v>
       </c>
       <c r="G22">
-        <v>88</v>
+        <v>10828</v>
       </c>
       <c r="H22">
-        <v>89</v>
+        <v>13683</v>
       </c>
       <c r="I22">
-        <v>127</v>
+        <v>482</v>
       </c>
       <c r="J22">
-        <v>81</v>
+        <v>7628</v>
       </c>
       <c r="K22">
-        <v>93</v>
+        <v>14173</v>
       </c>
       <c r="L22">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="M22">
-        <v>95</v>
+        <v>303</v>
       </c>
       <c r="N22">
-        <v>81</v>
+        <v>801</v>
       </c>
       <c r="O22">
-        <v>93</v>
+        <v>5150</v>
       </c>
       <c r="P22">
-        <v>91</v>
+        <v>10033</v>
       </c>
       <c r="Q22">
-        <v>97</v>
+        <v>11161</v>
       </c>
       <c r="R22">
-        <v>94</v>
+        <v>12201</v>
       </c>
       <c r="S22">
-        <v>97</v>
+        <v>2872</v>
       </c>
       <c r="T22">
-        <v>79</v>
+        <v>24957</v>
       </c>
       <c r="U22">
-        <v>103</v>
+        <v>4350</v>
       </c>
       <c r="V22">
-        <v>99</v>
+        <v>14065</v>
       </c>
       <c r="W22">
-        <v>92</v>
-      </c>
-      <c r="X22">
-        <v>92</v>
-      </c>
-      <c r="Y22">
-        <v>83</v>
-      </c>
-      <c r="Z22">
-        <v>86</v>
-      </c>
-      <c r="AA22">
-        <v>86</v>
-      </c>
-      <c r="AB22">
-        <v>96</v>
-      </c>
-      <c r="AC22">
-        <v>104</v>
-      </c>
-      <c r="AD22">
-        <v>92</v>
-      </c>
-      <c r="AE22">
-        <v>107</v>
+        <v>5547</v>
       </c>
     </row>
     <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="E23">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="F23">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="G23">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="H23">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="I23">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="J23">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="K23">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="N23">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="O23">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="P23">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="R23">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="S23">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="T23">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="U23">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="V23">
-        <v>18</v>
+        <v>350</v>
       </c>
       <c r="W23">
-        <v>16</v>
-      </c>
-      <c r="X23">
-        <v>16</v>
-      </c>
-      <c r="Y23">
-        <v>16</v>
-      </c>
-      <c r="Z23">
-        <v>15</v>
-      </c>
-      <c r="AA23">
-        <v>17</v>
-      </c>
-      <c r="AB23">
-        <v>16</v>
-      </c>
-      <c r="AC23">
-        <v>16</v>
-      </c>
-      <c r="AD23">
-        <v>17</v>
-      </c>
-      <c r="AE23">
-        <v>16</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C24">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="E24">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="F24">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="G24">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H24">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="I24">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="J24">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="K24">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="L24">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M24">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="N24">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="O24">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="P24">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="Q24">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="R24">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="S24">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="T24">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="U24">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="V24">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="W24">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="X24">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="Y24">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="Z24">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="AA24">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="AB24">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="AC24">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="AD24">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="AE24">
-        <v>49</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>1683</v>
+        <v>17</v>
       </c>
       <c r="C25">
-        <v>849</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>768</v>
+        <v>16</v>
       </c>
       <c r="E25">
-        <v>1300</v>
+        <v>16</v>
       </c>
       <c r="F25">
-        <v>492</v>
+        <v>17</v>
       </c>
       <c r="G25">
-        <v>3662</v>
+        <v>16</v>
       </c>
       <c r="H25">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="I25">
-        <v>1448</v>
+        <v>16</v>
       </c>
       <c r="J25">
-        <v>1030</v>
+        <v>16</v>
       </c>
       <c r="K25">
-        <v>1674</v>
+        <v>18</v>
       </c>
       <c r="L25">
-        <v>3094</v>
+        <v>17</v>
       </c>
       <c r="M25">
-        <v>1528</v>
+        <v>17</v>
       </c>
       <c r="N25">
-        <v>1252</v>
+        <v>18</v>
       </c>
       <c r="O25">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="P25">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="Q25">
-        <v>1317</v>
+        <v>15</v>
       </c>
       <c r="R25">
-        <v>676</v>
+        <v>17</v>
       </c>
       <c r="S25">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="T25">
-        <v>721</v>
+        <v>16</v>
       </c>
       <c r="U25">
-        <v>1245</v>
+        <v>17</v>
       </c>
       <c r="V25">
-        <v>954</v>
+        <v>18</v>
       </c>
       <c r="W25">
-        <v>582</v>
+        <v>16</v>
       </c>
       <c r="X25">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="Y25">
-        <v>1859</v>
+        <v>16</v>
       </c>
       <c r="Z25">
-        <v>1105</v>
+        <v>15</v>
       </c>
       <c r="AA25">
-        <v>824</v>
+        <v>17</v>
       </c>
       <c r="AB25">
-        <v>801</v>
+        <v>16</v>
+      </c>
+      <c r="AC25">
+        <v>16</v>
+      </c>
+      <c r="AD25">
+        <v>17</v>
+      </c>
+      <c r="AE25">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="C26">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="D26">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c r="E26">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="F26">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="G26">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="H26">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="I26">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="J26">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="L26">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="M26">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="N26">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="O26">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="P26">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="Q26">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="R26">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="S26">
-        <v>184</v>
+        <v>55</v>
       </c>
       <c r="T26">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="U26">
-        <v>182</v>
+        <v>46</v>
       </c>
       <c r="V26">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="W26">
-        <v>232</v>
+        <v>53</v>
       </c>
       <c r="X26">
-        <v>768</v>
+        <v>44</v>
       </c>
       <c r="Y26">
-        <v>515</v>
+        <v>45</v>
       </c>
       <c r="Z26">
-        <v>3609</v>
+        <v>51</v>
       </c>
       <c r="AA26">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="AB26">
-        <v>167</v>
+        <v>46</v>
       </c>
       <c r="AC26">
-        <v>168</v>
+        <v>49</v>
+      </c>
+      <c r="AD26">
+        <v>54</v>
+      </c>
+      <c r="AE26">
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>485</v>
+        <v>1683</v>
       </c>
       <c r="C27">
-        <v>2949</v>
+        <v>849</v>
       </c>
       <c r="D27">
-        <v>1788</v>
+        <v>768</v>
       </c>
       <c r="E27">
-        <v>4049</v>
+        <v>1300</v>
       </c>
       <c r="F27">
-        <v>4102</v>
+        <v>492</v>
       </c>
       <c r="G27">
-        <v>1806</v>
+        <v>3662</v>
       </c>
       <c r="H27">
-        <v>4853</v>
+        <v>211</v>
       </c>
       <c r="I27">
-        <v>1505</v>
+        <v>1448</v>
       </c>
       <c r="J27">
-        <v>5442</v>
+        <v>1030</v>
       </c>
       <c r="K27">
-        <v>2982</v>
+        <v>1674</v>
       </c>
       <c r="L27">
-        <v>1437</v>
+        <v>3094</v>
       </c>
       <c r="M27">
-        <v>2817</v>
+        <v>1528</v>
       </c>
       <c r="N27">
-        <v>3505</v>
+        <v>1252</v>
       </c>
       <c r="O27">
-        <v>4891</v>
+        <v>204</v>
       </c>
       <c r="P27">
-        <v>3553</v>
+        <v>185</v>
       </c>
       <c r="Q27">
-        <v>76</v>
+        <v>1317</v>
       </c>
       <c r="R27">
-        <v>3281</v>
+        <v>676</v>
       </c>
       <c r="S27">
-        <v>3140</v>
+        <v>246</v>
       </c>
       <c r="T27">
-        <v>1475</v>
+        <v>721</v>
       </c>
       <c r="U27">
-        <v>3410</v>
+        <v>1245</v>
+      </c>
+      <c r="V27">
+        <v>954</v>
+      </c>
+      <c r="W27">
+        <v>582</v>
+      </c>
+      <c r="X27">
+        <v>219</v>
+      </c>
+      <c r="Y27">
+        <v>1859</v>
+      </c>
+      <c r="Z27">
+        <v>1105</v>
+      </c>
+      <c r="AA27">
+        <v>824</v>
+      </c>
+      <c r="AB27">
+        <v>801</v>
       </c>
     </row>
     <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="C28">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="D28">
+        <v>189</v>
+      </c>
+      <c r="E28">
+        <v>186</v>
+      </c>
+      <c r="F28">
+        <v>187</v>
+      </c>
+      <c r="G28">
+        <v>178</v>
+      </c>
+      <c r="H28">
+        <v>170</v>
+      </c>
+      <c r="I28">
+        <v>172</v>
+      </c>
+      <c r="J28">
+        <v>176</v>
+      </c>
+      <c r="K28">
+        <v>197</v>
+      </c>
+      <c r="L28">
+        <v>173</v>
+      </c>
+      <c r="M28">
+        <v>159</v>
+      </c>
+      <c r="N28">
+        <v>167</v>
+      </c>
+      <c r="O28">
+        <v>184</v>
+      </c>
+      <c r="P28">
+        <v>175</v>
+      </c>
+      <c r="Q28">
+        <v>171</v>
+      </c>
+      <c r="R28">
         <v>183</v>
       </c>
-      <c r="E28">
-        <v>116</v>
-      </c>
-      <c r="F28">
-        <v>214</v>
-      </c>
-      <c r="G28">
-        <v>107</v>
-      </c>
-      <c r="H28">
-        <v>114</v>
-      </c>
-      <c r="I28">
-        <v>102</v>
-      </c>
-      <c r="J28">
-        <v>109</v>
-      </c>
-      <c r="K28">
-        <v>191</v>
-      </c>
-      <c r="L28">
-        <v>139</v>
-      </c>
-      <c r="M28">
-        <v>124</v>
-      </c>
-      <c r="N28">
-        <v>102</v>
-      </c>
-      <c r="O28">
-        <v>114</v>
-      </c>
-      <c r="P28">
-        <v>107</v>
-      </c>
-      <c r="Q28">
-        <v>124</v>
-      </c>
-      <c r="R28">
-        <v>115</v>
-      </c>
       <c r="S28">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="T28">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="U28">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="V28">
-        <v>107</v>
+        <v>175</v>
+      </c>
+      <c r="W28">
+        <v>232</v>
+      </c>
+      <c r="X28">
+        <v>768</v>
+      </c>
+      <c r="Y28">
+        <v>515</v>
+      </c>
+      <c r="Z28">
+        <v>3609</v>
+      </c>
+      <c r="AA28">
+        <v>184</v>
+      </c>
+      <c r="AB28">
+        <v>167</v>
+      </c>
+      <c r="AC28">
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>121</v>
+        <v>485</v>
       </c>
       <c r="C29">
-        <v>105</v>
+        <v>2949</v>
       </c>
       <c r="D29">
-        <v>169</v>
+        <v>1788</v>
       </c>
       <c r="E29">
-        <v>131</v>
+        <v>4049</v>
       </c>
       <c r="F29">
-        <v>139</v>
+        <v>4102</v>
       </c>
       <c r="G29">
-        <v>130</v>
+        <v>1806</v>
       </c>
       <c r="H29">
-        <v>143</v>
+        <v>4853</v>
       </c>
       <c r="I29">
-        <v>116</v>
+        <v>1505</v>
       </c>
       <c r="J29">
-        <v>145</v>
+        <v>5442</v>
       </c>
       <c r="K29">
-        <v>139</v>
+        <v>2982</v>
       </c>
       <c r="L29">
-        <v>117</v>
+        <v>1437</v>
       </c>
       <c r="M29">
-        <v>136</v>
+        <v>2817</v>
       </c>
       <c r="N29">
-        <v>119</v>
+        <v>3505</v>
       </c>
       <c r="O29">
-        <v>151</v>
+        <v>4891</v>
+      </c>
+      <c r="P29">
+        <v>3553</v>
+      </c>
+      <c r="Q29">
+        <v>76</v>
+      </c>
+      <c r="R29">
+        <v>3281</v>
+      </c>
+      <c r="S29">
+        <v>3140</v>
+      </c>
+      <c r="T29">
+        <v>1475</v>
+      </c>
+      <c r="U29">
+        <v>3410</v>
       </c>
     </row>
     <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="C30">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="D30">
+        <v>183</v>
+      </c>
+      <c r="E30">
+        <v>116</v>
+      </c>
+      <c r="F30">
+        <v>214</v>
+      </c>
+      <c r="G30">
+        <v>107</v>
+      </c>
+      <c r="H30">
+        <v>114</v>
+      </c>
+      <c r="I30">
+        <v>102</v>
+      </c>
+      <c r="J30">
+        <v>109</v>
+      </c>
+      <c r="K30">
+        <v>191</v>
+      </c>
+      <c r="L30">
+        <v>139</v>
+      </c>
+      <c r="M30">
         <v>124</v>
       </c>
-      <c r="E30">
-        <v>141</v>
-      </c>
-      <c r="F30">
-        <v>136</v>
-      </c>
-      <c r="G30">
-        <v>140</v>
-      </c>
-      <c r="H30">
-        <v>110</v>
-      </c>
-      <c r="I30">
-        <v>128</v>
-      </c>
-      <c r="J30">
-        <v>144</v>
-      </c>
-      <c r="K30">
-        <v>149</v>
-      </c>
-      <c r="L30">
-        <v>125</v>
-      </c>
-      <c r="M30">
-        <v>141</v>
-      </c>
       <c r="N30">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="O30">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P30">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="Q30">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="R30">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="S30">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="T30">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="U30">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="V30">
-        <v>112</v>
-      </c>
-      <c r="W30">
-        <v>133</v>
-      </c>
-      <c r="X30">
-        <v>135</v>
-      </c>
-      <c r="Y30">
-        <v>155</v>
-      </c>
-      <c r="Z30">
-        <v>132</v>
-      </c>
-      <c r="AA30">
-        <v>109</v>
-      </c>
-      <c r="AB30">
-        <v>121</v>
-      </c>
-      <c r="AC30">
-        <v>118</v>
-      </c>
-      <c r="AD30">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>11607</v>
+        <v>121</v>
       </c>
       <c r="C31">
-        <v>7982</v>
+        <v>105</v>
       </c>
       <c r="D31">
-        <v>5688</v>
+        <v>169</v>
       </c>
       <c r="E31">
-        <v>2254</v>
+        <v>131</v>
       </c>
       <c r="F31">
-        <v>5854</v>
+        <v>139</v>
       </c>
       <c r="G31">
-        <v>3540</v>
+        <v>130</v>
       </c>
       <c r="H31">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="I31">
-        <v>11093</v>
+        <v>116</v>
       </c>
       <c r="J31">
-        <v>6962</v>
+        <v>145</v>
       </c>
       <c r="K31">
-        <v>1412</v>
+        <v>139</v>
       </c>
       <c r="L31">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="M31">
-        <v>8251</v>
+        <v>136</v>
       </c>
       <c r="N31">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="O31">
-        <v>5426</v>
-      </c>
-      <c r="P31">
-        <v>2464</v>
-      </c>
-      <c r="Q31">
-        <v>11224</v>
-      </c>
-      <c r="R31">
-        <v>8951</v>
-      </c>
-      <c r="S31">
-        <v>92</v>
-      </c>
-      <c r="T31">
-        <v>80</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>142</v>
+      </c>
+      <c r="C32">
+        <v>132</v>
+      </c>
+      <c r="D32">
+        <v>124</v>
+      </c>
+      <c r="E32">
+        <v>141</v>
+      </c>
+      <c r="F32">
+        <v>136</v>
+      </c>
+      <c r="G32">
+        <v>140</v>
+      </c>
+      <c r="H32">
+        <v>110</v>
+      </c>
+      <c r="I32">
+        <v>128</v>
+      </c>
+      <c r="J32">
+        <v>144</v>
+      </c>
+      <c r="K32">
+        <v>149</v>
+      </c>
+      <c r="L32">
+        <v>125</v>
+      </c>
+      <c r="M32">
+        <v>141</v>
+      </c>
+      <c r="N32">
+        <v>131</v>
+      </c>
+      <c r="O32">
+        <v>133</v>
+      </c>
+      <c r="P32">
+        <v>130</v>
+      </c>
+      <c r="Q32">
+        <v>133</v>
+      </c>
+      <c r="R32">
+        <v>118</v>
+      </c>
+      <c r="S32">
+        <v>137</v>
+      </c>
+      <c r="T32">
+        <v>121</v>
+      </c>
+      <c r="U32">
+        <v>128</v>
+      </c>
+      <c r="V32">
+        <v>112</v>
+      </c>
+      <c r="W32">
+        <v>133</v>
+      </c>
+      <c r="X32">
+        <v>135</v>
+      </c>
+      <c r="Y32">
+        <v>155</v>
+      </c>
+      <c r="Z32">
+        <v>132</v>
+      </c>
+      <c r="AA32">
+        <v>109</v>
+      </c>
+      <c r="AB32">
+        <v>121</v>
+      </c>
+      <c r="AC32">
+        <v>118</v>
+      </c>
+      <c r="AD32">
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:31">
       <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>11607</v>
+      </c>
+      <c r="C33">
+        <v>7982</v>
+      </c>
+      <c r="D33">
+        <v>5688</v>
+      </c>
+      <c r="E33">
+        <v>2254</v>
+      </c>
+      <c r="F33">
+        <v>5854</v>
+      </c>
+      <c r="G33">
+        <v>3540</v>
+      </c>
+      <c r="H33">
+        <v>96</v>
+      </c>
+      <c r="I33">
+        <v>11093</v>
+      </c>
+      <c r="J33">
+        <v>6962</v>
+      </c>
+      <c r="K33">
+        <v>1412</v>
+      </c>
+      <c r="L33">
+        <v>89</v>
+      </c>
+      <c r="M33">
+        <v>8251</v>
+      </c>
+      <c r="N33">
+        <v>98</v>
+      </c>
+      <c r="O33">
+        <v>5426</v>
+      </c>
+      <c r="P33">
+        <v>2464</v>
+      </c>
+      <c r="Q33">
+        <v>11224</v>
+      </c>
+      <c r="R33">
+        <v>8951</v>
+      </c>
+      <c r="S33">
+        <v>92</v>
+      </c>
+      <c r="T33">
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:31">
       <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>73</v>
-      </c>
-      <c r="C34">
-        <v>60</v>
-      </c>
-      <c r="D34">
-        <v>60</v>
-      </c>
-      <c r="E34">
-        <v>73</v>
-      </c>
-      <c r="F34">
-        <v>59</v>
-      </c>
-      <c r="G34">
-        <v>56</v>
-      </c>
-      <c r="H34">
-        <v>86</v>
-      </c>
-      <c r="I34">
-        <v>62</v>
-      </c>
-      <c r="J34">
-        <v>60</v>
-      </c>
-      <c r="K34">
-        <v>75</v>
-      </c>
-      <c r="L34">
-        <v>62</v>
-      </c>
-      <c r="M34">
-        <v>62</v>
-      </c>
-      <c r="N34">
-        <v>56</v>
-      </c>
-      <c r="O34">
-        <v>63</v>
-      </c>
-      <c r="P34">
-        <v>70</v>
-      </c>
-      <c r="Q34">
-        <v>59</v>
-      </c>
-      <c r="R34">
-        <v>726</v>
-      </c>
-      <c r="S34">
-        <v>58</v>
-      </c>
-      <c r="T34">
-        <v>68</v>
-      </c>
-      <c r="U34">
-        <v>56</v>
-      </c>
-      <c r="V34">
-        <v>69</v>
-      </c>
-      <c r="W34">
-        <v>65</v>
-      </c>
-      <c r="X34">
-        <v>63</v>
-      </c>
-      <c r="Y34">
-        <v>62</v>
-      </c>
-      <c r="Z34">
-        <v>63</v>
-      </c>
-      <c r="AA34">
-        <v>69</v>
-      </c>
-      <c r="AB34">
-        <v>67</v>
-      </c>
-      <c r="AC34">
-        <v>61</v>
-      </c>
-      <c r="AD34">
-        <v>78</v>
-      </c>
-      <c r="AE34">
-        <v>68</v>
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:31">
       <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>3057</v>
-      </c>
-      <c r="C35">
-        <v>401</v>
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:31">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>2845</v>
+        <v>73</v>
       </c>
       <c r="C36">
-        <v>2915</v>
+        <v>60</v>
       </c>
       <c r="D36">
-        <v>3389</v>
+        <v>60</v>
+      </c>
+      <c r="E36">
+        <v>73</v>
+      </c>
+      <c r="F36">
+        <v>59</v>
+      </c>
+      <c r="G36">
+        <v>56</v>
+      </c>
+      <c r="H36">
+        <v>86</v>
+      </c>
+      <c r="I36">
+        <v>62</v>
+      </c>
+      <c r="J36">
+        <v>60</v>
+      </c>
+      <c r="K36">
+        <v>75</v>
+      </c>
+      <c r="L36">
+        <v>62</v>
+      </c>
+      <c r="M36">
+        <v>62</v>
+      </c>
+      <c r="N36">
+        <v>56</v>
+      </c>
+      <c r="O36">
+        <v>63</v>
+      </c>
+      <c r="P36">
+        <v>70</v>
+      </c>
+      <c r="Q36">
+        <v>59</v>
+      </c>
+      <c r="R36">
+        <v>726</v>
+      </c>
+      <c r="S36">
+        <v>58</v>
+      </c>
+      <c r="T36">
+        <v>68</v>
+      </c>
+      <c r="U36">
+        <v>56</v>
+      </c>
+      <c r="V36">
+        <v>69</v>
+      </c>
+      <c r="W36">
+        <v>65</v>
+      </c>
+      <c r="X36">
+        <v>63</v>
+      </c>
+      <c r="Y36">
+        <v>62</v>
+      </c>
+      <c r="Z36">
+        <v>63</v>
+      </c>
+      <c r="AA36">
+        <v>69</v>
+      </c>
+      <c r="AB36">
+        <v>67</v>
+      </c>
+      <c r="AC36">
+        <v>61</v>
+      </c>
+      <c r="AD36">
+        <v>78</v>
+      </c>
+      <c r="AE36">
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:31">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>62</v>
+        <v>3057</v>
       </c>
       <c r="C37">
-        <v>62</v>
-      </c>
-      <c r="D37">
-        <v>66</v>
-      </c>
-      <c r="E37">
-        <v>59</v>
-      </c>
-      <c r="F37">
-        <v>65</v>
-      </c>
-      <c r="G37">
-        <v>65</v>
-      </c>
-      <c r="H37">
-        <v>59</v>
-      </c>
-      <c r="I37">
-        <v>62</v>
-      </c>
-      <c r="J37">
-        <v>67</v>
-      </c>
-      <c r="K37">
-        <v>54</v>
-      </c>
-      <c r="L37">
-        <v>61</v>
-      </c>
-      <c r="M37">
-        <v>65</v>
-      </c>
-      <c r="N37">
-        <v>63</v>
-      </c>
-      <c r="O37">
-        <v>69</v>
-      </c>
-      <c r="P37">
-        <v>60</v>
-      </c>
-      <c r="Q37">
-        <v>63</v>
-      </c>
-      <c r="R37">
-        <v>61</v>
-      </c>
-      <c r="S37">
-        <v>58</v>
-      </c>
-      <c r="T37">
-        <v>58</v>
-      </c>
-      <c r="U37">
-        <v>60</v>
-      </c>
-      <c r="V37">
-        <v>58</v>
-      </c>
-      <c r="W37">
-        <v>57</v>
-      </c>
-      <c r="X37">
-        <v>65</v>
-      </c>
-      <c r="Y37">
-        <v>67</v>
-      </c>
-      <c r="Z37">
-        <v>60</v>
-      </c>
-      <c r="AA37">
-        <v>65</v>
-      </c>
-      <c r="AB37">
-        <v>63</v>
-      </c>
-      <c r="AC37">
-        <v>65</v>
-      </c>
-      <c r="AD37">
-        <v>59</v>
-      </c>
-      <c r="AE37">
-        <v>67</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:31">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>63</v>
+        <v>2845</v>
       </c>
       <c r="C38">
-        <v>59</v>
+        <v>2915</v>
       </c>
       <c r="D38">
-        <v>73</v>
-      </c>
-      <c r="E38">
-        <v>74</v>
-      </c>
-      <c r="F38">
-        <v>64</v>
-      </c>
-      <c r="G38">
-        <v>53</v>
-      </c>
-      <c r="H38">
-        <v>77</v>
-      </c>
-      <c r="I38">
-        <v>57</v>
-      </c>
-      <c r="J38">
-        <v>65</v>
-      </c>
-      <c r="K38">
-        <v>55</v>
-      </c>
-      <c r="L38">
-        <v>62</v>
-      </c>
-      <c r="M38">
-        <v>55</v>
-      </c>
-      <c r="N38">
-        <v>74</v>
-      </c>
-      <c r="O38">
-        <v>61</v>
-      </c>
-      <c r="P38">
-        <v>55</v>
-      </c>
-      <c r="Q38">
-        <v>68</v>
-      </c>
-      <c r="R38">
-        <v>75</v>
-      </c>
-      <c r="S38">
-        <v>63</v>
-      </c>
-      <c r="T38">
-        <v>65</v>
-      </c>
-      <c r="U38">
-        <v>54</v>
-      </c>
-      <c r="V38">
-        <v>64</v>
-      </c>
-      <c r="W38">
-        <v>64</v>
-      </c>
-      <c r="X38">
-        <v>59</v>
-      </c>
-      <c r="Y38">
-        <v>65</v>
-      </c>
-      <c r="Z38">
-        <v>57</v>
-      </c>
-      <c r="AA38">
-        <v>56</v>
-      </c>
-      <c r="AB38">
-        <v>64</v>
-      </c>
-      <c r="AC38">
-        <v>60</v>
-      </c>
-      <c r="AD38">
-        <v>60</v>
-      </c>
-      <c r="AE38">
-        <v>58</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="39" spans="1:31">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>511</v>
+        <v>62</v>
       </c>
       <c r="C39">
-        <v>804</v>
+        <v>62</v>
       </c>
       <c r="D39">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E39">
-        <v>863</v>
+        <v>59</v>
       </c>
       <c r="F39">
-        <v>573</v>
+        <v>65</v>
       </c>
       <c r="G39">
-        <v>325</v>
+        <v>65</v>
       </c>
       <c r="H39">
-        <v>870</v>
+        <v>59</v>
       </c>
       <c r="I39">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="J39">
-        <v>741</v>
+        <v>67</v>
       </c>
       <c r="K39">
-        <v>542</v>
+        <v>54</v>
       </c>
       <c r="L39">
-        <v>1296</v>
+        <v>61</v>
       </c>
       <c r="M39">
-        <v>416</v>
+        <v>65</v>
       </c>
       <c r="N39">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="O39">
-        <v>487</v>
+        <v>69</v>
       </c>
       <c r="P39">
-        <v>959</v>
+        <v>60</v>
       </c>
       <c r="Q39">
-        <v>364</v>
+        <v>63</v>
       </c>
       <c r="R39">
-        <v>289</v>
+        <v>61</v>
       </c>
       <c r="S39">
-        <v>401</v>
+        <v>58</v>
       </c>
       <c r="T39">
-        <v>900</v>
+        <v>58</v>
       </c>
       <c r="U39">
-        <v>1086</v>
+        <v>60</v>
       </c>
       <c r="V39">
-        <v>767</v>
+        <v>58</v>
       </c>
       <c r="W39">
-        <v>235</v>
+        <v>57</v>
       </c>
       <c r="X39">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="Y39">
-        <v>309</v>
+        <v>67</v>
       </c>
       <c r="Z39">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="AA39">
-        <v>243</v>
+        <v>65</v>
       </c>
       <c r="AB39">
-        <v>844</v>
+        <v>63</v>
       </c>
       <c r="AC39">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD39">
-        <v>1061</v>
+        <v>59</v>
       </c>
       <c r="AE39">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:31">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C40">
+        <v>59</v>
+      </c>
+      <c r="D40">
+        <v>73</v>
+      </c>
+      <c r="E40">
+        <v>74</v>
+      </c>
+      <c r="F40">
+        <v>64</v>
+      </c>
+      <c r="G40">
+        <v>53</v>
+      </c>
+      <c r="H40">
+        <v>77</v>
+      </c>
+      <c r="I40">
+        <v>57</v>
+      </c>
+      <c r="J40">
+        <v>65</v>
+      </c>
+      <c r="K40">
+        <v>55</v>
+      </c>
+      <c r="L40">
         <v>62</v>
       </c>
-      <c r="D40">
-        <v>50</v>
-      </c>
-      <c r="E40">
-        <v>43</v>
-      </c>
-      <c r="F40">
-        <v>48</v>
-      </c>
-      <c r="G40">
-        <v>50</v>
-      </c>
-      <c r="H40">
-        <v>47</v>
-      </c>
-      <c r="I40">
-        <v>41</v>
-      </c>
-      <c r="J40">
-        <v>85</v>
-      </c>
-      <c r="K40">
-        <v>46</v>
-      </c>
-      <c r="L40">
-        <v>52</v>
-      </c>
       <c r="M40">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="N40">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="O40">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="P40">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Q40">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="R40">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="S40">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="T40">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="U40">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="V40">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="W40">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="X40">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="Y40">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Z40">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="AA40">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AB40">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="AC40">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AD40">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="AE40">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:31">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>154</v>
+        <v>511</v>
       </c>
       <c r="C41">
-        <v>144</v>
+        <v>804</v>
       </c>
       <c r="D41">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="E41">
-        <v>149</v>
+        <v>863</v>
       </c>
       <c r="F41">
-        <v>170</v>
+        <v>573</v>
       </c>
       <c r="G41">
-        <v>133</v>
+        <v>325</v>
       </c>
       <c r="H41">
-        <v>145</v>
+        <v>870</v>
       </c>
       <c r="I41">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J41">
-        <v>152</v>
+        <v>741</v>
       </c>
       <c r="K41">
-        <v>145</v>
+        <v>542</v>
       </c>
       <c r="L41">
-        <v>161</v>
+        <v>1296</v>
       </c>
       <c r="M41">
-        <v>139</v>
+        <v>416</v>
       </c>
       <c r="N41">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="O41">
-        <v>146</v>
+        <v>487</v>
       </c>
       <c r="P41">
-        <v>137</v>
+        <v>959</v>
       </c>
       <c r="Q41">
-        <v>159</v>
+        <v>364</v>
       </c>
       <c r="R41">
-        <v>146</v>
+        <v>289</v>
       </c>
       <c r="S41">
-        <v>124</v>
+        <v>401</v>
       </c>
       <c r="T41">
-        <v>141</v>
+        <v>900</v>
       </c>
       <c r="U41">
-        <v>137</v>
+        <v>1086</v>
       </c>
       <c r="V41">
-        <v>134</v>
+        <v>767</v>
       </c>
       <c r="W41">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="X41">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="Y41">
-        <v>150</v>
+        <v>309</v>
       </c>
       <c r="Z41">
-        <v>128</v>
+        <v>317</v>
       </c>
       <c r="AA41">
-        <v>160</v>
+        <v>243</v>
       </c>
       <c r="AB41">
-        <v>137</v>
+        <v>844</v>
       </c>
       <c r="AC41">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="AD41">
-        <v>145</v>
+        <v>1061</v>
+      </c>
+      <c r="AE41">
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:31">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>14890</v>
+        <v>48</v>
       </c>
       <c r="C42">
-        <v>201</v>
+        <v>62</v>
       </c>
       <c r="D42">
-        <v>14593</v>
+        <v>50</v>
       </c>
       <c r="E42">
-        <v>4090</v>
+        <v>43</v>
       </c>
       <c r="F42">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G42">
-        <v>7265</v>
+        <v>50</v>
       </c>
       <c r="H42">
-        <v>35723</v>
+        <v>47</v>
       </c>
       <c r="I42">
-        <v>5523</v>
+        <v>41</v>
       </c>
       <c r="J42">
-        <v>6404</v>
+        <v>85</v>
       </c>
       <c r="K42">
-        <v>6519</v>
+        <v>46</v>
       </c>
       <c r="L42">
-        <v>17380</v>
+        <v>52</v>
       </c>
       <c r="M42">
-        <v>30233</v>
+        <v>46</v>
       </c>
       <c r="N42">
         <v>53</v>
       </c>
       <c r="O42">
+        <v>46</v>
+      </c>
+      <c r="P42">
+        <v>50</v>
+      </c>
+      <c r="Q42">
+        <v>47</v>
+      </c>
+      <c r="R42">
+        <v>51</v>
+      </c>
+      <c r="S42">
+        <v>47</v>
+      </c>
+      <c r="T42">
+        <v>50</v>
+      </c>
+      <c r="U42">
+        <v>43</v>
+      </c>
+      <c r="V42">
+        <v>51</v>
+      </c>
+      <c r="W42">
+        <v>50</v>
+      </c>
+      <c r="X42">
+        <v>47</v>
+      </c>
+      <c r="Y42">
+        <v>50</v>
+      </c>
+      <c r="Z42">
+        <v>44</v>
+      </c>
+      <c r="AA42">
+        <v>59</v>
+      </c>
+      <c r="AB42">
+        <v>46</v>
+      </c>
+      <c r="AC42">
+        <v>50</v>
+      </c>
+      <c r="AD42">
         <v>53</v>
       </c>
-      <c r="P42">
-        <v>2665</v>
-      </c>
-      <c r="Q42">
-        <v>8156</v>
-      </c>
-      <c r="R42">
-        <v>12265</v>
-      </c>
-      <c r="S42">
-        <v>9723</v>
-      </c>
-      <c r="T42">
-        <v>30155</v>
-      </c>
-      <c r="U42">
-        <v>11378</v>
-      </c>
-      <c r="V42">
-        <v>10458</v>
-      </c>
-      <c r="W42">
-        <v>19236</v>
-      </c>
-      <c r="X42">
-        <v>18880</v>
+      <c r="AE42">
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:31">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="C43">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="D43">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="E43">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="F43">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="G43">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="H43">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="I43">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="J43">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="K43">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="L43">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="M43">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="N43">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="O43">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="P43">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="Q43">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="R43">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="S43">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="T43">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="U43">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="V43">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="W43">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="X43">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="Y43">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="Z43">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="AA43">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="AB43">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="AC43">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="AD43">
-        <v>96</v>
-      </c>
-      <c r="AE43">
-        <v>101</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:31">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>82</v>
+        <v>14890</v>
       </c>
       <c r="C44">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="D44">
-        <v>80</v>
+        <v>14593</v>
       </c>
       <c r="E44">
-        <v>242</v>
+        <v>4090</v>
       </c>
       <c r="F44">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="G44">
-        <v>79</v>
+        <v>7265</v>
       </c>
       <c r="H44">
-        <v>77</v>
+        <v>35723</v>
       </c>
       <c r="I44">
-        <v>73</v>
+        <v>5523</v>
       </c>
       <c r="J44">
-        <v>84</v>
+        <v>6404</v>
       </c>
       <c r="K44">
-        <v>85</v>
+        <v>6519</v>
       </c>
       <c r="L44">
-        <v>102</v>
+        <v>17380</v>
       </c>
       <c r="M44">
-        <v>112</v>
+        <v>30233</v>
       </c>
       <c r="N44">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="O44">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="P44">
-        <v>90</v>
+        <v>2665</v>
       </c>
       <c r="Q44">
-        <v>91</v>
+        <v>8156</v>
       </c>
       <c r="R44">
-        <v>98</v>
+        <v>12265</v>
       </c>
       <c r="S44">
-        <v>81</v>
+        <v>9723</v>
       </c>
       <c r="T44">
-        <v>94</v>
+        <v>30155</v>
       </c>
       <c r="U44">
-        <v>86</v>
+        <v>11378</v>
       </c>
       <c r="V44">
-        <v>106</v>
+        <v>10458</v>
       </c>
       <c r="W44">
-        <v>92</v>
+        <v>19236</v>
       </c>
       <c r="X44">
-        <v>85</v>
-      </c>
-      <c r="Y44">
-        <v>99</v>
-      </c>
-      <c r="Z44">
-        <v>101</v>
-      </c>
-      <c r="AA44">
-        <v>134</v>
-      </c>
-      <c r="AB44">
-        <v>139</v>
-      </c>
-      <c r="AC44">
-        <v>81</v>
-      </c>
-      <c r="AD44">
-        <v>582</v>
+        <v>18880</v>
       </c>
     </row>
     <row r="45" spans="1:31">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C45">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D45">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E45">
         <v>93</v>
       </c>
       <c r="F45">
+        <v>114</v>
+      </c>
+      <c r="G45">
+        <v>99</v>
+      </c>
+      <c r="H45">
+        <v>92</v>
+      </c>
+      <c r="I45">
+        <v>100</v>
+      </c>
+      <c r="J45">
+        <v>93</v>
+      </c>
+      <c r="K45">
+        <v>111</v>
+      </c>
+      <c r="L45">
+        <v>99</v>
+      </c>
+      <c r="M45">
+        <v>90</v>
+      </c>
+      <c r="N45">
+        <v>98</v>
+      </c>
+      <c r="O45">
+        <v>97</v>
+      </c>
+      <c r="P45">
+        <v>112</v>
+      </c>
+      <c r="Q45">
+        <v>105</v>
+      </c>
+      <c r="R45">
+        <v>93</v>
+      </c>
+      <c r="S45">
+        <v>97</v>
+      </c>
+      <c r="T45">
+        <v>99</v>
+      </c>
+      <c r="U45">
+        <v>95</v>
+      </c>
+      <c r="V45">
+        <v>102</v>
+      </c>
+      <c r="W45">
+        <v>115</v>
+      </c>
+      <c r="X45">
         <v>91</v>
       </c>
-      <c r="G45">
-        <v>85</v>
-      </c>
-      <c r="H45">
-        <v>85</v>
-      </c>
-      <c r="I45">
-        <v>97</v>
-      </c>
-      <c r="J45">
-        <v>77</v>
-      </c>
-      <c r="K45">
-        <v>85</v>
-      </c>
-      <c r="L45">
+      <c r="Y45">
+        <v>94</v>
+      </c>
+      <c r="Z45">
         <v>96</v>
       </c>
-      <c r="M45">
-        <v>98</v>
-      </c>
-      <c r="N45">
-        <v>82</v>
-      </c>
-      <c r="O45">
-        <v>80</v>
-      </c>
-      <c r="P45">
-        <v>89</v>
-      </c>
-      <c r="Q45">
-        <v>89</v>
-      </c>
-      <c r="R45">
-        <v>94</v>
-      </c>
-      <c r="S45">
-        <v>85</v>
-      </c>
-      <c r="T45">
-        <v>91</v>
-      </c>
-      <c r="U45">
-        <v>92</v>
-      </c>
-      <c r="V45">
-        <v>94</v>
-      </c>
-      <c r="W45">
-        <v>112</v>
-      </c>
-      <c r="X45">
-        <v>89</v>
-      </c>
-      <c r="Y45">
-        <v>87</v>
-      </c>
-      <c r="Z45">
-        <v>116</v>
-      </c>
       <c r="AA45">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AB45">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="AC45">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="AD45">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AE45">
         <v>101</v>
@@ -4411,1674 +4400,1690 @@
     </row>
     <row r="46" spans="1:31">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>262</v>
+        <v>82</v>
       </c>
       <c r="C46">
-        <v>233</v>
+        <v>88</v>
       </c>
       <c r="D46">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="E46">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="F46">
-        <v>259</v>
+        <v>89</v>
       </c>
       <c r="G46">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="H46">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="I46">
-        <v>902</v>
+        <v>73</v>
       </c>
       <c r="J46">
-        <v>235</v>
+        <v>84</v>
       </c>
       <c r="K46">
-        <v>244</v>
+        <v>85</v>
       </c>
       <c r="L46">
-        <v>261</v>
+        <v>102</v>
       </c>
       <c r="M46">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c r="N46">
-        <v>277</v>
+        <v>112</v>
       </c>
       <c r="O46">
-        <v>240</v>
+        <v>89</v>
       </c>
       <c r="P46">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="Q46">
-        <v>246</v>
+        <v>91</v>
       </c>
       <c r="R46">
-        <v>245</v>
+        <v>98</v>
       </c>
       <c r="S46">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="T46">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="U46">
-        <v>277</v>
+        <v>86</v>
       </c>
       <c r="V46">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="W46">
-        <v>271</v>
+        <v>92</v>
       </c>
       <c r="X46">
-        <v>249</v>
+        <v>85</v>
       </c>
       <c r="Y46">
-        <v>296</v>
+        <v>99</v>
       </c>
       <c r="Z46">
-        <v>290</v>
+        <v>101</v>
       </c>
       <c r="AA46">
-        <v>281</v>
+        <v>134</v>
       </c>
       <c r="AB46">
-        <v>266</v>
+        <v>139</v>
+      </c>
+      <c r="AC46">
+        <v>81</v>
+      </c>
+      <c r="AD46">
+        <v>582</v>
       </c>
     </row>
     <row r="47" spans="1:31">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>2963</v>
+        <v>86</v>
+      </c>
+      <c r="C47">
+        <v>79</v>
+      </c>
+      <c r="D47">
+        <v>81</v>
+      </c>
+      <c r="E47">
+        <v>93</v>
+      </c>
+      <c r="F47">
+        <v>91</v>
+      </c>
+      <c r="G47">
+        <v>85</v>
+      </c>
+      <c r="H47">
+        <v>85</v>
+      </c>
+      <c r="I47">
+        <v>97</v>
+      </c>
+      <c r="J47">
+        <v>77</v>
+      </c>
+      <c r="K47">
+        <v>85</v>
+      </c>
+      <c r="L47">
+        <v>96</v>
+      </c>
+      <c r="M47">
+        <v>98</v>
+      </c>
+      <c r="N47">
+        <v>82</v>
+      </c>
+      <c r="O47">
+        <v>80</v>
+      </c>
+      <c r="P47">
+        <v>89</v>
+      </c>
+      <c r="Q47">
+        <v>89</v>
+      </c>
+      <c r="R47">
+        <v>94</v>
+      </c>
+      <c r="S47">
+        <v>85</v>
+      </c>
+      <c r="T47">
+        <v>91</v>
+      </c>
+      <c r="U47">
+        <v>92</v>
+      </c>
+      <c r="V47">
+        <v>94</v>
+      </c>
+      <c r="W47">
+        <v>112</v>
+      </c>
+      <c r="X47">
+        <v>89</v>
+      </c>
+      <c r="Y47">
+        <v>87</v>
+      </c>
+      <c r="Z47">
+        <v>116</v>
+      </c>
+      <c r="AA47">
+        <v>93</v>
+      </c>
+      <c r="AB47">
+        <v>89</v>
+      </c>
+      <c r="AC47">
+        <v>85</v>
+      </c>
+      <c r="AD47">
+        <v>91</v>
+      </c>
+      <c r="AE47">
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:31">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>105</v>
+        <v>262</v>
       </c>
       <c r="C48">
-        <v>91</v>
+        <v>233</v>
       </c>
       <c r="D48">
-        <v>96</v>
+        <v>230</v>
       </c>
       <c r="E48">
-        <v>87</v>
+        <v>226</v>
       </c>
       <c r="F48">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="G48">
-        <v>95</v>
+        <v>248</v>
       </c>
       <c r="H48">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="I48">
-        <v>97</v>
+        <v>902</v>
       </c>
       <c r="J48">
-        <v>97</v>
+        <v>235</v>
       </c>
       <c r="K48">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="L48">
-        <v>100</v>
+        <v>261</v>
       </c>
       <c r="M48">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="N48">
-        <v>102</v>
+        <v>277</v>
       </c>
       <c r="O48">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="P48">
-        <v>146</v>
+        <v>260</v>
       </c>
       <c r="Q48">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="R48">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="S48">
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="T48">
-        <v>94</v>
+        <v>235</v>
       </c>
       <c r="U48">
-        <v>89</v>
+        <v>277</v>
       </c>
       <c r="V48">
-        <v>96</v>
+        <v>231</v>
       </c>
       <c r="W48">
-        <v>100</v>
+        <v>271</v>
       </c>
       <c r="X48">
-        <v>87</v>
+        <v>249</v>
       </c>
       <c r="Y48">
-        <v>106</v>
+        <v>296</v>
       </c>
       <c r="Z48">
-        <v>94</v>
+        <v>290</v>
       </c>
       <c r="AA48">
-        <v>114</v>
+        <v>281</v>
       </c>
       <c r="AB48">
-        <v>93</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:31">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>76</v>
-      </c>
-      <c r="C49">
-        <v>48</v>
-      </c>
-      <c r="D49">
-        <v>47</v>
-      </c>
-      <c r="E49">
-        <v>68</v>
-      </c>
-      <c r="F49">
-        <v>47</v>
-      </c>
-      <c r="G49">
-        <v>58</v>
-      </c>
-      <c r="H49">
-        <v>51</v>
-      </c>
-      <c r="I49">
-        <v>44</v>
-      </c>
-      <c r="J49">
-        <v>51</v>
-      </c>
-      <c r="K49">
-        <v>48</v>
-      </c>
-      <c r="L49">
-        <v>59</v>
-      </c>
-      <c r="M49">
-        <v>45</v>
-      </c>
-      <c r="N49">
-        <v>54</v>
-      </c>
-      <c r="O49">
-        <v>53</v>
-      </c>
-      <c r="P49">
-        <v>54</v>
-      </c>
-      <c r="Q49">
-        <v>94</v>
-      </c>
-      <c r="R49">
-        <v>54</v>
-      </c>
-      <c r="S49">
-        <v>63</v>
-      </c>
-      <c r="T49">
-        <v>52</v>
-      </c>
-      <c r="U49">
-        <v>59</v>
-      </c>
-      <c r="V49">
-        <v>51</v>
-      </c>
-      <c r="W49">
-        <v>55</v>
-      </c>
-      <c r="X49">
-        <v>50</v>
-      </c>
-      <c r="Y49">
-        <v>59</v>
-      </c>
-      <c r="Z49">
-        <v>42</v>
-      </c>
-      <c r="AA49">
-        <v>51</v>
-      </c>
-      <c r="AB49">
-        <v>49</v>
-      </c>
-      <c r="AC49">
-        <v>51</v>
-      </c>
-      <c r="AD49">
-        <v>55</v>
-      </c>
-      <c r="AE49">
-        <v>46</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="50" spans="1:31">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>2658</v>
+        <v>105</v>
       </c>
       <c r="C50">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D50">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="E50">
-        <v>274</v>
+        <v>87</v>
       </c>
       <c r="F50">
-        <v>302</v>
+        <v>96</v>
       </c>
       <c r="G50">
-        <v>1639</v>
+        <v>95</v>
       </c>
       <c r="H50">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="I50">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J50">
-        <v>368</v>
+        <v>97</v>
       </c>
       <c r="K50">
-        <v>2485</v>
+        <v>85</v>
       </c>
       <c r="L50">
-        <v>120</v>
+        <v>100</v>
+      </c>
+      <c r="M50">
+        <v>102</v>
+      </c>
+      <c r="N50">
+        <v>102</v>
+      </c>
+      <c r="O50">
+        <v>96</v>
+      </c>
+      <c r="P50">
+        <v>146</v>
+      </c>
+      <c r="Q50">
+        <v>90</v>
+      </c>
+      <c r="R50">
+        <v>95</v>
+      </c>
+      <c r="S50">
+        <v>105</v>
+      </c>
+      <c r="T50">
+        <v>94</v>
+      </c>
+      <c r="U50">
+        <v>89</v>
+      </c>
+      <c r="V50">
+        <v>96</v>
+      </c>
+      <c r="W50">
+        <v>100</v>
+      </c>
+      <c r="X50">
+        <v>87</v>
+      </c>
+      <c r="Y50">
+        <v>106</v>
+      </c>
+      <c r="Z50">
+        <v>94</v>
+      </c>
+      <c r="AA50">
+        <v>114</v>
+      </c>
+      <c r="AB50">
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:31">
       <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>48</v>
+      </c>
+      <c r="D51">
+        <v>47</v>
+      </c>
+      <c r="E51">
+        <v>68</v>
+      </c>
+      <c r="F51">
+        <v>47</v>
+      </c>
+      <c r="G51">
+        <v>58</v>
+      </c>
+      <c r="H51">
         <v>51</v>
       </c>
-      <c r="B51">
-        <v>156</v>
-      </c>
-      <c r="C51">
-        <v>145</v>
-      </c>
-      <c r="D51">
-        <v>159</v>
-      </c>
-      <c r="E51">
-        <v>138</v>
-      </c>
-      <c r="F51">
-        <v>137</v>
-      </c>
-      <c r="G51">
-        <v>142</v>
-      </c>
-      <c r="H51">
-        <v>141</v>
-      </c>
       <c r="I51">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="J51">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="K51">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="L51">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="M51">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="N51">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c r="O51">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="P51">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="Q51">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="R51">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="S51">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="T51">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c r="U51">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="V51">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="W51">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="X51">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="Y51">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="Z51">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="AA51">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="AB51">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="AC51">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="AD51">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="AE51">
-        <v>137</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:31">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>947</v>
+        <v>2658</v>
       </c>
       <c r="C52">
-        <v>280</v>
+        <v>104</v>
       </c>
       <c r="D52">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="E52">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="F52">
-        <v>105</v>
+        <v>302</v>
       </c>
       <c r="G52">
-        <v>211</v>
+        <v>1639</v>
       </c>
       <c r="H52">
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="I52">
-        <v>1788</v>
+        <v>108</v>
       </c>
       <c r="J52">
-        <v>270</v>
+        <v>368</v>
       </c>
       <c r="K52">
-        <v>2363</v>
+        <v>2485</v>
       </c>
       <c r="L52">
-        <v>236</v>
-      </c>
-      <c r="M52">
-        <v>126</v>
-      </c>
-      <c r="N52">
-        <v>1343</v>
-      </c>
-      <c r="O52">
-        <v>1244</v>
-      </c>
-      <c r="P52">
-        <v>643</v>
-      </c>
-      <c r="Q52">
-        <v>111</v>
-      </c>
-      <c r="R52">
-        <v>359</v>
-      </c>
-      <c r="S52">
-        <v>217</v>
-      </c>
-      <c r="T52">
-        <v>364</v>
-      </c>
-      <c r="U52">
-        <v>517</v>
-      </c>
-      <c r="V52">
-        <v>1109</v>
-      </c>
-      <c r="W52">
-        <v>412</v>
-      </c>
-      <c r="X52">
-        <v>272</v>
-      </c>
-      <c r="Y52">
-        <v>98</v>
-      </c>
-      <c r="Z52">
-        <v>302</v>
-      </c>
-      <c r="AA52">
-        <v>377</v>
-      </c>
-      <c r="AB52">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:31">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C53">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="D53">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="E53">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="F53">
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="G53">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="H53">
-        <v>340</v>
+        <v>141</v>
       </c>
       <c r="I53">
-        <v>1297</v>
+        <v>137</v>
       </c>
       <c r="J53">
-        <v>653</v>
+        <v>136</v>
+      </c>
+      <c r="K53">
+        <v>141</v>
+      </c>
+      <c r="L53">
+        <v>130</v>
+      </c>
+      <c r="M53">
+        <v>137</v>
+      </c>
+      <c r="N53">
+        <v>164</v>
+      </c>
+      <c r="O53">
+        <v>158</v>
+      </c>
+      <c r="P53">
+        <v>146</v>
+      </c>
+      <c r="Q53">
+        <v>137</v>
+      </c>
+      <c r="R53">
+        <v>143</v>
+      </c>
+      <c r="S53">
+        <v>133</v>
+      </c>
+      <c r="T53">
+        <v>173</v>
+      </c>
+      <c r="U53">
+        <v>161</v>
+      </c>
+      <c r="V53">
+        <v>139</v>
+      </c>
+      <c r="W53">
+        <v>149</v>
+      </c>
+      <c r="X53">
+        <v>149</v>
+      </c>
+      <c r="Y53">
+        <v>146</v>
+      </c>
+      <c r="Z53">
+        <v>155</v>
+      </c>
+      <c r="AA53">
+        <v>151</v>
+      </c>
+      <c r="AB53">
+        <v>139</v>
+      </c>
+      <c r="AC53">
+        <v>141</v>
+      </c>
+      <c r="AD53">
+        <v>145</v>
+      </c>
+      <c r="AE53">
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:31">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>78</v>
+        <v>947</v>
       </c>
       <c r="C54">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="D54">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="E54">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="F54">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="G54">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="H54">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="I54">
-        <v>71</v>
+        <v>1788</v>
       </c>
       <c r="J54">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="K54">
-        <v>69</v>
+        <v>2363</v>
       </c>
       <c r="L54">
-        <v>71</v>
+        <v>236</v>
       </c>
       <c r="M54">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="N54">
-        <v>75</v>
+        <v>1343</v>
       </c>
       <c r="O54">
-        <v>80</v>
+        <v>1244</v>
       </c>
       <c r="P54">
-        <v>75</v>
+        <v>643</v>
       </c>
       <c r="Q54">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="R54">
-        <v>69</v>
+        <v>359</v>
       </c>
       <c r="S54">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c r="T54">
-        <v>70</v>
+        <v>364</v>
       </c>
       <c r="U54">
-        <v>74</v>
+        <v>517</v>
       </c>
       <c r="V54">
-        <v>75</v>
+        <v>1109</v>
       </c>
       <c r="W54">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="X54">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="Y54">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="Z54">
-        <v>75</v>
+        <v>302</v>
       </c>
       <c r="AA54">
-        <v>76</v>
+        <v>377</v>
       </c>
       <c r="AB54">
-        <v>71</v>
-      </c>
-      <c r="AC54">
-        <v>76</v>
-      </c>
-      <c r="AD54">
-        <v>76</v>
-      </c>
-      <c r="AE54">
-        <v>72</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:31">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="C55">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="D55">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="E55">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="F55">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="G55">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="H55">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="I55">
-        <v>175</v>
+        <v>1297</v>
       </c>
       <c r="J55">
-        <v>175</v>
-      </c>
-      <c r="K55">
-        <v>170</v>
-      </c>
-      <c r="L55">
-        <v>175</v>
-      </c>
-      <c r="M55">
-        <v>213</v>
-      </c>
-      <c r="N55">
-        <v>196</v>
-      </c>
-      <c r="O55">
-        <v>217</v>
-      </c>
-      <c r="P55">
-        <v>190</v>
-      </c>
-      <c r="Q55">
-        <v>200</v>
-      </c>
-      <c r="R55">
-        <v>183</v>
-      </c>
-      <c r="S55">
-        <v>168</v>
-      </c>
-      <c r="T55">
-        <v>170</v>
-      </c>
-      <c r="U55">
-        <v>192</v>
-      </c>
-      <c r="V55">
-        <v>185</v>
-      </c>
-      <c r="W55">
-        <v>172</v>
-      </c>
-      <c r="X55">
-        <v>175</v>
-      </c>
-      <c r="Y55">
-        <v>169</v>
-      </c>
-      <c r="Z55">
-        <v>189</v>
-      </c>
-      <c r="AA55">
-        <v>185</v>
-      </c>
-      <c r="AB55">
-        <v>225</v>
-      </c>
-      <c r="AC55">
-        <v>208</v>
-      </c>
-      <c r="AD55">
-        <v>169</v>
-      </c>
-      <c r="AE55">
-        <v>216</v>
+        <v>653</v>
       </c>
     </row>
     <row r="56" spans="1:31">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="C56">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="D56">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="E56">
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="F56">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="G56">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="H56">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="I56">
-        <v>218</v>
+        <v>71</v>
       </c>
       <c r="J56">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="K56">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="L56">
-        <v>238</v>
+        <v>71</v>
       </c>
       <c r="M56">
-        <v>286</v>
+        <v>73</v>
       </c>
       <c r="N56">
-        <v>243</v>
+        <v>75</v>
       </c>
       <c r="O56">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="P56">
-        <v>256</v>
+        <v>75</v>
       </c>
       <c r="Q56">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="R56">
-        <v>205</v>
+        <v>69</v>
       </c>
       <c r="S56">
-        <v>212</v>
+        <v>73</v>
       </c>
       <c r="T56">
-        <v>227</v>
+        <v>70</v>
       </c>
       <c r="U56">
-        <v>240</v>
+        <v>74</v>
       </c>
       <c r="V56">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="W56">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="X56">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="Y56">
-        <v>231</v>
+        <v>70</v>
       </c>
       <c r="Z56">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="AA56">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="AB56">
-        <v>241</v>
+        <v>71</v>
+      </c>
+      <c r="AC56">
+        <v>76</v>
+      </c>
+      <c r="AD56">
+        <v>76</v>
+      </c>
+      <c r="AE56">
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:31">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="C57">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="D57">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="E57">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="F57">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="G57">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="H57">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="I57">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="J57">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="K57">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="L57">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="M57">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="N57">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="O57">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="P57">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="Q57">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="R57">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="S57">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="T57">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="U57">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="V57">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="W57">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="X57">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="Y57">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="Z57">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="AA57">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="AB57">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="AC57">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="AD57">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="AE57">
-        <v>18</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:31">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="C58">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="D58">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="E58">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="F58">
-        <v>114</v>
+        <v>232</v>
       </c>
       <c r="G58">
-        <v>116</v>
+        <v>241</v>
       </c>
       <c r="H58">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c r="I58">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="J58">
-        <v>124</v>
+        <v>225</v>
       </c>
       <c r="K58">
-        <v>106</v>
+        <v>243</v>
       </c>
       <c r="L58">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="M58">
-        <v>106</v>
+        <v>286</v>
       </c>
       <c r="N58">
-        <v>106</v>
+        <v>243</v>
       </c>
       <c r="O58">
-        <v>101</v>
+        <v>295</v>
       </c>
       <c r="P58">
-        <v>116</v>
+        <v>256</v>
       </c>
       <c r="Q58">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="R58">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="S58">
-        <v>111</v>
+        <v>212</v>
       </c>
       <c r="T58">
-        <v>108</v>
+        <v>227</v>
       </c>
       <c r="U58">
-        <v>113</v>
+        <v>240</v>
       </c>
       <c r="V58">
-        <v>101</v>
+        <v>222</v>
       </c>
       <c r="W58">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="X58">
-        <v>93</v>
+        <v>246</v>
       </c>
       <c r="Y58">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="Z58">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="AA58">
-        <v>109</v>
+        <v>225</v>
+      </c>
+      <c r="AB58">
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:31">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="D59">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E59">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F59">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="G59">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H59">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I59">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J59">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="K59">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="L59">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="M59">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="N59">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="O59">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="P59">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="Q59">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="R59">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="S59">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="T59">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="U59">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="V59">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="W59">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="X59">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="Y59">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="Z59">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="AA59">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="AB59">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="AC59">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="AD59">
-        <v>47</v>
+        <v>17</v>
+      </c>
+      <c r="AE59">
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:31">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="C60">
-        <v>309</v>
+        <v>106</v>
       </c>
       <c r="D60">
-        <v>210</v>
+        <v>106</v>
       </c>
       <c r="E60">
-        <v>338</v>
+        <v>106</v>
       </c>
       <c r="F60">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="G60">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="H60">
-        <v>371</v>
+        <v>116</v>
       </c>
       <c r="I60">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="J60">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="K60">
-        <v>256</v>
+        <v>106</v>
       </c>
       <c r="L60">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="M60">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="N60">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="O60">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="P60">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="Q60">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="R60">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="S60">
-        <v>3363</v>
+        <v>111</v>
       </c>
       <c r="T60">
-        <v>240</v>
+        <v>108</v>
       </c>
       <c r="U60">
-        <v>341</v>
+        <v>113</v>
       </c>
       <c r="V60">
-        <v>236</v>
+        <v>101</v>
       </c>
       <c r="W60">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="X60">
-        <v>983</v>
+        <v>93</v>
       </c>
       <c r="Y60">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="Z60">
-        <v>228</v>
+        <v>102</v>
+      </c>
+      <c r="AA60">
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:31">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="C61">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="D61">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="E61">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="F61">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="G61">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="H61">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="I61">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="J61">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="L61">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="M61">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="N61">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="O61">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="P61">
+        <v>42</v>
+      </c>
+      <c r="Q61">
+        <v>38</v>
+      </c>
+      <c r="R61">
+        <v>47</v>
+      </c>
+      <c r="S61">
+        <v>53</v>
+      </c>
+      <c r="T61">
+        <v>44</v>
+      </c>
+      <c r="U61">
+        <v>45</v>
+      </c>
+      <c r="V61">
+        <v>43</v>
+      </c>
+      <c r="W61">
+        <v>42</v>
+      </c>
+      <c r="X61">
+        <v>47</v>
+      </c>
+      <c r="Y61">
+        <v>158</v>
+      </c>
+      <c r="Z61">
         <v>128</v>
       </c>
-      <c r="Q61">
-        <v>135</v>
-      </c>
-      <c r="R61">
-        <v>141</v>
-      </c>
-      <c r="S61">
-        <v>143</v>
-      </c>
-      <c r="T61">
-        <v>126</v>
-      </c>
-      <c r="U61">
-        <v>113</v>
-      </c>
-      <c r="V61">
-        <v>132</v>
-      </c>
-      <c r="W61">
-        <v>159</v>
-      </c>
-      <c r="X61">
-        <v>189</v>
-      </c>
-      <c r="Y61">
-        <v>149</v>
-      </c>
-      <c r="Z61">
-        <v>125</v>
+      <c r="AA61">
+        <v>74</v>
+      </c>
+      <c r="AB61">
+        <v>43</v>
+      </c>
+      <c r="AC61">
+        <v>58</v>
+      </c>
+      <c r="AD61">
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:31">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>116</v>
+        <v>214</v>
       </c>
       <c r="C62">
-        <v>118</v>
+        <v>309</v>
       </c>
       <c r="D62">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="E62">
-        <v>141</v>
+        <v>338</v>
       </c>
       <c r="F62">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="G62">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="H62">
-        <v>108</v>
+        <v>371</v>
       </c>
       <c r="I62">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="J62">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="K62">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="L62">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="M62">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="N62">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="O62">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="P62">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="Q62">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="R62">
-        <v>130</v>
+        <v>208</v>
       </c>
       <c r="S62">
-        <v>136</v>
+        <v>3363</v>
       </c>
       <c r="T62">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="U62">
-        <v>117</v>
+        <v>341</v>
       </c>
       <c r="V62">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c r="W62">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="X62">
-        <v>129</v>
+        <v>983</v>
       </c>
       <c r="Y62">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="Z62">
-        <v>127</v>
-      </c>
-      <c r="AA62">
-        <v>116</v>
-      </c>
-      <c r="AB62">
-        <v>107</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:31">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="C63">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="D63">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E63">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="F63">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G63">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="H63">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="I63">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="J63">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="K63">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="L63">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="M63">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="N63">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="O63">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="P63">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="Q63">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="R63">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="S63">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="T63">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="U63">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="V63">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="W63">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="X63">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="Y63">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="Z63">
-        <v>98</v>
-      </c>
-      <c r="AA63">
-        <v>92</v>
-      </c>
-      <c r="AB63">
-        <v>93</v>
-      </c>
-      <c r="AC63">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:31">
       <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>116</v>
+      </c>
+      <c r="C64">
+        <v>118</v>
+      </c>
+      <c r="D64">
+        <v>106</v>
+      </c>
+      <c r="E64">
+        <v>141</v>
+      </c>
+      <c r="F64">
+        <v>113</v>
+      </c>
+      <c r="G64">
+        <v>130</v>
+      </c>
+      <c r="H64">
+        <v>108</v>
+      </c>
+      <c r="I64">
+        <v>133</v>
+      </c>
+      <c r="J64">
+        <v>120</v>
+      </c>
+      <c r="K64">
+        <v>134</v>
+      </c>
+      <c r="L64">
+        <v>110</v>
+      </c>
+      <c r="M64">
+        <v>115</v>
+      </c>
+      <c r="N64">
+        <v>103</v>
+      </c>
+      <c r="O64">
+        <v>131</v>
+      </c>
+      <c r="P64">
+        <v>105</v>
+      </c>
+      <c r="Q64">
+        <v>109</v>
+      </c>
+      <c r="R64">
+        <v>130</v>
+      </c>
+      <c r="S64">
+        <v>136</v>
+      </c>
+      <c r="T64">
+        <v>135</v>
+      </c>
+      <c r="U64">
+        <v>117</v>
+      </c>
+      <c r="V64">
+        <v>114</v>
+      </c>
+      <c r="W64">
+        <v>116</v>
+      </c>
+      <c r="X64">
+        <v>129</v>
+      </c>
+      <c r="Y64">
+        <v>123</v>
+      </c>
+      <c r="Z64">
+        <v>127</v>
+      </c>
+      <c r="AA64">
+        <v>116</v>
+      </c>
+      <c r="AB64">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>110</v>
+      </c>
+      <c r="C65">
+        <v>104</v>
+      </c>
+      <c r="D65">
+        <v>139</v>
+      </c>
+      <c r="E65">
+        <v>99</v>
+      </c>
+      <c r="F65">
+        <v>98</v>
+      </c>
+      <c r="G65">
+        <v>107</v>
+      </c>
+      <c r="H65">
+        <v>98</v>
+      </c>
+      <c r="I65">
+        <v>98</v>
+      </c>
+      <c r="J65">
+        <v>98</v>
+      </c>
+      <c r="K65">
+        <v>101</v>
+      </c>
+      <c r="L65">
+        <v>106</v>
+      </c>
+      <c r="M65">
+        <v>97</v>
+      </c>
+      <c r="N65">
+        <v>100</v>
+      </c>
+      <c r="O65">
+        <v>98</v>
+      </c>
+      <c r="P65">
+        <v>103</v>
+      </c>
+      <c r="Q65">
+        <v>130</v>
+      </c>
+      <c r="R65">
+        <v>213</v>
+      </c>
+      <c r="S65">
+        <v>127</v>
+      </c>
+      <c r="T65">
+        <v>97</v>
+      </c>
+      <c r="U65">
+        <v>104</v>
+      </c>
+      <c r="V65">
+        <v>90</v>
+      </c>
+      <c r="W65">
+        <v>102</v>
+      </c>
+      <c r="X65">
+        <v>100</v>
+      </c>
+      <c r="Y65">
+        <v>99</v>
+      </c>
+      <c r="Z65">
+        <v>98</v>
+      </c>
+      <c r="AA65">
+        <v>92</v>
+      </c>
+      <c r="AB65">
+        <v>93</v>
+      </c>
+      <c r="AC65">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29">
+      <c r="A66" t="s">
         <v>64</v>
       </c>
-      <c r="B64">
+      <c r="B66">
         <v>136</v>
       </c>
-      <c r="C64">
+      <c r="C66">
         <v>130</v>
       </c>
-      <c r="D64">
+      <c r="D66">
         <v>132</v>
       </c>
-      <c r="E64">
+      <c r="E66">
         <v>163</v>
       </c>
-      <c r="F64">
+      <c r="F66">
         <v>125</v>
       </c>
-      <c r="G64">
+      <c r="G66">
         <v>157</v>
       </c>
-      <c r="H64">
+      <c r="H66">
         <v>149</v>
       </c>
-      <c r="I64">
+      <c r="I66">
         <v>229</v>
       </c>
-      <c r="J64">
+      <c r="J66">
         <v>143</v>
       </c>
-      <c r="K64">
+      <c r="K66">
         <v>182</v>
       </c>
-      <c r="L64">
+      <c r="L66">
         <v>126</v>
       </c>
-      <c r="M64">
+      <c r="M66">
         <v>134</v>
       </c>
-      <c r="N64">
+      <c r="N66">
         <v>136</v>
       </c>
-      <c r="O64">
+      <c r="O66">
         <v>149</v>
       </c>
-      <c r="P64">
+      <c r="P66">
         <v>152</v>
       </c>
-      <c r="Q64">
+      <c r="Q66">
         <v>125</v>
       </c>
-      <c r="R64">
+      <c r="R66">
         <v>129</v>
       </c>
-      <c r="S64">
+      <c r="S66">
         <v>175</v>
       </c>
-      <c r="T64">
+      <c r="T66">
         <v>138</v>
       </c>
-      <c r="U64">
+      <c r="U66">
         <v>146</v>
       </c>
-      <c r="V64">
+      <c r="V66">
         <v>131</v>
       </c>
-      <c r="W64">
+      <c r="W66">
         <v>137</v>
       </c>
-      <c r="X64">
+      <c r="X66">
         <v>138</v>
       </c>
-      <c r="Y64">
+      <c r="Y66">
         <v>138</v>
       </c>
-      <c r="Z64">
+      <c r="Z66">
         <v>178</v>
       </c>
-      <c r="AA64">
+      <c r="AA66">
         <v>157</v>
       </c>
-      <c r="AB64">
+      <c r="AB66">
         <v>190</v>
       </c>
-      <c r="AC64">
+      <c r="AC66">
         <v>147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65">
-        <v>120</v>
-      </c>
-      <c r="C65">
-        <v>118</v>
-      </c>
-      <c r="D65">
-        <v>117</v>
-      </c>
-      <c r="E65">
-        <v>132</v>
-      </c>
-      <c r="F65">
-        <v>115</v>
-      </c>
-      <c r="G65">
-        <v>114</v>
-      </c>
-      <c r="H65">
-        <v>126</v>
-      </c>
-      <c r="I65">
-        <v>128</v>
-      </c>
-      <c r="J65">
-        <v>122</v>
-      </c>
-      <c r="K65">
-        <v>114</v>
-      </c>
-      <c r="L65">
-        <v>119</v>
-      </c>
-      <c r="M65">
-        <v>122</v>
-      </c>
-      <c r="N65">
-        <v>127</v>
-      </c>
-      <c r="O65">
-        <v>137</v>
-      </c>
-      <c r="P65">
-        <v>117</v>
-      </c>
-      <c r="Q65">
-        <v>116</v>
-      </c>
-      <c r="R65">
-        <v>119</v>
-      </c>
-      <c r="S65">
-        <v>111</v>
-      </c>
-      <c r="T65">
-        <v>116</v>
-      </c>
-      <c r="U65">
-        <v>130</v>
-      </c>
-      <c r="V65">
-        <v>124</v>
-      </c>
-      <c r="W65">
-        <v>121</v>
-      </c>
-      <c r="X65">
-        <v>118</v>
-      </c>
-      <c r="Y65">
-        <v>121</v>
-      </c>
-      <c r="Z65">
-        <v>117</v>
-      </c>
-      <c r="AA65">
-        <v>116</v>
-      </c>
-      <c r="AB65">
-        <v>110</v>
-      </c>
-      <c r="AC65">
-        <v>117</v>
-      </c>
-      <c r="AD65">
-        <v>123</v>
-      </c>
-      <c r="AE65">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="66" spans="1:31">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66">
-        <v>335</v>
-      </c>
-      <c r="C66">
-        <v>362</v>
-      </c>
-      <c r="D66">
-        <v>316</v>
-      </c>
-      <c r="E66">
-        <v>595</v>
-      </c>
-      <c r="F66">
-        <v>504</v>
-      </c>
-      <c r="G66">
-        <v>777</v>
-      </c>
-      <c r="H66">
-        <v>334</v>
-      </c>
-      <c r="I66">
-        <v>392</v>
-      </c>
-      <c r="J66">
-        <v>535</v>
-      </c>
-      <c r="K66">
-        <v>390</v>
-      </c>
-      <c r="L66">
-        <v>550</v>
-      </c>
-      <c r="M66">
-        <v>1984</v>
-      </c>
-      <c r="N66">
-        <v>654</v>
-      </c>
-      <c r="O66">
-        <v>431</v>
-      </c>
-      <c r="P66">
-        <v>408</v>
-      </c>
-      <c r="Q66">
-        <v>1022</v>
-      </c>
-      <c r="R66">
-        <v>434</v>
-      </c>
-      <c r="S66">
-        <v>326</v>
-      </c>
-      <c r="T66">
-        <v>359</v>
-      </c>
-      <c r="U66">
-        <v>678</v>
-      </c>
-      <c r="V66">
-        <v>197</v>
-      </c>
-      <c r="W66">
-        <v>392</v>
-      </c>
-      <c r="X66">
-        <v>377</v>
-      </c>
-      <c r="Y66">
-        <v>420</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>